--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>DRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42094</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>101300</v>
+        <v>120700</v>
       </c>
       <c r="E8" s="3">
-        <v>84000</v>
+        <v>86300</v>
       </c>
       <c r="F8" s="3">
-        <v>82900</v>
+        <v>71600</v>
       </c>
       <c r="G8" s="3">
-        <v>84200</v>
+        <v>70600</v>
       </c>
       <c r="H8" s="3">
-        <v>77200</v>
+        <v>71700</v>
       </c>
       <c r="I8" s="3">
-        <v>79800</v>
+        <v>65800</v>
       </c>
       <c r="J8" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K8" s="3">
         <v>87400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>77500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>87600</v>
+        <v>88300</v>
       </c>
       <c r="E9" s="3">
-        <v>83800</v>
+        <v>74600</v>
       </c>
       <c r="F9" s="3">
-        <v>81100</v>
+        <v>71400</v>
       </c>
       <c r="G9" s="3">
-        <v>76500</v>
+        <v>69000</v>
       </c>
       <c r="H9" s="3">
-        <v>77100</v>
+        <v>65100</v>
       </c>
       <c r="I9" s="3">
-        <v>76200</v>
+        <v>65700</v>
       </c>
       <c r="J9" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K9" s="3">
         <v>78500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>73100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13700</v>
+        <v>32400</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>11700</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>8900</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="G10" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>8900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>5100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,8 +949,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,35 +963,38 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>1200</v>
-      </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>93100</v>
       </c>
       <c r="E17" s="3">
-        <v>86800</v>
+        <v>76800</v>
       </c>
       <c r="F17" s="3">
-        <v>85000</v>
+        <v>73900</v>
       </c>
       <c r="G17" s="3">
-        <v>78600</v>
+        <v>72400</v>
       </c>
       <c r="H17" s="3">
-        <v>79000</v>
+        <v>66900</v>
       </c>
       <c r="I17" s="3">
-        <v>79600</v>
+        <v>67300</v>
       </c>
       <c r="J17" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K17" s="3">
         <v>81700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>75100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>35900</v>
       </c>
       <c r="M17" s="3">
         <v>35900</v>
       </c>
       <c r="N17" s="3">
+        <v>35900</v>
+      </c>
+      <c r="O17" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>27600</v>
       </c>
       <c r="E18" s="3">
-        <v>-2700</v>
+        <v>9500</v>
       </c>
       <c r="F18" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="G18" s="3">
-        <v>5600</v>
+        <v>-1800</v>
       </c>
       <c r="H18" s="3">
-        <v>-1800</v>
+        <v>4800</v>
       </c>
       <c r="I18" s="3">
-        <v>200</v>
+        <v>-1500</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,84 +1146,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>-600</v>
       </c>
       <c r="F20" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="G20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>-600</v>
-      </c>
       <c r="I20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>35000</v>
       </c>
       <c r="E21" s="3">
-        <v>1300</v>
+        <v>10600</v>
       </c>
       <c r="F21" s="3">
-        <v>-2800</v>
+        <v>1100</v>
       </c>
       <c r="G21" s="3">
-        <v>10700</v>
+        <v>-2400</v>
       </c>
       <c r="H21" s="3">
-        <v>-4100</v>
+        <v>9100</v>
       </c>
       <c r="I21" s="3">
-        <v>6800</v>
+        <v>-3500</v>
       </c>
       <c r="J21" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K21" s="3">
         <v>6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1227,84 +1267,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10400</v>
+        <v>27700</v>
       </c>
       <c r="E23" s="3">
-        <v>-3300</v>
+        <v>8800</v>
       </c>
       <c r="F23" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="G23" s="3">
-        <v>5200</v>
+        <v>-2600</v>
       </c>
       <c r="H23" s="3">
-        <v>-2400</v>
+        <v>4400</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="E24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>19000</v>
       </c>
       <c r="E26" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4100</v>
-      </c>
       <c r="H26" s="3">
-        <v>700</v>
+        <v>3500</v>
       </c>
       <c r="I26" s="3">
+        <v>600</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>19000</v>
       </c>
       <c r="E27" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>4100</v>
-      </c>
       <c r="H27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
-        <v>200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>700</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1554,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>600</v>
       </c>
       <c r="F32" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="G32" s="3">
+        <v>800</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>600</v>
-      </c>
       <c r="I32" s="3">
+        <v>500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>200</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>19000</v>
       </c>
       <c r="E33" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>4100</v>
-      </c>
       <c r="H33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
-        <v>200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>700</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>19000</v>
       </c>
       <c r="E35" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>4100</v>
-      </c>
       <c r="H35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
-        <v>200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>700</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42094</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,46 +1882,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18800</v>
+        <v>31100</v>
       </c>
       <c r="E41" s="3">
-        <v>14100</v>
+        <v>16000</v>
       </c>
       <c r="F41" s="3">
-        <v>20300</v>
+        <v>12000</v>
       </c>
       <c r="G41" s="3">
-        <v>19800</v>
+        <v>17300</v>
       </c>
       <c r="H41" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="I41" s="3">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="J41" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K41" s="3">
         <v>23600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1872,84 +1962,93 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="E43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L43" s="3">
+        <v>10100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="N43" s="3">
         <v>6800</v>
       </c>
-      <c r="F43" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>5900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>4900</v>
-      </c>
-      <c r="K43" s="3">
-        <v>10100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>7500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>6800</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20400</v>
+        <v>17500</v>
       </c>
       <c r="E44" s="3">
-        <v>18800</v>
+        <v>17400</v>
       </c>
       <c r="F44" s="3">
-        <v>15600</v>
+        <v>16000</v>
       </c>
       <c r="G44" s="3">
-        <v>16300</v>
+        <v>13300</v>
       </c>
       <c r="H44" s="3">
-        <v>12100</v>
+        <v>13900</v>
       </c>
       <c r="I44" s="3">
-        <v>12500</v>
+        <v>10300</v>
       </c>
       <c r="J44" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K44" s="3">
         <v>10800</v>
-      </c>
-      <c r="K44" s="3">
-        <v>11900</v>
       </c>
       <c r="L44" s="3">
         <v>11900</v>
       </c>
       <c r="M44" s="3">
+        <v>11900</v>
+      </c>
+      <c r="N44" s="3">
         <v>10000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1962,146 +2061,158 @@
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>700</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
       </c>
       <c r="M45" s="3">
+        <v>700</v>
+      </c>
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44000</v>
+        <v>55600</v>
       </c>
       <c r="E46" s="3">
-        <v>39600</v>
+        <v>37500</v>
       </c>
       <c r="F46" s="3">
-        <v>42000</v>
+        <v>33800</v>
       </c>
       <c r="G46" s="3">
-        <v>42000</v>
+        <v>35800</v>
       </c>
       <c r="H46" s="3">
-        <v>36800</v>
+        <v>35800</v>
       </c>
       <c r="I46" s="3">
-        <v>38900</v>
+        <v>31300</v>
       </c>
       <c r="J46" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K46" s="3">
         <v>40300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>43100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>37700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>39400</v>
+        <v>36900</v>
       </c>
       <c r="E47" s="3">
-        <v>43800</v>
+        <v>35400</v>
       </c>
       <c r="F47" s="3">
-        <v>18300</v>
+        <v>37300</v>
       </c>
       <c r="G47" s="3">
-        <v>16600</v>
+        <v>15600</v>
       </c>
       <c r="H47" s="3">
-        <v>15900</v>
+        <v>14100</v>
       </c>
       <c r="I47" s="3">
-        <v>14900</v>
+        <v>13500</v>
       </c>
       <c r="J47" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K47" s="3">
         <v>14200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>186200</v>
+        <v>156500</v>
       </c>
       <c r="E48" s="3">
-        <v>196500</v>
+        <v>158600</v>
       </c>
       <c r="F48" s="3">
-        <v>97500</v>
+        <v>167400</v>
       </c>
       <c r="G48" s="3">
-        <v>100800</v>
+        <v>83000</v>
       </c>
       <c r="H48" s="3">
-        <v>100500</v>
+        <v>85800</v>
       </c>
       <c r="I48" s="3">
-        <v>104700</v>
+        <v>85600</v>
       </c>
       <c r="J48" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K48" s="3">
         <v>107400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>114100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>120300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>119900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2138,8 +2249,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,22 +2331,25 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2238,13 +2358,13 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -2252,8 +2372,11 @@
       <c r="N52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>272400</v>
+        <v>249500</v>
       </c>
       <c r="E54" s="3">
-        <v>280400</v>
+        <v>232000</v>
       </c>
       <c r="F54" s="3">
-        <v>158400</v>
+        <v>238800</v>
       </c>
       <c r="G54" s="3">
-        <v>159700</v>
+        <v>134900</v>
       </c>
       <c r="H54" s="3">
-        <v>153500</v>
+        <v>136000</v>
       </c>
       <c r="I54" s="3">
-        <v>158800</v>
+        <v>130700</v>
       </c>
       <c r="J54" s="3">
+        <v>135200</v>
+      </c>
+      <c r="K54" s="3">
         <v>162300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>168600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>177300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>174400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,57 +2490,61 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28100</v>
+        <v>21800</v>
       </c>
       <c r="E57" s="3">
-        <v>27100</v>
+        <v>24000</v>
       </c>
       <c r="F57" s="3">
-        <v>20400</v>
+        <v>23100</v>
       </c>
       <c r="G57" s="3">
-        <v>18500</v>
+        <v>17300</v>
       </c>
       <c r="H57" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="I57" s="3">
-        <v>18200</v>
+        <v>14400</v>
       </c>
       <c r="J57" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K57" s="3">
         <v>19400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>900</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2418,8 +2552,8 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>200</v>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2428,121 +2562,130 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>1800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>5600</v>
       </c>
       <c r="N58" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1900</v>
+        <v>4200</v>
       </c>
       <c r="E59" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="F59" s="3">
         <v>1200</v>
       </c>
       <c r="G59" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>1600</v>
-      </c>
       <c r="J59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1400</v>
       </c>
       <c r="L59" s="3">
         <v>1400</v>
       </c>
       <c r="M59" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="N59" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30700</v>
+        <v>26400</v>
       </c>
       <c r="E60" s="3">
-        <v>29400</v>
+        <v>26200</v>
       </c>
       <c r="F60" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>18300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K60" s="3">
+        <v>21000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>18500</v>
+      </c>
+      <c r="M60" s="3">
         <v>21500</v>
       </c>
-      <c r="G60" s="3">
-        <v>19600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>17200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>19600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>21000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>18500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>21500</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E61" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G61" s="3">
+        <v>800</v>
+      </c>
+      <c r="H61" s="3">
+        <v>900</v>
+      </c>
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1400</v>
       </c>
       <c r="M61" s="3">
         <v>1400</v>
@@ -2550,46 +2693,52 @@
       <c r="N61" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61300</v>
+        <v>55700</v>
       </c>
       <c r="E62" s="3">
-        <v>67200</v>
+        <v>52200</v>
       </c>
       <c r="F62" s="3">
-        <v>50800</v>
+        <v>57200</v>
       </c>
       <c r="G62" s="3">
-        <v>48800</v>
+        <v>43300</v>
       </c>
       <c r="H62" s="3">
-        <v>47700</v>
+        <v>41600</v>
       </c>
       <c r="I62" s="3">
-        <v>51100</v>
+        <v>40600</v>
       </c>
       <c r="J62" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K62" s="3">
         <v>50300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>43600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>92000</v>
+        <v>84600</v>
       </c>
       <c r="E66" s="3">
-        <v>108200</v>
+        <v>78400</v>
       </c>
       <c r="F66" s="3">
-        <v>73300</v>
+        <v>92100</v>
       </c>
       <c r="G66" s="3">
-        <v>69500</v>
+        <v>62500</v>
       </c>
       <c r="H66" s="3">
-        <v>66100</v>
+        <v>59200</v>
       </c>
       <c r="I66" s="3">
-        <v>71900</v>
+        <v>56300</v>
       </c>
       <c r="J66" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K66" s="3">
         <v>72400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>65300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>82600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>180400</v>
+        <v>164900</v>
       </c>
       <c r="E72" s="3">
-        <v>172200</v>
+        <v>153700</v>
       </c>
       <c r="F72" s="3">
-        <v>85000</v>
+        <v>146700</v>
       </c>
       <c r="G72" s="3">
-        <v>90200</v>
+        <v>72400</v>
       </c>
       <c r="H72" s="3">
-        <v>87400</v>
+        <v>76800</v>
       </c>
       <c r="I72" s="3">
-        <v>86900</v>
+        <v>74400</v>
       </c>
       <c r="J72" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K72" s="3">
         <v>89900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>103300</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>180400</v>
+        <v>164900</v>
       </c>
       <c r="E76" s="3">
-        <v>172200</v>
+        <v>153700</v>
       </c>
       <c r="F76" s="3">
-        <v>85000</v>
+        <v>146700</v>
       </c>
       <c r="G76" s="3">
-        <v>90200</v>
+        <v>72400</v>
       </c>
       <c r="H76" s="3">
-        <v>87400</v>
+        <v>76800</v>
       </c>
       <c r="I76" s="3">
-        <v>86900</v>
+        <v>74400</v>
       </c>
       <c r="J76" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K76" s="3">
         <v>89900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>103300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>108300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>106200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42094</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>19000</v>
       </c>
       <c r="E81" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>4100</v>
-      </c>
       <c r="H81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
-        <v>200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>700</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3431,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19700</v>
+        <v>25900</v>
       </c>
       <c r="E89" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>23300</v>
+      </c>
+      <c r="L89" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M89" s="3">
         <v>5200</v>
       </c>
-      <c r="G89" s="3">
-        <v>10500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>23300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>4700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>5200</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,37 +3735,38 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6700</v>
+        <v>-2100</v>
       </c>
       <c r="E91" s="3">
-        <v>-16600</v>
+        <v>-5700</v>
       </c>
       <c r="F91" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-4100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -3553,8 +3774,11 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3200</v>
+        <v>-2600</v>
       </c>
       <c r="E94" s="3">
-        <v>-17200</v>
+        <v>-2700</v>
       </c>
       <c r="F94" s="3">
-        <v>-3200</v>
+        <v>-14600</v>
       </c>
       <c r="G94" s="3">
-        <v>-6200</v>
+        <v>-2700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3200</v>
+        <v>-5300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3300</v>
+        <v>-2700</v>
       </c>
       <c r="J94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,46 +3916,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-7800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="I96" s="3">
-        <v>-3400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-14100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,46 +4078,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11800</v>
+        <v>-8200</v>
       </c>
       <c r="E100" s="3">
-        <v>11300</v>
+        <v>-10100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1500</v>
+        <v>9600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1500</v>
+        <v>-1300</v>
       </c>
       <c r="H100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="M100" s="3">
         <v>-3500</v>
       </c>
-      <c r="J100" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3911,42 +4160,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4700</v>
+        <v>15100</v>
       </c>
       <c r="E102" s="3">
-        <v>-6200</v>
+        <v>4000</v>
       </c>
       <c r="F102" s="3">
-        <v>500</v>
+        <v>-5300</v>
       </c>
       <c r="G102" s="3">
+        <v>400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="M102" s="3">
         <v>2700</v>
       </c>
-      <c r="H102" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>6600</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="L102" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -736,25 +736,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>120700</v>
+        <v>125200</v>
       </c>
       <c r="E8" s="3">
-        <v>86300</v>
+        <v>89500</v>
       </c>
       <c r="F8" s="3">
-        <v>71600</v>
+        <v>74200</v>
       </c>
       <c r="G8" s="3">
-        <v>70600</v>
+        <v>73200</v>
       </c>
       <c r="H8" s="3">
-        <v>71700</v>
+        <v>74400</v>
       </c>
       <c r="I8" s="3">
-        <v>65800</v>
+        <v>68200</v>
       </c>
       <c r="J8" s="3">
-        <v>67900</v>
+        <v>70500</v>
       </c>
       <c r="K8" s="3">
         <v>87400</v>
@@ -777,25 +777,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>88300</v>
+        <v>91500</v>
       </c>
       <c r="E9" s="3">
-        <v>74600</v>
+        <v>77400</v>
       </c>
       <c r="F9" s="3">
-        <v>71400</v>
+        <v>74000</v>
       </c>
       <c r="G9" s="3">
-        <v>69000</v>
+        <v>71600</v>
       </c>
       <c r="H9" s="3">
-        <v>65100</v>
+        <v>67600</v>
       </c>
       <c r="I9" s="3">
-        <v>65700</v>
+        <v>68100</v>
       </c>
       <c r="J9" s="3">
-        <v>64900</v>
+        <v>67300</v>
       </c>
       <c r="K9" s="3">
         <v>78500</v>
@@ -818,10 +818,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>32400</v>
+        <v>33600</v>
       </c>
       <c r="E10" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -830,13 +830,13 @@
         <v>1600</v>
       </c>
       <c r="H10" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K10" s="3">
         <v>8900</v>
@@ -976,7 +976,7 @@
         <v>300</v>
       </c>
       <c r="J14" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>93100</v>
+        <v>96600</v>
       </c>
       <c r="E17" s="3">
-        <v>76800</v>
+        <v>79700</v>
       </c>
       <c r="F17" s="3">
-        <v>73900</v>
+        <v>76600</v>
       </c>
       <c r="G17" s="3">
-        <v>72400</v>
+        <v>75100</v>
       </c>
       <c r="H17" s="3">
-        <v>66900</v>
+        <v>69400</v>
       </c>
       <c r="I17" s="3">
-        <v>67300</v>
+        <v>69800</v>
       </c>
       <c r="J17" s="3">
-        <v>67800</v>
+        <v>70300</v>
       </c>
       <c r="K17" s="3">
         <v>81700</v>
@@ -1095,22 +1095,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>27600</v>
+        <v>28600</v>
       </c>
       <c r="E18" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="F18" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G18" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H18" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I18" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J18" s="3">
         <v>100</v>
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F20" s="3">
         <v>-500</v>
@@ -1168,10 +1168,10 @@
         <v>-400</v>
       </c>
       <c r="I20" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K20" s="3">
         <v>-200</v>
@@ -1194,25 +1194,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>35000</v>
+        <v>36300</v>
       </c>
       <c r="E21" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="F21" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G21" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H21" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="I21" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="J21" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="K21" s="3">
         <v>6300</v>
@@ -1276,22 +1276,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>27700</v>
+        <v>28700</v>
       </c>
       <c r="E23" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="F23" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="G23" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="H23" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I23" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="E24" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F24" s="3">
         <v>-200</v>
       </c>
       <c r="G24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H24" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I24" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="J24" s="3">
         <v>-200</v>
@@ -1399,22 +1399,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>19000</v>
+        <v>19700</v>
       </c>
       <c r="E26" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="F26" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G26" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H26" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
@@ -1440,22 +1440,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19000</v>
+        <v>19700</v>
       </c>
       <c r="E27" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="F27" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G27" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H27" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J27" s="3">
         <v>200</v>
@@ -1648,7 +1648,7 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F32" s="3">
         <v>500</v>
@@ -1660,10 +1660,10 @@
         <v>400</v>
       </c>
       <c r="I32" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K32" s="3">
         <v>200</v>
@@ -1686,22 +1686,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19000</v>
+        <v>19700</v>
       </c>
       <c r="E33" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="F33" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G33" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H33" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J33" s="3">
         <v>200</v>
@@ -1768,22 +1768,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19000</v>
+        <v>19700</v>
       </c>
       <c r="E35" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="F35" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G35" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H35" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J35" s="3">
         <v>200</v>
@@ -1889,25 +1889,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31100</v>
+        <v>32200</v>
       </c>
       <c r="E41" s="3">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="F41" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="G41" s="3">
-        <v>17300</v>
+        <v>17900</v>
       </c>
       <c r="H41" s="3">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="I41" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="J41" s="3">
-        <v>16600</v>
+        <v>17200</v>
       </c>
       <c r="K41" s="3">
         <v>23600</v>
@@ -1971,25 +1971,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="E43" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="F43" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="G43" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H43" s="3">
         <v>5200</v>
       </c>
-      <c r="H43" s="3">
-        <v>5100</v>
-      </c>
       <c r="I43" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="J43" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="K43" s="3">
         <v>4900</v>
@@ -2012,25 +2012,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17500</v>
+        <v>18200</v>
       </c>
       <c r="E44" s="3">
-        <v>17400</v>
+        <v>18100</v>
       </c>
       <c r="F44" s="3">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="G44" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="H44" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="I44" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="J44" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="K44" s="3">
         <v>10800</v>
@@ -2094,25 +2094,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>55600</v>
+        <v>57600</v>
       </c>
       <c r="E46" s="3">
-        <v>37500</v>
+        <v>38900</v>
       </c>
       <c r="F46" s="3">
-        <v>33800</v>
+        <v>35000</v>
       </c>
       <c r="G46" s="3">
-        <v>35800</v>
+        <v>37100</v>
       </c>
       <c r="H46" s="3">
-        <v>35800</v>
+        <v>37100</v>
       </c>
       <c r="I46" s="3">
-        <v>31300</v>
+        <v>32500</v>
       </c>
       <c r="J46" s="3">
-        <v>33100</v>
+        <v>34400</v>
       </c>
       <c r="K46" s="3">
         <v>40300</v>
@@ -2135,25 +2135,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36900</v>
+        <v>38300</v>
       </c>
       <c r="E47" s="3">
-        <v>35400</v>
+        <v>36700</v>
       </c>
       <c r="F47" s="3">
-        <v>37300</v>
+        <v>38700</v>
       </c>
       <c r="G47" s="3">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="H47" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="I47" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="J47" s="3">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="K47" s="3">
         <v>14200</v>
@@ -2176,25 +2176,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>156500</v>
+        <v>162300</v>
       </c>
       <c r="E48" s="3">
-        <v>158600</v>
+        <v>164500</v>
       </c>
       <c r="F48" s="3">
-        <v>167400</v>
+        <v>173600</v>
       </c>
       <c r="G48" s="3">
-        <v>83000</v>
+        <v>86100</v>
       </c>
       <c r="H48" s="3">
-        <v>85800</v>
+        <v>89000</v>
       </c>
       <c r="I48" s="3">
-        <v>85600</v>
+        <v>88800</v>
       </c>
       <c r="J48" s="3">
-        <v>89200</v>
+        <v>92500</v>
       </c>
       <c r="K48" s="3">
         <v>107400</v>
@@ -2340,7 +2340,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
@@ -2422,25 +2422,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>249500</v>
+        <v>258800</v>
       </c>
       <c r="E54" s="3">
-        <v>232000</v>
+        <v>240700</v>
       </c>
       <c r="F54" s="3">
-        <v>238800</v>
+        <v>247700</v>
       </c>
       <c r="G54" s="3">
-        <v>134900</v>
+        <v>139900</v>
       </c>
       <c r="H54" s="3">
-        <v>136000</v>
+        <v>141100</v>
       </c>
       <c r="I54" s="3">
-        <v>130700</v>
+        <v>135600</v>
       </c>
       <c r="J54" s="3">
-        <v>135200</v>
+        <v>140300</v>
       </c>
       <c r="K54" s="3">
         <v>162300</v>
@@ -2497,25 +2497,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21800</v>
+        <v>22600</v>
       </c>
       <c r="E57" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F57" s="3">
         <v>24000</v>
       </c>
-      <c r="F57" s="3">
-        <v>23100</v>
-      </c>
       <c r="G57" s="3">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="H57" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="I57" s="3">
-        <v>14400</v>
+        <v>14900</v>
       </c>
       <c r="J57" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="K57" s="3">
         <v>19400</v>
@@ -2541,10 +2541,10 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2579,10 +2579,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F59" s="3">
         <v>1200</v>
@@ -2597,7 +2597,7 @@
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K59" s="3">
         <v>1500</v>
@@ -2620,25 +2620,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>26400</v>
+        <v>27400</v>
       </c>
       <c r="E60" s="3">
-        <v>26200</v>
+        <v>27200</v>
       </c>
       <c r="F60" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="G60" s="3">
-        <v>18300</v>
+        <v>19000</v>
       </c>
       <c r="H60" s="3">
-        <v>16700</v>
+        <v>17300</v>
       </c>
       <c r="I60" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="J60" s="3">
-        <v>16700</v>
+        <v>17300</v>
       </c>
       <c r="K60" s="3">
         <v>21000</v>
@@ -2661,16 +2661,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="G61" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H61" s="3">
         <v>900</v>
@@ -2679,7 +2679,7 @@
         <v>1000</v>
       </c>
       <c r="J61" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K61" s="3">
         <v>1100</v>
@@ -2702,25 +2702,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55700</v>
+        <v>57800</v>
       </c>
       <c r="E62" s="3">
-        <v>52200</v>
+        <v>54100</v>
       </c>
       <c r="F62" s="3">
-        <v>57200</v>
+        <v>59300</v>
       </c>
       <c r="G62" s="3">
-        <v>43300</v>
+        <v>44900</v>
       </c>
       <c r="H62" s="3">
-        <v>41600</v>
+        <v>43100</v>
       </c>
       <c r="I62" s="3">
-        <v>40600</v>
+        <v>42200</v>
       </c>
       <c r="J62" s="3">
-        <v>43500</v>
+        <v>45100</v>
       </c>
       <c r="K62" s="3">
         <v>50300</v>
@@ -2866,25 +2866,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>84600</v>
+        <v>87800</v>
       </c>
       <c r="E66" s="3">
-        <v>78400</v>
+        <v>81300</v>
       </c>
       <c r="F66" s="3">
-        <v>92100</v>
+        <v>95600</v>
       </c>
       <c r="G66" s="3">
-        <v>62500</v>
+        <v>64800</v>
       </c>
       <c r="H66" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="I66" s="3">
-        <v>56300</v>
+        <v>58400</v>
       </c>
       <c r="J66" s="3">
-        <v>61200</v>
+        <v>63500</v>
       </c>
       <c r="K66" s="3">
         <v>72400</v>
@@ -3088,25 +3088,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>164900</v>
+        <v>171000</v>
       </c>
       <c r="E72" s="3">
-        <v>153700</v>
+        <v>159400</v>
       </c>
       <c r="F72" s="3">
-        <v>146700</v>
+        <v>152100</v>
       </c>
       <c r="G72" s="3">
-        <v>72400</v>
+        <v>75100</v>
       </c>
       <c r="H72" s="3">
-        <v>76800</v>
+        <v>79700</v>
       </c>
       <c r="I72" s="3">
-        <v>74400</v>
+        <v>77200</v>
       </c>
       <c r="J72" s="3">
-        <v>74000</v>
+        <v>76700</v>
       </c>
       <c r="K72" s="3">
         <v>89900</v>
@@ -3252,25 +3252,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>164900</v>
+        <v>171000</v>
       </c>
       <c r="E76" s="3">
-        <v>153700</v>
+        <v>159400</v>
       </c>
       <c r="F76" s="3">
-        <v>146700</v>
+        <v>152100</v>
       </c>
       <c r="G76" s="3">
-        <v>72400</v>
+        <v>75100</v>
       </c>
       <c r="H76" s="3">
-        <v>76800</v>
+        <v>79700</v>
       </c>
       <c r="I76" s="3">
-        <v>74400</v>
+        <v>77200</v>
       </c>
       <c r="J76" s="3">
-        <v>74000</v>
+        <v>76700</v>
       </c>
       <c r="K76" s="3">
         <v>89900</v>
@@ -3380,22 +3380,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19000</v>
+        <v>19700</v>
       </c>
       <c r="E81" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="F81" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G81" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H81" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J81" s="3">
         <v>200</v>
@@ -3684,25 +3684,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25900</v>
+        <v>26800</v>
       </c>
       <c r="E89" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H89" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="I89" s="3">
         <v>700</v>
       </c>
       <c r="J89" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K89" s="3">
         <v>23300</v>
@@ -3742,25 +3742,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="E91" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="F91" s="3">
-        <v>-14100</v>
+        <v>-14600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H91" s="3">
-        <v>-4900</v>
+        <v>-5100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="J91" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="K91" s="3">
         <v>-2600</v>
@@ -3865,25 +3865,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F94" s="3">
-        <v>-14600</v>
+        <v>-15200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H94" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="K94" s="3">
         <v>-2700</v>
@@ -3923,7 +3923,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7800</v>
+        <v>-8100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H96" s="3">
         <v>-1200</v>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K96" s="3">
         <v>-14100</v>
@@ -4087,16 +4087,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="E100" s="3">
-        <v>-10100</v>
+        <v>-10400</v>
       </c>
       <c r="F100" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H100" s="3">
         <v>-1300</v>
@@ -4105,7 +4105,7 @@
         <v>-100</v>
       </c>
       <c r="J100" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="K100" s="3">
         <v>-14000</v>
@@ -4169,25 +4169,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="E102" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="F102" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="G102" s="3">
         <v>400</v>
       </c>
       <c r="H102" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I102" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J102" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="K102" s="3">
         <v>6600</v>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>DRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42094</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>125200</v>
+        <v>135900</v>
       </c>
       <c r="E8" s="3">
-        <v>89500</v>
+        <v>138400</v>
       </c>
       <c r="F8" s="3">
-        <v>74200</v>
+        <v>99000</v>
       </c>
       <c r="G8" s="3">
-        <v>73200</v>
+        <v>82100</v>
       </c>
       <c r="H8" s="3">
-        <v>74400</v>
+        <v>81000</v>
       </c>
       <c r="I8" s="3">
-        <v>68200</v>
+        <v>82300</v>
       </c>
       <c r="J8" s="3">
+        <v>75500</v>
+      </c>
+      <c r="K8" s="3">
         <v>70500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>87400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>77500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>91500</v>
+        <v>91400</v>
       </c>
       <c r="E9" s="3">
-        <v>77400</v>
+        <v>101200</v>
       </c>
       <c r="F9" s="3">
-        <v>74000</v>
+        <v>85600</v>
       </c>
       <c r="G9" s="3">
-        <v>71600</v>
+        <v>81900</v>
       </c>
       <c r="H9" s="3">
-        <v>67600</v>
+        <v>79200</v>
       </c>
       <c r="I9" s="3">
-        <v>68100</v>
+        <v>74700</v>
       </c>
       <c r="J9" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K9" s="3">
         <v>67300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>78500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>73100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>34800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33600</v>
+        <v>44600</v>
       </c>
       <c r="E10" s="3">
-        <v>12100</v>
+        <v>37200</v>
       </c>
       <c r="F10" s="3">
+        <v>13400</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>1600</v>
-      </c>
       <c r="H10" s="3">
-        <v>6800</v>
+        <v>1800</v>
       </c>
       <c r="I10" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,8 +969,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,35 +986,38 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>96600</v>
+        <v>106100</v>
       </c>
       <c r="E17" s="3">
-        <v>79700</v>
+        <v>106800</v>
       </c>
       <c r="F17" s="3">
-        <v>76600</v>
+        <v>88100</v>
       </c>
       <c r="G17" s="3">
+        <v>84800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>83100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>76800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>77200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>70300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>81700</v>
+      </c>
+      <c r="M17" s="3">
         <v>75100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>69400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>69800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>70300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>81700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>75100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>35900</v>
       </c>
       <c r="N17" s="3">
         <v>35900</v>
       </c>
       <c r="O17" s="3">
+        <v>35900</v>
+      </c>
+      <c r="P17" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>28600</v>
+        <v>29900</v>
       </c>
       <c r="E18" s="3">
-        <v>9800</v>
+        <v>31600</v>
       </c>
       <c r="F18" s="3">
-        <v>-2400</v>
+        <v>10900</v>
       </c>
       <c r="G18" s="3">
-        <v>-1900</v>
+        <v>-2600</v>
       </c>
       <c r="H18" s="3">
-        <v>4900</v>
+        <v>-2100</v>
       </c>
       <c r="I18" s="3">
-        <v>-1600</v>
+        <v>5500</v>
       </c>
       <c r="J18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,90 +1180,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
-        <v>-500</v>
-      </c>
       <c r="G20" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="H20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-200</v>
       </c>
       <c r="K20" s="3">
         <v>-200</v>
       </c>
       <c r="L20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>36300</v>
+        <v>33400</v>
       </c>
       <c r="E21" s="3">
-        <v>11000</v>
+        <v>40100</v>
       </c>
       <c r="F21" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K21" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L21" s="3">
+        <v>6300</v>
+      </c>
+      <c r="M21" s="3">
+        <v>7600</v>
+      </c>
+      <c r="N21" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O21" s="3">
         <v>1200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>9500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>6300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>7600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>5800</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1270,90 +1310,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>28700</v>
+        <v>32400</v>
       </c>
       <c r="E23" s="3">
-        <v>9200</v>
+        <v>31800</v>
       </c>
       <c r="F23" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>4600</v>
-      </c>
       <c r="I23" s="3">
-        <v>-2200</v>
+        <v>5100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9000</v>
+        <v>12600</v>
       </c>
       <c r="E24" s="3">
-        <v>1800</v>
+        <v>9900</v>
       </c>
       <c r="F24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
-        <v>1000</v>
-      </c>
       <c r="I24" s="3">
-        <v>-2800</v>
+        <v>1100</v>
       </c>
       <c r="J24" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="E26" s="3">
-        <v>7400</v>
+        <v>21800</v>
       </c>
       <c r="F26" s="3">
-        <v>-2700</v>
+        <v>8200</v>
       </c>
       <c r="G26" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H26" s="3">
-        <v>3600</v>
+        <v>-3500</v>
       </c>
       <c r="I26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="E27" s="3">
-        <v>7400</v>
+        <v>21800</v>
       </c>
       <c r="F27" s="3">
-        <v>-2700</v>
+        <v>8200</v>
       </c>
       <c r="G27" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H27" s="3">
-        <v>3600</v>
+        <v>-3500</v>
       </c>
       <c r="I27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
-        <v>500</v>
-      </c>
       <c r="G32" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H32" s="3">
+        <v>900</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>200</v>
       </c>
       <c r="K32" s="3">
         <v>200</v>
       </c>
       <c r="L32" s="3">
+        <v>200</v>
+      </c>
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="E33" s="3">
-        <v>7400</v>
+        <v>21800</v>
       </c>
       <c r="F33" s="3">
-        <v>-2700</v>
+        <v>8200</v>
       </c>
       <c r="G33" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H33" s="3">
-        <v>3600</v>
+        <v>-3500</v>
       </c>
       <c r="I33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="E35" s="3">
-        <v>7400</v>
+        <v>21800</v>
       </c>
       <c r="F35" s="3">
-        <v>-2700</v>
+        <v>8200</v>
       </c>
       <c r="G35" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H35" s="3">
-        <v>3600</v>
+        <v>-3500</v>
       </c>
       <c r="I35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42094</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,49 +1969,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32200</v>
+        <v>112400</v>
       </c>
       <c r="E41" s="3">
+        <v>35600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>18300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>19800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J41" s="3">
         <v>16600</v>
       </c>
-      <c r="F41" s="3">
-        <v>12400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>17900</v>
-      </c>
-      <c r="H41" s="3">
-        <v>17500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>15000</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1965,90 +2055,99 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7300</v>
+        <v>9900</v>
       </c>
       <c r="E43" s="3">
-        <v>4300</v>
+        <v>8000</v>
       </c>
       <c r="F43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H43" s="3">
         <v>6000</v>
       </c>
-      <c r="G43" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>5200</v>
-      </c>
       <c r="I43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M43" s="3">
+        <v>10100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="O43" s="3">
         <v>6800</v>
       </c>
-      <c r="J43" s="3">
-        <v>5500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>4900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>10100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>7500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>6800</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18200</v>
+        <v>21200</v>
       </c>
       <c r="E44" s="3">
-        <v>18100</v>
+        <v>20100</v>
       </c>
       <c r="F44" s="3">
-        <v>16600</v>
+        <v>20000</v>
       </c>
       <c r="G44" s="3">
-        <v>13800</v>
+        <v>18300</v>
       </c>
       <c r="H44" s="3">
-        <v>14400</v>
+        <v>15300</v>
       </c>
       <c r="I44" s="3">
-        <v>10700</v>
+        <v>15900</v>
       </c>
       <c r="J44" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K44" s="3">
         <v>11100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10800</v>
-      </c>
-      <c r="L44" s="3">
-        <v>11900</v>
       </c>
       <c r="M44" s="3">
         <v>11900</v>
       </c>
       <c r="N44" s="3">
+        <v>11900</v>
+      </c>
+      <c r="O44" s="3">
         <v>10000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2064,155 +2163,167 @@
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>700</v>
       </c>
       <c r="M45" s="3">
         <v>700</v>
       </c>
       <c r="N45" s="3">
+        <v>700</v>
+      </c>
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>57600</v>
+        <v>143600</v>
       </c>
       <c r="E46" s="3">
-        <v>38900</v>
+        <v>63700</v>
       </c>
       <c r="F46" s="3">
-        <v>35000</v>
+        <v>43000</v>
       </c>
       <c r="G46" s="3">
-        <v>37100</v>
+        <v>38700</v>
       </c>
       <c r="H46" s="3">
-        <v>37100</v>
+        <v>41100</v>
       </c>
       <c r="I46" s="3">
-        <v>32500</v>
+        <v>41000</v>
       </c>
       <c r="J46" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K46" s="3">
         <v>34400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>43100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>37700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>38300</v>
+        <v>56100</v>
       </c>
       <c r="E47" s="3">
-        <v>36700</v>
+        <v>42400</v>
       </c>
       <c r="F47" s="3">
-        <v>38700</v>
+        <v>40600</v>
       </c>
       <c r="G47" s="3">
+        <v>42800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>17900</v>
+      </c>
+      <c r="I47" s="3">
         <v>16200</v>
       </c>
-      <c r="H47" s="3">
-        <v>14600</v>
-      </c>
-      <c r="I47" s="3">
-        <v>14000</v>
-      </c>
       <c r="J47" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K47" s="3">
         <v>13100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>162300</v>
+        <v>171800</v>
       </c>
       <c r="E48" s="3">
-        <v>164500</v>
+        <v>179500</v>
       </c>
       <c r="F48" s="3">
-        <v>173600</v>
+        <v>181900</v>
       </c>
       <c r="G48" s="3">
-        <v>86100</v>
+        <v>192000</v>
       </c>
       <c r="H48" s="3">
-        <v>89000</v>
+        <v>95200</v>
       </c>
       <c r="I48" s="3">
-        <v>88800</v>
+        <v>98500</v>
       </c>
       <c r="J48" s="3">
+        <v>98200</v>
+      </c>
+      <c r="K48" s="3">
         <v>92500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>107400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>114100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>120300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>119900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2252,8 +2363,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,25 +2451,28 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2361,13 +2481,13 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -2375,8 +2495,11 @@
       <c r="O52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>258800</v>
+        <v>372100</v>
       </c>
       <c r="E54" s="3">
-        <v>240700</v>
+        <v>286200</v>
       </c>
       <c r="F54" s="3">
-        <v>247700</v>
+        <v>266200</v>
       </c>
       <c r="G54" s="3">
-        <v>139900</v>
+        <v>273900</v>
       </c>
       <c r="H54" s="3">
-        <v>141100</v>
+        <v>154700</v>
       </c>
       <c r="I54" s="3">
-        <v>135600</v>
+        <v>156000</v>
       </c>
       <c r="J54" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K54" s="3">
         <v>140300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>162300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>168600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>177300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>174400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,63 +2621,67 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22600</v>
+        <v>31400</v>
       </c>
       <c r="E57" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="F57" s="3">
-        <v>24000</v>
+        <v>27500</v>
       </c>
       <c r="G57" s="3">
-        <v>18000</v>
+        <v>26500</v>
       </c>
       <c r="H57" s="3">
-        <v>16300</v>
+        <v>19900</v>
       </c>
       <c r="I57" s="3">
-        <v>14900</v>
+        <v>18100</v>
       </c>
       <c r="J57" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K57" s="3">
         <v>16000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2555,8 +2689,8 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>200</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2565,115 +2699,124 @@
         <v>200</v>
       </c>
       <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
         <v>1800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>5600</v>
       </c>
       <c r="O58" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4300</v>
+        <v>16800</v>
       </c>
       <c r="E59" s="3">
-        <v>1700</v>
+        <v>4800</v>
       </c>
       <c r="F59" s="3">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="G59" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="H59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1500</v>
       </c>
       <c r="K59" s="3">
         <v>1500</v>
       </c>
       <c r="L59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M59" s="3">
         <v>1400</v>
       </c>
       <c r="N59" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="O59" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27400</v>
+        <v>48900</v>
       </c>
       <c r="E60" s="3">
-        <v>27200</v>
+        <v>30300</v>
       </c>
       <c r="F60" s="3">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="G60" s="3">
-        <v>19000</v>
+        <v>28700</v>
       </c>
       <c r="H60" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K60" s="3">
         <v>17300</v>
       </c>
-      <c r="I60" s="3">
-        <v>15200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>17300</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F61" s="3">
-        <v>10300</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>900</v>
+        <v>11400</v>
       </c>
       <c r="H61" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I61" s="3">
         <v>1000</v>
@@ -2685,10 +2828,10 @@
         <v>1100</v>
       </c>
       <c r="L61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M61" s="3">
         <v>1200</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1400</v>
       </c>
       <c r="N61" s="3">
         <v>1400</v>
@@ -2696,49 +2839,55 @@
       <c r="O61" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57800</v>
+        <v>55900</v>
       </c>
       <c r="E62" s="3">
-        <v>54100</v>
+        <v>63900</v>
       </c>
       <c r="F62" s="3">
-        <v>59300</v>
+        <v>59900</v>
       </c>
       <c r="G62" s="3">
-        <v>44900</v>
+        <v>65600</v>
       </c>
       <c r="H62" s="3">
-        <v>43100</v>
+        <v>49700</v>
       </c>
       <c r="I62" s="3">
-        <v>42200</v>
+        <v>47700</v>
       </c>
       <c r="J62" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K62" s="3">
         <v>45100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>50300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>43600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>87800</v>
+        <v>107200</v>
       </c>
       <c r="E66" s="3">
-        <v>81300</v>
+        <v>97100</v>
       </c>
       <c r="F66" s="3">
-        <v>95600</v>
+        <v>89900</v>
       </c>
       <c r="G66" s="3">
-        <v>64800</v>
+        <v>105700</v>
       </c>
       <c r="H66" s="3">
-        <v>61400</v>
+        <v>71700</v>
       </c>
       <c r="I66" s="3">
-        <v>58400</v>
+        <v>67900</v>
       </c>
       <c r="J66" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K66" s="3">
         <v>63500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>65300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>82600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>171000</v>
+        <v>264900</v>
       </c>
       <c r="E72" s="3">
-        <v>159400</v>
+        <v>189100</v>
       </c>
       <c r="F72" s="3">
-        <v>152100</v>
+        <v>176300</v>
       </c>
       <c r="G72" s="3">
-        <v>75100</v>
+        <v>168200</v>
       </c>
       <c r="H72" s="3">
-        <v>79700</v>
+        <v>83100</v>
       </c>
       <c r="I72" s="3">
-        <v>77200</v>
+        <v>88100</v>
       </c>
       <c r="J72" s="3">
+        <v>85400</v>
+      </c>
+      <c r="K72" s="3">
         <v>76700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>89900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>103300</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>171000</v>
+        <v>264900</v>
       </c>
       <c r="E76" s="3">
-        <v>159400</v>
+        <v>189100</v>
       </c>
       <c r="F76" s="3">
-        <v>152100</v>
+        <v>176300</v>
       </c>
       <c r="G76" s="3">
-        <v>75100</v>
+        <v>168200</v>
       </c>
       <c r="H76" s="3">
-        <v>79700</v>
+        <v>83100</v>
       </c>
       <c r="I76" s="3">
-        <v>77200</v>
+        <v>88100</v>
       </c>
       <c r="J76" s="3">
+        <v>85400</v>
+      </c>
+      <c r="K76" s="3">
         <v>76700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>89900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>103300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>108300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>106200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42094</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="E81" s="3">
-        <v>7400</v>
+        <v>21800</v>
       </c>
       <c r="F81" s="3">
-        <v>-2700</v>
+        <v>8200</v>
       </c>
       <c r="G81" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H81" s="3">
-        <v>3600</v>
+        <v>-3500</v>
       </c>
       <c r="I81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26800</v>
+        <v>44300</v>
       </c>
       <c r="E89" s="3">
-        <v>17400</v>
+        <v>29700</v>
       </c>
       <c r="F89" s="3">
+        <v>19200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>4600</v>
-      </c>
       <c r="H89" s="3">
-        <v>9200</v>
+        <v>5100</v>
       </c>
       <c r="I89" s="3">
-        <v>700</v>
+        <v>10200</v>
       </c>
       <c r="J89" s="3">
+        <v>800</v>
+      </c>
+      <c r="K89" s="3">
         <v>2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,40 +3956,41 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2200</v>
+        <v>-9400</v>
       </c>
       <c r="E91" s="3">
-        <v>-5900</v>
+        <v>-2400</v>
       </c>
       <c r="F91" s="3">
-        <v>-14600</v>
+        <v>-6600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2300</v>
+        <v>-16200</v>
       </c>
       <c r="H91" s="3">
-        <v>-5100</v>
+        <v>-2600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2900</v>
+        <v>-5700</v>
       </c>
       <c r="J91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -3777,8 +3998,11 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,49 +4150,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8100</v>
+        <v>-28000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-9000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-14100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,49 +4324,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8500</v>
+        <v>42700</v>
       </c>
       <c r="E100" s="3">
-        <v>-10400</v>
+        <v>-9400</v>
       </c>
       <c r="F100" s="3">
-        <v>10000</v>
+        <v>-11600</v>
       </c>
       <c r="G100" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="H100" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4163,45 +4412,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15600</v>
+        <v>76800</v>
       </c>
       <c r="E102" s="3">
-        <v>4200</v>
+        <v>17300</v>
       </c>
       <c r="F102" s="3">
-        <v>-5500</v>
+        <v>4600</v>
       </c>
       <c r="G102" s="3">
-        <v>400</v>
+        <v>-6100</v>
       </c>
       <c r="H102" s="3">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2200</v>
+        <v>2700</v>
       </c>
       <c r="J102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>DRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42094</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>135900</v>
+        <v>198200</v>
       </c>
       <c r="E8" s="3">
-        <v>138400</v>
+        <v>138100</v>
       </c>
       <c r="F8" s="3">
-        <v>99000</v>
+        <v>140600</v>
       </c>
       <c r="G8" s="3">
-        <v>82100</v>
+        <v>100500</v>
       </c>
       <c r="H8" s="3">
-        <v>81000</v>
+        <v>83400</v>
       </c>
       <c r="I8" s="3">
         <v>82300</v>
       </c>
       <c r="J8" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K8" s="3">
         <v>75500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>70500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>87400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>77500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>37500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>91400</v>
+        <v>113300</v>
       </c>
       <c r="E9" s="3">
-        <v>101200</v>
+        <v>92800</v>
       </c>
       <c r="F9" s="3">
-        <v>85600</v>
+        <v>102800</v>
       </c>
       <c r="G9" s="3">
-        <v>81900</v>
+        <v>86900</v>
       </c>
       <c r="H9" s="3">
-        <v>79200</v>
+        <v>83100</v>
       </c>
       <c r="I9" s="3">
-        <v>74700</v>
+        <v>80400</v>
       </c>
       <c r="J9" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K9" s="3">
         <v>75300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>67300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>78500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>73100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>34600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>34800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>44600</v>
+        <v>84900</v>
       </c>
       <c r="E10" s="3">
-        <v>37200</v>
+        <v>45300</v>
       </c>
       <c r="F10" s="3">
-        <v>13400</v>
+        <v>37800</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>13600</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>1800</v>
       </c>
-      <c r="I10" s="3">
-        <v>7600</v>
-      </c>
       <c r="J10" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,8 +989,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,35 +1009,38 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>106100</v>
+        <v>114600</v>
       </c>
       <c r="E17" s="3">
-        <v>106800</v>
+        <v>107700</v>
       </c>
       <c r="F17" s="3">
-        <v>88100</v>
+        <v>108500</v>
       </c>
       <c r="G17" s="3">
-        <v>84800</v>
+        <v>89500</v>
       </c>
       <c r="H17" s="3">
-        <v>83100</v>
+        <v>86100</v>
       </c>
       <c r="I17" s="3">
-        <v>76800</v>
+        <v>84400</v>
       </c>
       <c r="J17" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K17" s="3">
         <v>77200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>81700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>75100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>35900</v>
       </c>
       <c r="O17" s="3">
         <v>35900</v>
       </c>
       <c r="P17" s="3">
+        <v>35900</v>
+      </c>
+      <c r="Q17" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29900</v>
+        <v>83600</v>
       </c>
       <c r="E18" s="3">
-        <v>31600</v>
+        <v>30300</v>
       </c>
       <c r="F18" s="3">
-        <v>10900</v>
+        <v>32100</v>
       </c>
       <c r="G18" s="3">
-        <v>-2600</v>
+        <v>11000</v>
       </c>
       <c r="H18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
-        <v>5500</v>
-      </c>
       <c r="J18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,96 +1214,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-200</v>
       </c>
       <c r="L20" s="3">
         <v>-200</v>
       </c>
       <c r="M20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>33400</v>
+        <v>97000</v>
       </c>
       <c r="E21" s="3">
-        <v>40100</v>
+        <v>33900</v>
       </c>
       <c r="F21" s="3">
-        <v>12100</v>
+        <v>40800</v>
       </c>
       <c r="G21" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-2700</v>
-      </c>
       <c r="I21" s="3">
-        <v>10500</v>
+        <v>-2800</v>
       </c>
       <c r="J21" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1313,96 +1353,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>32400</v>
+        <v>88500</v>
       </c>
       <c r="E23" s="3">
-        <v>31800</v>
+        <v>32900</v>
       </c>
       <c r="F23" s="3">
-        <v>10100</v>
+        <v>32300</v>
       </c>
       <c r="G23" s="3">
-        <v>-3200</v>
+        <v>10300</v>
       </c>
       <c r="H23" s="3">
-        <v>-2900</v>
+        <v>-3300</v>
       </c>
       <c r="I23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J23" s="3">
         <v>5100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>5500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12600</v>
+        <v>25300</v>
       </c>
       <c r="E24" s="3">
-        <v>9900</v>
+        <v>12800</v>
       </c>
       <c r="F24" s="3">
-        <v>1900</v>
+        <v>10100</v>
       </c>
       <c r="G24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>19800</v>
+        <v>63200</v>
       </c>
       <c r="E26" s="3">
-        <v>21800</v>
+        <v>20100</v>
       </c>
       <c r="F26" s="3">
-        <v>8200</v>
+        <v>22200</v>
       </c>
       <c r="G26" s="3">
-        <v>-3000</v>
+        <v>8300</v>
       </c>
       <c r="H26" s="3">
-        <v>-3500</v>
+        <v>-3100</v>
       </c>
       <c r="I26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J26" s="3">
         <v>4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19800</v>
+        <v>63200</v>
       </c>
       <c r="E27" s="3">
-        <v>21800</v>
+        <v>20100</v>
       </c>
       <c r="F27" s="3">
-        <v>8200</v>
+        <v>22200</v>
       </c>
       <c r="G27" s="3">
-        <v>-3000</v>
+        <v>8300</v>
       </c>
       <c r="H27" s="3">
-        <v>-3500</v>
+        <v>-3100</v>
       </c>
       <c r="I27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J27" s="3">
         <v>4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2500</v>
+        <v>-4800</v>
       </c>
       <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>200</v>
       </c>
       <c r="L32" s="3">
         <v>200</v>
       </c>
       <c r="M32" s="3">
+        <v>200</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19800</v>
+        <v>63200</v>
       </c>
       <c r="E33" s="3">
-        <v>21800</v>
+        <v>20100</v>
       </c>
       <c r="F33" s="3">
-        <v>8200</v>
+        <v>22200</v>
       </c>
       <c r="G33" s="3">
-        <v>-3000</v>
+        <v>8300</v>
       </c>
       <c r="H33" s="3">
-        <v>-3500</v>
+        <v>-3100</v>
       </c>
       <c r="I33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J33" s="3">
         <v>4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19800</v>
+        <v>63200</v>
       </c>
       <c r="E35" s="3">
-        <v>21800</v>
+        <v>20100</v>
       </c>
       <c r="F35" s="3">
-        <v>8200</v>
+        <v>22200</v>
       </c>
       <c r="G35" s="3">
-        <v>-3000</v>
+        <v>8300</v>
       </c>
       <c r="H35" s="3">
-        <v>-3500</v>
+        <v>-3100</v>
       </c>
       <c r="I35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J35" s="3">
         <v>4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42094</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2056,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>112400</v>
+        <v>144400</v>
       </c>
       <c r="E41" s="3">
-        <v>35600</v>
+        <v>114200</v>
       </c>
       <c r="F41" s="3">
-        <v>18300</v>
+        <v>36200</v>
       </c>
       <c r="G41" s="3">
-        <v>13700</v>
+        <v>18600</v>
       </c>
       <c r="H41" s="3">
-        <v>19800</v>
+        <v>13900</v>
       </c>
       <c r="I41" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K41" s="3">
+        <v>16600</v>
+      </c>
+      <c r="L41" s="3">
+        <v>17200</v>
+      </c>
+      <c r="M41" s="3">
+        <v>23600</v>
+      </c>
+      <c r="N41" s="3">
+        <v>17400</v>
+      </c>
+      <c r="O41" s="3">
+        <v>23000</v>
+      </c>
+      <c r="P41" s="3">
         <v>19300</v>
       </c>
-      <c r="J41" s="3">
-        <v>16600</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="Q41" s="3">
         <v>17200</v>
       </c>
-      <c r="L41" s="3">
-        <v>23600</v>
-      </c>
-      <c r="M41" s="3">
-        <v>17400</v>
-      </c>
-      <c r="N41" s="3">
-        <v>23000</v>
-      </c>
-      <c r="O41" s="3">
-        <v>19300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>17200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2058,113 +2148,122 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9900</v>
+        <v>11900</v>
       </c>
       <c r="E43" s="3">
-        <v>8000</v>
+        <v>10100</v>
       </c>
       <c r="F43" s="3">
-        <v>4700</v>
+        <v>8200</v>
       </c>
       <c r="G43" s="3">
-        <v>6700</v>
+        <v>4800</v>
       </c>
       <c r="H43" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="L43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="N43" s="3">
+        <v>10100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="P43" s="3">
+        <v>6800</v>
+      </c>
+      <c r="Q43" s="3">
         <v>6000</v>
       </c>
-      <c r="I43" s="3">
-        <v>5800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>7500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>5500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>4900</v>
-      </c>
-      <c r="M43" s="3">
-        <v>10100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>7500</v>
-      </c>
-      <c r="O43" s="3">
-        <v>6800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21200</v>
+        <v>21500</v>
       </c>
       <c r="E44" s="3">
-        <v>20100</v>
+        <v>21500</v>
       </c>
       <c r="F44" s="3">
-        <v>20000</v>
+        <v>20400</v>
       </c>
       <c r="G44" s="3">
-        <v>18300</v>
+        <v>20300</v>
       </c>
       <c r="H44" s="3">
-        <v>15300</v>
+        <v>18600</v>
       </c>
       <c r="I44" s="3">
-        <v>15900</v>
+        <v>15500</v>
       </c>
       <c r="J44" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K44" s="3">
         <v>11800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10800</v>
-      </c>
-      <c r="M44" s="3">
-        <v>11900</v>
       </c>
       <c r="N44" s="3">
         <v>11900</v>
       </c>
       <c r="O44" s="3">
+        <v>11900</v>
+      </c>
+      <c r="P44" s="3">
         <v>10000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2173,157 +2272,169 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>700</v>
       </c>
       <c r="N45" s="3">
         <v>700</v>
       </c>
       <c r="O45" s="3">
+        <v>700</v>
+      </c>
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>143600</v>
+        <v>177900</v>
       </c>
       <c r="E46" s="3">
-        <v>63700</v>
+        <v>145800</v>
       </c>
       <c r="F46" s="3">
-        <v>43000</v>
+        <v>64700</v>
       </c>
       <c r="G46" s="3">
-        <v>38700</v>
+        <v>43700</v>
       </c>
       <c r="H46" s="3">
-        <v>41100</v>
+        <v>39300</v>
       </c>
       <c r="I46" s="3">
-        <v>41000</v>
+        <v>41700</v>
       </c>
       <c r="J46" s="3">
+        <v>41700</v>
+      </c>
+      <c r="K46" s="3">
         <v>35900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>43100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>37700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56100</v>
+        <v>60600</v>
       </c>
       <c r="E47" s="3">
-        <v>42400</v>
+        <v>57000</v>
       </c>
       <c r="F47" s="3">
-        <v>40600</v>
+        <v>43000</v>
       </c>
       <c r="G47" s="3">
-        <v>42800</v>
+        <v>41200</v>
       </c>
       <c r="H47" s="3">
-        <v>17900</v>
+        <v>43500</v>
       </c>
       <c r="I47" s="3">
-        <v>16200</v>
+        <v>18200</v>
       </c>
       <c r="J47" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K47" s="3">
         <v>15500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>16700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>171800</v>
+        <v>179600</v>
       </c>
       <c r="E48" s="3">
-        <v>179500</v>
+        <v>174500</v>
       </c>
       <c r="F48" s="3">
-        <v>181900</v>
+        <v>182300</v>
       </c>
       <c r="G48" s="3">
-        <v>192000</v>
+        <v>184800</v>
       </c>
       <c r="H48" s="3">
-        <v>95200</v>
+        <v>195000</v>
       </c>
       <c r="I48" s="3">
-        <v>98500</v>
+        <v>96700</v>
       </c>
       <c r="J48" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K48" s="3">
         <v>98200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>92500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>107400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>114100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>120300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>119900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2366,8 +2477,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,28 +2571,31 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -2484,13 +2604,13 @@
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -2498,8 +2618,11 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>372100</v>
+        <v>418600</v>
       </c>
       <c r="E54" s="3">
-        <v>286200</v>
+        <v>377900</v>
       </c>
       <c r="F54" s="3">
-        <v>266200</v>
+        <v>290700</v>
       </c>
       <c r="G54" s="3">
-        <v>273900</v>
+        <v>270300</v>
       </c>
       <c r="H54" s="3">
-        <v>154700</v>
+        <v>278200</v>
       </c>
       <c r="I54" s="3">
-        <v>156000</v>
+        <v>157200</v>
       </c>
       <c r="J54" s="3">
+        <v>158400</v>
+      </c>
+      <c r="K54" s="3">
         <v>150000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>140300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>162300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>168600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>177300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>174400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,52 +2752,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31400</v>
+        <v>29000</v>
       </c>
       <c r="E57" s="3">
-        <v>25000</v>
+        <v>31900</v>
       </c>
       <c r="F57" s="3">
-        <v>27500</v>
+        <v>25300</v>
       </c>
       <c r="G57" s="3">
-        <v>26500</v>
+        <v>27900</v>
       </c>
       <c r="H57" s="3">
-        <v>19900</v>
+        <v>26900</v>
       </c>
       <c r="I57" s="3">
-        <v>18100</v>
+        <v>20200</v>
       </c>
       <c r="J57" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K57" s="3">
         <v>16500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,16 +2809,16 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
-        <v>800</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="H58" s="3">
+        <v>900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2692,8 +2826,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>200</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -2702,127 +2836,136 @@
         <v>200</v>
       </c>
       <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
         <v>1800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>5600</v>
       </c>
       <c r="P58" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16800</v>
+        <v>9800</v>
       </c>
       <c r="E59" s="3">
-        <v>4800</v>
+        <v>17100</v>
       </c>
       <c r="F59" s="3">
-        <v>1800</v>
+        <v>4900</v>
       </c>
       <c r="G59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1500</v>
       </c>
       <c r="L59" s="3">
         <v>1500</v>
       </c>
       <c r="M59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="N59" s="3">
         <v>1400</v>
       </c>
       <c r="O59" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="P59" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>48900</v>
+        <v>39500</v>
       </c>
       <c r="E60" s="3">
-        <v>30300</v>
+        <v>49700</v>
       </c>
       <c r="F60" s="3">
-        <v>30000</v>
+        <v>30800</v>
       </c>
       <c r="G60" s="3">
-        <v>28700</v>
+        <v>30500</v>
       </c>
       <c r="H60" s="3">
+        <v>29200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K60" s="3">
+        <v>16800</v>
+      </c>
+      <c r="L60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="M60" s="3">
         <v>21000</v>
       </c>
-      <c r="I60" s="3">
-        <v>19200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>16800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>17300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>21000</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E61" s="3">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="G61" s="3">
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>1000</v>
+        <v>11500</v>
       </c>
       <c r="I61" s="3">
         <v>1000</v>
       </c>
       <c r="J61" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K61" s="3">
         <v>1100</v>
@@ -2831,10 +2974,10 @@
         <v>1100</v>
       </c>
       <c r="M61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N61" s="3">
         <v>1200</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1400</v>
       </c>
       <c r="O61" s="3">
         <v>1400</v>
@@ -2842,52 +2985,58 @@
       <c r="P61" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55900</v>
+        <v>62200</v>
       </c>
       <c r="E62" s="3">
-        <v>63900</v>
+        <v>56700</v>
       </c>
       <c r="F62" s="3">
-        <v>59900</v>
+        <v>64900</v>
       </c>
       <c r="G62" s="3">
-        <v>65600</v>
+        <v>60800</v>
       </c>
       <c r="H62" s="3">
-        <v>49700</v>
+        <v>66600</v>
       </c>
       <c r="I62" s="3">
-        <v>47700</v>
+        <v>50400</v>
       </c>
       <c r="J62" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K62" s="3">
         <v>46600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>50300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>45600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>46100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>43600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>107200</v>
+        <v>103900</v>
       </c>
       <c r="E66" s="3">
-        <v>97100</v>
+        <v>108900</v>
       </c>
       <c r="F66" s="3">
-        <v>89900</v>
+        <v>98600</v>
       </c>
       <c r="G66" s="3">
-        <v>105700</v>
+        <v>91300</v>
       </c>
       <c r="H66" s="3">
-        <v>71700</v>
+        <v>107300</v>
       </c>
       <c r="I66" s="3">
-        <v>67900</v>
+        <v>72800</v>
       </c>
       <c r="J66" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K66" s="3">
         <v>64600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>65300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>68200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>82600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>264900</v>
+        <v>314700</v>
       </c>
       <c r="E72" s="3">
-        <v>189100</v>
+        <v>269000</v>
       </c>
       <c r="F72" s="3">
-        <v>176300</v>
+        <v>192100</v>
       </c>
       <c r="G72" s="3">
-        <v>168200</v>
+        <v>179000</v>
       </c>
       <c r="H72" s="3">
-        <v>83100</v>
+        <v>170900</v>
       </c>
       <c r="I72" s="3">
-        <v>88100</v>
+        <v>84400</v>
       </c>
       <c r="J72" s="3">
+        <v>89500</v>
+      </c>
+      <c r="K72" s="3">
         <v>85400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>76700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>89900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>103300</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>264900</v>
+        <v>314700</v>
       </c>
       <c r="E76" s="3">
-        <v>189100</v>
+        <v>269000</v>
       </c>
       <c r="F76" s="3">
-        <v>176300</v>
+        <v>192100</v>
       </c>
       <c r="G76" s="3">
-        <v>168200</v>
+        <v>179000</v>
       </c>
       <c r="H76" s="3">
-        <v>83100</v>
+        <v>170900</v>
       </c>
       <c r="I76" s="3">
-        <v>88100</v>
+        <v>84400</v>
       </c>
       <c r="J76" s="3">
+        <v>89500</v>
+      </c>
+      <c r="K76" s="3">
         <v>85400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>89900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>103300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>108300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>106200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42094</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19800</v>
+        <v>63200</v>
       </c>
       <c r="E81" s="3">
-        <v>21800</v>
+        <v>20100</v>
       </c>
       <c r="F81" s="3">
-        <v>8200</v>
+        <v>22200</v>
       </c>
       <c r="G81" s="3">
-        <v>-3000</v>
+        <v>8300</v>
       </c>
       <c r="H81" s="3">
-        <v>-3500</v>
+        <v>-3100</v>
       </c>
       <c r="I81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J81" s="3">
         <v>4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,8 +3829,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44300</v>
+        <v>65400</v>
       </c>
       <c r="E89" s="3">
-        <v>29700</v>
+        <v>45000</v>
       </c>
       <c r="F89" s="3">
-        <v>19200</v>
+        <v>30200</v>
       </c>
       <c r="G89" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>800</v>
+      </c>
+      <c r="L89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M89" s="3">
+        <v>23300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O89" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P89" s="3">
         <v>5100</v>
       </c>
-      <c r="I89" s="3">
-        <v>10200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>800</v>
-      </c>
-      <c r="K89" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>23300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N89" s="3">
-        <v>5200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>5100</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,43 +4177,44 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9400</v>
+        <v>-13500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2400</v>
+        <v>-9600</v>
       </c>
       <c r="F91" s="3">
-        <v>-6600</v>
+        <v>-2500</v>
       </c>
       <c r="G91" s="3">
-        <v>-16200</v>
+        <v>-6700</v>
       </c>
       <c r="H91" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3">
-        <v>-5700</v>
-      </c>
       <c r="J91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4100</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -4001,8 +4222,11 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10200</v>
+        <v>-14800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3000</v>
+        <v>-10400</v>
       </c>
       <c r="F94" s="3">
         <v>-3100</v>
       </c>
       <c r="G94" s="3">
-        <v>-16800</v>
+        <v>-3100</v>
       </c>
       <c r="H94" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,52 +4384,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28000</v>
+        <v>-19900</v>
       </c>
       <c r="E96" s="3">
-        <v>-9000</v>
+        <v>-28500</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-9100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-1400</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-14100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,52 +4570,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>42700</v>
+        <v>-20300</v>
       </c>
       <c r="E100" s="3">
-        <v>-9400</v>
+        <v>43400</v>
       </c>
       <c r="F100" s="3">
-        <v>-11600</v>
+        <v>-9500</v>
       </c>
       <c r="G100" s="3">
-        <v>11000</v>
+        <v>-11700</v>
       </c>
       <c r="H100" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4415,48 +4664,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>76800</v>
+        <v>30200</v>
       </c>
       <c r="E102" s="3">
-        <v>17300</v>
+        <v>78000</v>
       </c>
       <c r="F102" s="3">
-        <v>4600</v>
+        <v>17600</v>
       </c>
       <c r="G102" s="3">
-        <v>-6100</v>
+        <v>4700</v>
       </c>
       <c r="H102" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>198200</v>
+        <v>214900</v>
       </c>
       <c r="E8" s="3">
-        <v>138100</v>
+        <v>149700</v>
       </c>
       <c r="F8" s="3">
-        <v>140600</v>
+        <v>152400</v>
       </c>
       <c r="G8" s="3">
-        <v>100500</v>
+        <v>109000</v>
       </c>
       <c r="H8" s="3">
-        <v>83400</v>
+        <v>90400</v>
       </c>
       <c r="I8" s="3">
-        <v>82300</v>
+        <v>89200</v>
       </c>
       <c r="J8" s="3">
-        <v>83500</v>
+        <v>90600</v>
       </c>
       <c r="K8" s="3">
         <v>75500</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>113300</v>
+        <v>122800</v>
       </c>
       <c r="E9" s="3">
-        <v>92800</v>
+        <v>100600</v>
       </c>
       <c r="F9" s="3">
-        <v>102800</v>
+        <v>111500</v>
       </c>
       <c r="G9" s="3">
-        <v>86900</v>
+        <v>94200</v>
       </c>
       <c r="H9" s="3">
-        <v>83100</v>
+        <v>90100</v>
       </c>
       <c r="I9" s="3">
-        <v>80400</v>
+        <v>87200</v>
       </c>
       <c r="J9" s="3">
-        <v>75900</v>
+        <v>82300</v>
       </c>
       <c r="K9" s="3">
         <v>75300</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>84900</v>
+        <v>92100</v>
       </c>
       <c r="E10" s="3">
-        <v>45300</v>
+        <v>49100</v>
       </c>
       <c r="F10" s="3">
-        <v>37800</v>
+        <v>40900</v>
       </c>
       <c r="G10" s="3">
-        <v>13600</v>
+        <v>14800</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="J10" s="3">
-        <v>7700</v>
+        <v>8300</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>114600</v>
+        <v>124200</v>
       </c>
       <c r="E17" s="3">
-        <v>107700</v>
+        <v>116800</v>
       </c>
       <c r="F17" s="3">
-        <v>108500</v>
+        <v>117600</v>
       </c>
       <c r="G17" s="3">
-        <v>89500</v>
+        <v>97000</v>
       </c>
       <c r="H17" s="3">
-        <v>86100</v>
+        <v>93300</v>
       </c>
       <c r="I17" s="3">
-        <v>84400</v>
+        <v>91500</v>
       </c>
       <c r="J17" s="3">
-        <v>78000</v>
+        <v>84500</v>
       </c>
       <c r="K17" s="3">
         <v>77200</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>83600</v>
+        <v>90700</v>
       </c>
       <c r="E18" s="3">
-        <v>30300</v>
+        <v>32900</v>
       </c>
       <c r="F18" s="3">
-        <v>32100</v>
+        <v>34800</v>
       </c>
       <c r="G18" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="H18" s="3">
-        <v>-2700</v>
+        <v>-2900</v>
       </c>
       <c r="I18" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="J18" s="3">
-        <v>5600</v>
+        <v>6000</v>
       </c>
       <c r="K18" s="3">
         <v>-1800</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="E20" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H20" s="3">
         <v>-600</v>
       </c>
       <c r="I20" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J20" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K20" s="3">
         <v>-600</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>97000</v>
+        <v>105100</v>
       </c>
       <c r="E21" s="3">
-        <v>33900</v>
+        <v>36800</v>
       </c>
       <c r="F21" s="3">
-        <v>40800</v>
+        <v>44200</v>
       </c>
       <c r="G21" s="3">
-        <v>12300</v>
+        <v>13300</v>
       </c>
       <c r="H21" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I21" s="3">
-        <v>-2800</v>
+        <v>-3000</v>
       </c>
       <c r="J21" s="3">
-        <v>10600</v>
+        <v>11500</v>
       </c>
       <c r="K21" s="3">
         <v>-4000</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>88500</v>
+        <v>95900</v>
       </c>
       <c r="E23" s="3">
-        <v>32900</v>
+        <v>35700</v>
       </c>
       <c r="F23" s="3">
-        <v>32300</v>
+        <v>35000</v>
       </c>
       <c r="G23" s="3">
-        <v>10300</v>
+        <v>11100</v>
       </c>
       <c r="H23" s="3">
-        <v>-3300</v>
+        <v>-3600</v>
       </c>
       <c r="I23" s="3">
-        <v>-3000</v>
+        <v>-3200</v>
       </c>
       <c r="J23" s="3">
-        <v>5100</v>
+        <v>5600</v>
       </c>
       <c r="K23" s="3">
         <v>-2400</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25300</v>
+        <v>27400</v>
       </c>
       <c r="E24" s="3">
-        <v>12800</v>
+        <v>13900</v>
       </c>
       <c r="F24" s="3">
-        <v>10100</v>
+        <v>10900</v>
       </c>
       <c r="G24" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H24" s="3">
         <v>-200</v>
       </c>
       <c r="I24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J24" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K24" s="3">
         <v>-3100</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>63200</v>
+        <v>68500</v>
       </c>
       <c r="E26" s="3">
-        <v>20100</v>
+        <v>21800</v>
       </c>
       <c r="F26" s="3">
-        <v>22200</v>
+        <v>24000</v>
       </c>
       <c r="G26" s="3">
-        <v>8300</v>
+        <v>9000</v>
       </c>
       <c r="H26" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="I26" s="3">
-        <v>-3600</v>
+        <v>-3900</v>
       </c>
       <c r="J26" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="K26" s="3">
         <v>700</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>63200</v>
+        <v>68500</v>
       </c>
       <c r="E27" s="3">
-        <v>20100</v>
+        <v>21800</v>
       </c>
       <c r="F27" s="3">
-        <v>22200</v>
+        <v>24000</v>
       </c>
       <c r="G27" s="3">
-        <v>8300</v>
+        <v>9000</v>
       </c>
       <c r="H27" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="I27" s="3">
-        <v>-3600</v>
+        <v>-3900</v>
       </c>
       <c r="J27" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="K27" s="3">
         <v>700</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4800</v>
+        <v>-5200</v>
       </c>
       <c r="E32" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H32" s="3">
         <v>600</v>
       </c>
       <c r="I32" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J32" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K32" s="3">
         <v>600</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>63200</v>
+        <v>68500</v>
       </c>
       <c r="E33" s="3">
-        <v>20100</v>
+        <v>21800</v>
       </c>
       <c r="F33" s="3">
-        <v>22200</v>
+        <v>24000</v>
       </c>
       <c r="G33" s="3">
-        <v>8300</v>
+        <v>9000</v>
       </c>
       <c r="H33" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="I33" s="3">
-        <v>-3600</v>
+        <v>-3900</v>
       </c>
       <c r="J33" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="K33" s="3">
         <v>700</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>63200</v>
+        <v>68500</v>
       </c>
       <c r="E35" s="3">
-        <v>20100</v>
+        <v>21800</v>
       </c>
       <c r="F35" s="3">
-        <v>22200</v>
+        <v>24000</v>
       </c>
       <c r="G35" s="3">
-        <v>8300</v>
+        <v>9000</v>
       </c>
       <c r="H35" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="I35" s="3">
-        <v>-3600</v>
+        <v>-3900</v>
       </c>
       <c r="J35" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="K35" s="3">
         <v>700</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>144400</v>
+        <v>156600</v>
       </c>
       <c r="E41" s="3">
-        <v>114200</v>
+        <v>123800</v>
       </c>
       <c r="F41" s="3">
-        <v>36200</v>
+        <v>39200</v>
       </c>
       <c r="G41" s="3">
-        <v>18600</v>
+        <v>20200</v>
       </c>
       <c r="H41" s="3">
-        <v>13900</v>
+        <v>15100</v>
       </c>
       <c r="I41" s="3">
-        <v>20100</v>
+        <v>21800</v>
       </c>
       <c r="J41" s="3">
-        <v>19600</v>
+        <v>21300</v>
       </c>
       <c r="K41" s="3">
         <v>16600</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11900</v>
+        <v>12900</v>
       </c>
       <c r="E43" s="3">
-        <v>10100</v>
+        <v>10900</v>
       </c>
       <c r="F43" s="3">
-        <v>8200</v>
+        <v>8900</v>
       </c>
       <c r="G43" s="3">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="H43" s="3">
-        <v>6800</v>
+        <v>7400</v>
       </c>
       <c r="I43" s="3">
-        <v>6100</v>
+        <v>6600</v>
       </c>
       <c r="J43" s="3">
-        <v>5900</v>
+        <v>6400</v>
       </c>
       <c r="K43" s="3">
         <v>7500</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21500</v>
+        <v>23300</v>
       </c>
       <c r="E44" s="3">
-        <v>21500</v>
+        <v>23300</v>
       </c>
       <c r="F44" s="3">
-        <v>20400</v>
+        <v>22100</v>
       </c>
       <c r="G44" s="3">
-        <v>20300</v>
+        <v>22000</v>
       </c>
       <c r="H44" s="3">
-        <v>18600</v>
+        <v>20200</v>
       </c>
       <c r="I44" s="3">
-        <v>15500</v>
+        <v>16800</v>
       </c>
       <c r="J44" s="3">
-        <v>16200</v>
+        <v>17500</v>
       </c>
       <c r="K44" s="3">
         <v>11800</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>177900</v>
+        <v>192800</v>
       </c>
       <c r="E46" s="3">
-        <v>145800</v>
+        <v>158100</v>
       </c>
       <c r="F46" s="3">
-        <v>64700</v>
+        <v>70200</v>
       </c>
       <c r="G46" s="3">
-        <v>43700</v>
+        <v>47400</v>
       </c>
       <c r="H46" s="3">
-        <v>39300</v>
+        <v>42700</v>
       </c>
       <c r="I46" s="3">
-        <v>41700</v>
+        <v>45200</v>
       </c>
       <c r="J46" s="3">
-        <v>41700</v>
+        <v>45200</v>
       </c>
       <c r="K46" s="3">
         <v>35900</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>60600</v>
+        <v>65700</v>
       </c>
       <c r="E47" s="3">
-        <v>57000</v>
+        <v>61800</v>
       </c>
       <c r="F47" s="3">
-        <v>43000</v>
+        <v>46600</v>
       </c>
       <c r="G47" s="3">
-        <v>41200</v>
+        <v>44700</v>
       </c>
       <c r="H47" s="3">
-        <v>43500</v>
+        <v>47100</v>
       </c>
       <c r="I47" s="3">
-        <v>18200</v>
+        <v>19700</v>
       </c>
       <c r="J47" s="3">
-        <v>16400</v>
+        <v>17800</v>
       </c>
       <c r="K47" s="3">
         <v>15500</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>179600</v>
+        <v>194700</v>
       </c>
       <c r="E48" s="3">
-        <v>174500</v>
+        <v>189200</v>
       </c>
       <c r="F48" s="3">
-        <v>182300</v>
+        <v>197600</v>
       </c>
       <c r="G48" s="3">
-        <v>184800</v>
+        <v>200300</v>
       </c>
       <c r="H48" s="3">
-        <v>195000</v>
+        <v>211400</v>
       </c>
       <c r="I48" s="3">
-        <v>96700</v>
+        <v>104900</v>
       </c>
       <c r="J48" s="3">
-        <v>100000</v>
+        <v>108400</v>
       </c>
       <c r="K48" s="3">
         <v>98200</v>
@@ -2583,10 +2583,10 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
@@ -2598,7 +2598,7 @@
         <v>600</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>418600</v>
+        <v>453800</v>
       </c>
       <c r="E54" s="3">
-        <v>377900</v>
+        <v>409600</v>
       </c>
       <c r="F54" s="3">
-        <v>290700</v>
+        <v>315100</v>
       </c>
       <c r="G54" s="3">
-        <v>270300</v>
+        <v>293100</v>
       </c>
       <c r="H54" s="3">
-        <v>278200</v>
+        <v>301600</v>
       </c>
       <c r="I54" s="3">
-        <v>157200</v>
+        <v>170400</v>
       </c>
       <c r="J54" s="3">
-        <v>158400</v>
+        <v>171800</v>
       </c>
       <c r="K54" s="3">
         <v>150000</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29000</v>
+        <v>31500</v>
       </c>
       <c r="E57" s="3">
-        <v>31900</v>
+        <v>34600</v>
       </c>
       <c r="F57" s="3">
-        <v>25300</v>
+        <v>27500</v>
       </c>
       <c r="G57" s="3">
-        <v>27900</v>
+        <v>30300</v>
       </c>
       <c r="H57" s="3">
-        <v>26900</v>
+        <v>29200</v>
       </c>
       <c r="I57" s="3">
-        <v>20200</v>
+        <v>21900</v>
       </c>
       <c r="J57" s="3">
-        <v>18400</v>
+        <v>19900</v>
       </c>
       <c r="K57" s="3">
         <v>16500</v>
@@ -2815,7 +2815,7 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9800</v>
+        <v>10600</v>
       </c>
       <c r="E59" s="3">
-        <v>17100</v>
+        <v>18600</v>
       </c>
       <c r="F59" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="G59" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J59" s="3">
         <v>1200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1100</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>39500</v>
+        <v>42800</v>
       </c>
       <c r="E60" s="3">
-        <v>49700</v>
+        <v>53800</v>
       </c>
       <c r="F60" s="3">
-        <v>30800</v>
+        <v>33400</v>
       </c>
       <c r="G60" s="3">
-        <v>30500</v>
+        <v>33100</v>
       </c>
       <c r="H60" s="3">
-        <v>29200</v>
+        <v>31600</v>
       </c>
       <c r="I60" s="3">
-        <v>21400</v>
+        <v>23100</v>
       </c>
       <c r="J60" s="3">
-        <v>19500</v>
+        <v>21100</v>
       </c>
       <c r="K60" s="3">
         <v>16800</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="E61" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="F61" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="I61" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J61" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K61" s="3">
         <v>1100</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>62200</v>
+        <v>67400</v>
       </c>
       <c r="E62" s="3">
-        <v>56700</v>
+        <v>61500</v>
       </c>
       <c r="F62" s="3">
-        <v>64900</v>
+        <v>70400</v>
       </c>
       <c r="G62" s="3">
-        <v>60800</v>
+        <v>65900</v>
       </c>
       <c r="H62" s="3">
-        <v>66600</v>
+        <v>72300</v>
       </c>
       <c r="I62" s="3">
-        <v>50400</v>
+        <v>54700</v>
       </c>
       <c r="J62" s="3">
-        <v>48400</v>
+        <v>52500</v>
       </c>
       <c r="K62" s="3">
         <v>46600</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>103900</v>
+        <v>112600</v>
       </c>
       <c r="E66" s="3">
-        <v>108900</v>
+        <v>118000</v>
       </c>
       <c r="F66" s="3">
-        <v>98600</v>
+        <v>106900</v>
       </c>
       <c r="G66" s="3">
-        <v>91300</v>
+        <v>99000</v>
       </c>
       <c r="H66" s="3">
-        <v>107300</v>
+        <v>116400</v>
       </c>
       <c r="I66" s="3">
-        <v>72800</v>
+        <v>78900</v>
       </c>
       <c r="J66" s="3">
-        <v>68900</v>
+        <v>74700</v>
       </c>
       <c r="K66" s="3">
         <v>64600</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>314700</v>
+        <v>341200</v>
       </c>
       <c r="E72" s="3">
-        <v>269000</v>
+        <v>291600</v>
       </c>
       <c r="F72" s="3">
-        <v>192100</v>
+        <v>208200</v>
       </c>
       <c r="G72" s="3">
-        <v>179000</v>
+        <v>194100</v>
       </c>
       <c r="H72" s="3">
-        <v>170900</v>
+        <v>185200</v>
       </c>
       <c r="I72" s="3">
-        <v>84400</v>
+        <v>91500</v>
       </c>
       <c r="J72" s="3">
-        <v>89500</v>
+        <v>97000</v>
       </c>
       <c r="K72" s="3">
         <v>85400</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>314700</v>
+        <v>341200</v>
       </c>
       <c r="E76" s="3">
-        <v>269000</v>
+        <v>291600</v>
       </c>
       <c r="F76" s="3">
-        <v>192100</v>
+        <v>208200</v>
       </c>
       <c r="G76" s="3">
-        <v>179000</v>
+        <v>194100</v>
       </c>
       <c r="H76" s="3">
-        <v>170900</v>
+        <v>185200</v>
       </c>
       <c r="I76" s="3">
-        <v>84400</v>
+        <v>91500</v>
       </c>
       <c r="J76" s="3">
-        <v>89500</v>
+        <v>97000</v>
       </c>
       <c r="K76" s="3">
         <v>85400</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>63200</v>
+        <v>68500</v>
       </c>
       <c r="E81" s="3">
-        <v>20100</v>
+        <v>21800</v>
       </c>
       <c r="F81" s="3">
-        <v>22200</v>
+        <v>24000</v>
       </c>
       <c r="G81" s="3">
-        <v>8300</v>
+        <v>9000</v>
       </c>
       <c r="H81" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="I81" s="3">
-        <v>-3600</v>
+        <v>-3900</v>
       </c>
       <c r="J81" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="K81" s="3">
         <v>700</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>65400</v>
+        <v>70900</v>
       </c>
       <c r="E89" s="3">
-        <v>45000</v>
+        <v>48800</v>
       </c>
       <c r="F89" s="3">
-        <v>30200</v>
+        <v>32700</v>
       </c>
       <c r="G89" s="3">
-        <v>19500</v>
+        <v>21200</v>
       </c>
       <c r="H89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I89" s="3">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="J89" s="3">
-        <v>10400</v>
+        <v>11200</v>
       </c>
       <c r="K89" s="3">
         <v>800</v>
@@ -4184,25 +4184,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13500</v>
+        <v>-14600</v>
       </c>
       <c r="E91" s="3">
-        <v>-9600</v>
+        <v>-10400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2500</v>
+        <v>-2700</v>
       </c>
       <c r="G91" s="3">
-        <v>-6700</v>
+        <v>-7200</v>
       </c>
       <c r="H91" s="3">
-        <v>-16500</v>
+        <v>-17800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="J91" s="3">
-        <v>-5800</v>
+        <v>-6300</v>
       </c>
       <c r="K91" s="3">
         <v>-3200</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14800</v>
+        <v>-16100</v>
       </c>
       <c r="E94" s="3">
-        <v>-10400</v>
+        <v>-11300</v>
       </c>
       <c r="F94" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3100</v>
+        <v>-3400</v>
       </c>
       <c r="H94" s="3">
-        <v>-17000</v>
+        <v>-18500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="J94" s="3">
-        <v>-6200</v>
+        <v>-6700</v>
       </c>
       <c r="K94" s="3">
         <v>-3100</v>
@@ -4391,13 +4391,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-19900</v>
+        <v>-21600</v>
       </c>
       <c r="E96" s="3">
-        <v>-28500</v>
+        <v>-30900</v>
       </c>
       <c r="F96" s="3">
-        <v>-9100</v>
+        <v>-9900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4406,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20300</v>
+        <v>-22000</v>
       </c>
       <c r="E100" s="3">
-        <v>43400</v>
+        <v>47100</v>
       </c>
       <c r="F100" s="3">
-        <v>-9500</v>
+        <v>-10300</v>
       </c>
       <c r="G100" s="3">
-        <v>-11700</v>
+        <v>-12700</v>
       </c>
       <c r="H100" s="3">
-        <v>11200</v>
+        <v>12100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1500</v>
+        <v>-1700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30200</v>
+        <v>32800</v>
       </c>
       <c r="E102" s="3">
-        <v>78000</v>
+        <v>84600</v>
       </c>
       <c r="F102" s="3">
-        <v>17600</v>
+        <v>19000</v>
       </c>
       <c r="G102" s="3">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="H102" s="3">
-        <v>-6200</v>
+        <v>-6700</v>
       </c>
       <c r="I102" s="3">
         <v>500</v>
       </c>
       <c r="J102" s="3">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="K102" s="3">
         <v>-2400</v>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>214900</v>
+        <v>195900</v>
       </c>
       <c r="E8" s="3">
-        <v>149700</v>
+        <v>136400</v>
       </c>
       <c r="F8" s="3">
-        <v>152400</v>
+        <v>138900</v>
       </c>
       <c r="G8" s="3">
-        <v>109000</v>
+        <v>99300</v>
       </c>
       <c r="H8" s="3">
-        <v>90400</v>
+        <v>82400</v>
       </c>
       <c r="I8" s="3">
-        <v>89200</v>
+        <v>81300</v>
       </c>
       <c r="J8" s="3">
-        <v>90600</v>
+        <v>82500</v>
       </c>
       <c r="K8" s="3">
         <v>75500</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>122800</v>
+        <v>111900</v>
       </c>
       <c r="E9" s="3">
-        <v>100600</v>
+        <v>91700</v>
       </c>
       <c r="F9" s="3">
-        <v>111500</v>
+        <v>101600</v>
       </c>
       <c r="G9" s="3">
-        <v>94200</v>
+        <v>85900</v>
       </c>
       <c r="H9" s="3">
-        <v>90100</v>
+        <v>82100</v>
       </c>
       <c r="I9" s="3">
-        <v>87200</v>
+        <v>79500</v>
       </c>
       <c r="J9" s="3">
-        <v>82300</v>
+        <v>75000</v>
       </c>
       <c r="K9" s="3">
         <v>75300</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>92100</v>
+        <v>83900</v>
       </c>
       <c r="E10" s="3">
-        <v>49100</v>
+        <v>44700</v>
       </c>
       <c r="F10" s="3">
-        <v>40900</v>
+        <v>37300</v>
       </c>
       <c r="G10" s="3">
-        <v>14800</v>
+        <v>13400</v>
       </c>
       <c r="H10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="J10" s="3">
-        <v>8300</v>
+        <v>7600</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>124200</v>
+        <v>113200</v>
       </c>
       <c r="E17" s="3">
-        <v>116800</v>
+        <v>106400</v>
       </c>
       <c r="F17" s="3">
-        <v>117600</v>
+        <v>107200</v>
       </c>
       <c r="G17" s="3">
-        <v>97000</v>
+        <v>88400</v>
       </c>
       <c r="H17" s="3">
-        <v>93300</v>
+        <v>85000</v>
       </c>
       <c r="I17" s="3">
-        <v>91500</v>
+        <v>83300</v>
       </c>
       <c r="J17" s="3">
-        <v>84500</v>
+        <v>77000</v>
       </c>
       <c r="K17" s="3">
         <v>77200</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>90700</v>
+        <v>82600</v>
       </c>
       <c r="E18" s="3">
-        <v>32900</v>
+        <v>30000</v>
       </c>
       <c r="F18" s="3">
-        <v>34800</v>
+        <v>31700</v>
       </c>
       <c r="G18" s="3">
-        <v>12000</v>
+        <v>10900</v>
       </c>
       <c r="H18" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="I18" s="3">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
       <c r="J18" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="K18" s="3">
         <v>-1800</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="E20" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H20" s="3">
         <v>-600</v>
       </c>
       <c r="I20" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K20" s="3">
         <v>-600</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>105100</v>
+        <v>95800</v>
       </c>
       <c r="E21" s="3">
-        <v>36800</v>
+        <v>33500</v>
       </c>
       <c r="F21" s="3">
-        <v>44200</v>
+        <v>40300</v>
       </c>
       <c r="G21" s="3">
-        <v>13300</v>
+        <v>12200</v>
       </c>
       <c r="H21" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I21" s="3">
-        <v>-3000</v>
+        <v>-2700</v>
       </c>
       <c r="J21" s="3">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="K21" s="3">
         <v>-4000</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>95900</v>
+        <v>87400</v>
       </c>
       <c r="E23" s="3">
-        <v>35700</v>
+        <v>32500</v>
       </c>
       <c r="F23" s="3">
-        <v>35000</v>
+        <v>31900</v>
       </c>
       <c r="G23" s="3">
-        <v>11100</v>
+        <v>10200</v>
       </c>
       <c r="H23" s="3">
-        <v>-3600</v>
+        <v>-3200</v>
       </c>
       <c r="I23" s="3">
-        <v>-3200</v>
+        <v>-2900</v>
       </c>
       <c r="J23" s="3">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="K23" s="3">
         <v>-2400</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27400</v>
+        <v>25000</v>
       </c>
       <c r="E24" s="3">
-        <v>13900</v>
+        <v>12600</v>
       </c>
       <c r="F24" s="3">
-        <v>10900</v>
+        <v>10000</v>
       </c>
       <c r="G24" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H24" s="3">
         <v>-200</v>
       </c>
       <c r="I24" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J24" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K24" s="3">
         <v>-3100</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>68500</v>
+        <v>62500</v>
       </c>
       <c r="E26" s="3">
-        <v>21800</v>
+        <v>19900</v>
       </c>
       <c r="F26" s="3">
-        <v>24000</v>
+        <v>21900</v>
       </c>
       <c r="G26" s="3">
-        <v>9000</v>
+        <v>8200</v>
       </c>
       <c r="H26" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="I26" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="J26" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="K26" s="3">
         <v>700</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>68500</v>
+        <v>62500</v>
       </c>
       <c r="E27" s="3">
-        <v>21800</v>
+        <v>19900</v>
       </c>
       <c r="F27" s="3">
-        <v>24000</v>
+        <v>21900</v>
       </c>
       <c r="G27" s="3">
-        <v>9000</v>
+        <v>8200</v>
       </c>
       <c r="H27" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="I27" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="J27" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="K27" s="3">
         <v>700</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5200</v>
+        <v>-4800</v>
       </c>
       <c r="E32" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H32" s="3">
         <v>600</v>
       </c>
       <c r="I32" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K32" s="3">
         <v>600</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>68500</v>
+        <v>62500</v>
       </c>
       <c r="E33" s="3">
-        <v>21800</v>
+        <v>19900</v>
       </c>
       <c r="F33" s="3">
-        <v>24000</v>
+        <v>21900</v>
       </c>
       <c r="G33" s="3">
-        <v>9000</v>
+        <v>8200</v>
       </c>
       <c r="H33" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="I33" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="J33" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="K33" s="3">
         <v>700</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>68500</v>
+        <v>62500</v>
       </c>
       <c r="E35" s="3">
-        <v>21800</v>
+        <v>19900</v>
       </c>
       <c r="F35" s="3">
-        <v>24000</v>
+        <v>21900</v>
       </c>
       <c r="G35" s="3">
-        <v>9000</v>
+        <v>8200</v>
       </c>
       <c r="H35" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="I35" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="J35" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="K35" s="3">
         <v>700</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>156600</v>
+        <v>142700</v>
       </c>
       <c r="E41" s="3">
-        <v>123800</v>
+        <v>112800</v>
       </c>
       <c r="F41" s="3">
-        <v>39200</v>
+        <v>35700</v>
       </c>
       <c r="G41" s="3">
-        <v>20200</v>
+        <v>18400</v>
       </c>
       <c r="H41" s="3">
-        <v>15100</v>
+        <v>13800</v>
       </c>
       <c r="I41" s="3">
-        <v>21800</v>
+        <v>19900</v>
       </c>
       <c r="J41" s="3">
-        <v>21300</v>
+        <v>19400</v>
       </c>
       <c r="K41" s="3">
         <v>16600</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12900</v>
+        <v>11800</v>
       </c>
       <c r="E43" s="3">
-        <v>10900</v>
+        <v>10000</v>
       </c>
       <c r="F43" s="3">
-        <v>8900</v>
+        <v>8100</v>
       </c>
       <c r="G43" s="3">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="H43" s="3">
-        <v>7400</v>
+        <v>6700</v>
       </c>
       <c r="I43" s="3">
-        <v>6600</v>
+        <v>6000</v>
       </c>
       <c r="J43" s="3">
-        <v>6400</v>
+        <v>5800</v>
       </c>
       <c r="K43" s="3">
         <v>7500</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23300</v>
+        <v>21200</v>
       </c>
       <c r="E44" s="3">
-        <v>23300</v>
+        <v>21300</v>
       </c>
       <c r="F44" s="3">
-        <v>22100</v>
+        <v>20100</v>
       </c>
       <c r="G44" s="3">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="H44" s="3">
-        <v>20200</v>
+        <v>18400</v>
       </c>
       <c r="I44" s="3">
-        <v>16800</v>
+        <v>15300</v>
       </c>
       <c r="J44" s="3">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="K44" s="3">
         <v>11800</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>192800</v>
+        <v>175700</v>
       </c>
       <c r="E46" s="3">
-        <v>158100</v>
+        <v>144000</v>
       </c>
       <c r="F46" s="3">
-        <v>70200</v>
+        <v>64000</v>
       </c>
       <c r="G46" s="3">
-        <v>47400</v>
+        <v>43200</v>
       </c>
       <c r="H46" s="3">
-        <v>42700</v>
+        <v>38900</v>
       </c>
       <c r="I46" s="3">
-        <v>45200</v>
+        <v>41200</v>
       </c>
       <c r="J46" s="3">
-        <v>45200</v>
+        <v>41200</v>
       </c>
       <c r="K46" s="3">
         <v>35900</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>65700</v>
+        <v>59900</v>
       </c>
       <c r="E47" s="3">
-        <v>61800</v>
+        <v>56300</v>
       </c>
       <c r="F47" s="3">
-        <v>46600</v>
+        <v>42500</v>
       </c>
       <c r="G47" s="3">
-        <v>44700</v>
+        <v>40700</v>
       </c>
       <c r="H47" s="3">
-        <v>47100</v>
+        <v>43000</v>
       </c>
       <c r="I47" s="3">
-        <v>19700</v>
+        <v>17900</v>
       </c>
       <c r="J47" s="3">
-        <v>17800</v>
+        <v>16200</v>
       </c>
       <c r="K47" s="3">
         <v>15500</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>194700</v>
+        <v>177400</v>
       </c>
       <c r="E48" s="3">
-        <v>189200</v>
+        <v>172400</v>
       </c>
       <c r="F48" s="3">
-        <v>197600</v>
+        <v>180100</v>
       </c>
       <c r="G48" s="3">
-        <v>200300</v>
+        <v>182600</v>
       </c>
       <c r="H48" s="3">
-        <v>211400</v>
+        <v>192600</v>
       </c>
       <c r="I48" s="3">
-        <v>104900</v>
+        <v>95600</v>
       </c>
       <c r="J48" s="3">
-        <v>108400</v>
+        <v>98800</v>
       </c>
       <c r="K48" s="3">
         <v>98200</v>
@@ -2580,13 +2580,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
@@ -2598,7 +2598,7 @@
         <v>600</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>453800</v>
+        <v>413600</v>
       </c>
       <c r="E54" s="3">
-        <v>409600</v>
+        <v>373300</v>
       </c>
       <c r="F54" s="3">
-        <v>315100</v>
+        <v>287200</v>
       </c>
       <c r="G54" s="3">
-        <v>293100</v>
+        <v>267100</v>
       </c>
       <c r="H54" s="3">
-        <v>301600</v>
+        <v>274900</v>
       </c>
       <c r="I54" s="3">
-        <v>170400</v>
+        <v>155300</v>
       </c>
       <c r="J54" s="3">
-        <v>171800</v>
+        <v>156500</v>
       </c>
       <c r="K54" s="3">
         <v>150000</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E57" s="3">
         <v>31500</v>
       </c>
-      <c r="E57" s="3">
-        <v>34600</v>
-      </c>
       <c r="F57" s="3">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="G57" s="3">
-        <v>30300</v>
+        <v>27600</v>
       </c>
       <c r="H57" s="3">
-        <v>29200</v>
+        <v>26600</v>
       </c>
       <c r="I57" s="3">
-        <v>21900</v>
+        <v>20000</v>
       </c>
       <c r="J57" s="3">
-        <v>19900</v>
+        <v>18100</v>
       </c>
       <c r="K57" s="3">
         <v>16500</v>
@@ -2806,7 +2806,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
@@ -2815,10 +2815,10 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10600</v>
+        <v>9700</v>
       </c>
       <c r="E59" s="3">
-        <v>18600</v>
+        <v>16900</v>
       </c>
       <c r="F59" s="3">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="G59" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="H59" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I59" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="J59" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42800</v>
+        <v>39000</v>
       </c>
       <c r="E60" s="3">
-        <v>53800</v>
+        <v>49100</v>
       </c>
       <c r="F60" s="3">
-        <v>33400</v>
+        <v>30400</v>
       </c>
       <c r="G60" s="3">
-        <v>33100</v>
+        <v>30100</v>
       </c>
       <c r="H60" s="3">
-        <v>31600</v>
+        <v>28800</v>
       </c>
       <c r="I60" s="3">
-        <v>23100</v>
+        <v>21100</v>
       </c>
       <c r="J60" s="3">
-        <v>21100</v>
+        <v>19200</v>
       </c>
       <c r="K60" s="3">
         <v>16800</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2400</v>
       </c>
-      <c r="E61" s="3">
-        <v>2700</v>
-      </c>
       <c r="F61" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>12500</v>
+        <v>11400</v>
       </c>
       <c r="I61" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J61" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K61" s="3">
         <v>1100</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>67400</v>
+        <v>61400</v>
       </c>
       <c r="E62" s="3">
-        <v>61500</v>
+        <v>56100</v>
       </c>
       <c r="F62" s="3">
-        <v>70400</v>
+        <v>64100</v>
       </c>
       <c r="G62" s="3">
-        <v>65900</v>
+        <v>60100</v>
       </c>
       <c r="H62" s="3">
-        <v>72300</v>
+        <v>65800</v>
       </c>
       <c r="I62" s="3">
-        <v>54700</v>
+        <v>49800</v>
       </c>
       <c r="J62" s="3">
-        <v>52500</v>
+        <v>47800</v>
       </c>
       <c r="K62" s="3">
         <v>46600</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>112600</v>
+        <v>102600</v>
       </c>
       <c r="E66" s="3">
-        <v>118000</v>
+        <v>107600</v>
       </c>
       <c r="F66" s="3">
-        <v>106900</v>
+        <v>97400</v>
       </c>
       <c r="G66" s="3">
-        <v>99000</v>
+        <v>90200</v>
       </c>
       <c r="H66" s="3">
-        <v>116400</v>
+        <v>106100</v>
       </c>
       <c r="I66" s="3">
-        <v>78900</v>
+        <v>71900</v>
       </c>
       <c r="J66" s="3">
-        <v>74700</v>
+        <v>68100</v>
       </c>
       <c r="K66" s="3">
         <v>64600</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>341200</v>
+        <v>310900</v>
       </c>
       <c r="E72" s="3">
-        <v>291600</v>
+        <v>265800</v>
       </c>
       <c r="F72" s="3">
-        <v>208200</v>
+        <v>189800</v>
       </c>
       <c r="G72" s="3">
-        <v>194100</v>
+        <v>176900</v>
       </c>
       <c r="H72" s="3">
-        <v>185200</v>
+        <v>168800</v>
       </c>
       <c r="I72" s="3">
-        <v>91500</v>
+        <v>83400</v>
       </c>
       <c r="J72" s="3">
-        <v>97000</v>
+        <v>88400</v>
       </c>
       <c r="K72" s="3">
         <v>85400</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>341200</v>
+        <v>310900</v>
       </c>
       <c r="E76" s="3">
-        <v>291600</v>
+        <v>265800</v>
       </c>
       <c r="F76" s="3">
-        <v>208200</v>
+        <v>189800</v>
       </c>
       <c r="G76" s="3">
-        <v>194100</v>
+        <v>176900</v>
       </c>
       <c r="H76" s="3">
-        <v>185200</v>
+        <v>168800</v>
       </c>
       <c r="I76" s="3">
-        <v>91500</v>
+        <v>83400</v>
       </c>
       <c r="J76" s="3">
-        <v>97000</v>
+        <v>88400</v>
       </c>
       <c r="K76" s="3">
         <v>85400</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>68500</v>
+        <v>62500</v>
       </c>
       <c r="E81" s="3">
-        <v>21800</v>
+        <v>19900</v>
       </c>
       <c r="F81" s="3">
-        <v>24000</v>
+        <v>21900</v>
       </c>
       <c r="G81" s="3">
-        <v>9000</v>
+        <v>8200</v>
       </c>
       <c r="H81" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="I81" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="J81" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="K81" s="3">
         <v>700</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>70900</v>
+        <v>64600</v>
       </c>
       <c r="E89" s="3">
-        <v>48800</v>
+        <v>44500</v>
       </c>
       <c r="F89" s="3">
-        <v>32700</v>
+        <v>29800</v>
       </c>
       <c r="G89" s="3">
-        <v>21200</v>
+        <v>19300</v>
       </c>
       <c r="H89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I89" s="3">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="J89" s="3">
-        <v>11200</v>
+        <v>10200</v>
       </c>
       <c r="K89" s="3">
         <v>800</v>
@@ -4184,25 +4184,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14600</v>
+        <v>-13300</v>
       </c>
       <c r="E91" s="3">
-        <v>-10400</v>
+        <v>-9500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="G91" s="3">
-        <v>-7200</v>
+        <v>-6600</v>
       </c>
       <c r="H91" s="3">
-        <v>-17800</v>
+        <v>-16300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="J91" s="3">
-        <v>-6300</v>
+        <v>-5700</v>
       </c>
       <c r="K91" s="3">
         <v>-3200</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16100</v>
+        <v>-14600</v>
       </c>
       <c r="E94" s="3">
-        <v>-11300</v>
+        <v>-10300</v>
       </c>
       <c r="F94" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="G94" s="3">
-        <v>-3400</v>
+        <v>-3100</v>
       </c>
       <c r="H94" s="3">
-        <v>-18500</v>
+        <v>-16800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3400</v>
+        <v>-3100</v>
       </c>
       <c r="J94" s="3">
-        <v>-6700</v>
+        <v>-6100</v>
       </c>
       <c r="K94" s="3">
         <v>-3100</v>
@@ -4391,13 +4391,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-21600</v>
+        <v>-19700</v>
       </c>
       <c r="E96" s="3">
-        <v>-30900</v>
+        <v>-28100</v>
       </c>
       <c r="F96" s="3">
-        <v>-9900</v>
+        <v>-9000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4406,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22000</v>
+        <v>-20100</v>
       </c>
       <c r="E100" s="3">
-        <v>47100</v>
+        <v>42900</v>
       </c>
       <c r="F100" s="3">
-        <v>-10300</v>
+        <v>-9400</v>
       </c>
       <c r="G100" s="3">
-        <v>-12700</v>
+        <v>-11600</v>
       </c>
       <c r="H100" s="3">
-        <v>12100</v>
+        <v>11100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1700</v>
+        <v>-1500</v>
       </c>
       <c r="J100" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32800</v>
+        <v>29900</v>
       </c>
       <c r="E102" s="3">
-        <v>84600</v>
+        <v>77100</v>
       </c>
       <c r="F102" s="3">
-        <v>19000</v>
+        <v>17400</v>
       </c>
       <c r="G102" s="3">
-        <v>5100</v>
+        <v>4600</v>
       </c>
       <c r="H102" s="3">
-        <v>-6700</v>
+        <v>-6100</v>
       </c>
       <c r="I102" s="3">
         <v>500</v>
       </c>
       <c r="J102" s="3">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="K102" s="3">
         <v>-2400</v>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>DRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42094</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>195900</v>
+        <v>142000</v>
       </c>
       <c r="E8" s="3">
-        <v>136400</v>
+        <v>184400</v>
       </c>
       <c r="F8" s="3">
-        <v>138900</v>
+        <v>128500</v>
       </c>
       <c r="G8" s="3">
-        <v>99300</v>
+        <v>130800</v>
       </c>
       <c r="H8" s="3">
-        <v>82400</v>
+        <v>93500</v>
       </c>
       <c r="I8" s="3">
-        <v>81300</v>
+        <v>77600</v>
       </c>
       <c r="J8" s="3">
+        <v>76500</v>
+      </c>
+      <c r="K8" s="3">
         <v>82500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>75500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>70500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>87400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>77500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>111900</v>
+        <v>104500</v>
       </c>
       <c r="E9" s="3">
-        <v>91700</v>
+        <v>105400</v>
       </c>
       <c r="F9" s="3">
-        <v>101600</v>
+        <v>86300</v>
       </c>
       <c r="G9" s="3">
-        <v>85900</v>
+        <v>95700</v>
       </c>
       <c r="H9" s="3">
-        <v>82100</v>
+        <v>80900</v>
       </c>
       <c r="I9" s="3">
-        <v>79500</v>
+        <v>77400</v>
       </c>
       <c r="J9" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K9" s="3">
         <v>75000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>67300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>78500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>73100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>34600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>34800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>83900</v>
+        <v>37500</v>
       </c>
       <c r="E10" s="3">
-        <v>44700</v>
+        <v>79000</v>
       </c>
       <c r="F10" s="3">
-        <v>37300</v>
+        <v>42100</v>
       </c>
       <c r="G10" s="3">
-        <v>13400</v>
+        <v>35100</v>
       </c>
       <c r="H10" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K10" s="3">
+        <v>7600</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N10" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O10" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P10" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R10" s="3">
         <v>1800</v>
       </c>
-      <c r="J10" s="3">
-        <v>7600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>8900</v>
-      </c>
-      <c r="N10" s="3">
-        <v>4400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>5100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,8 +1009,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,35 +1032,38 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>113200</v>
+        <v>107200</v>
       </c>
       <c r="E17" s="3">
-        <v>106400</v>
+        <v>106600</v>
       </c>
       <c r="F17" s="3">
-        <v>107200</v>
+        <v>100200</v>
       </c>
       <c r="G17" s="3">
-        <v>88400</v>
+        <v>100900</v>
       </c>
       <c r="H17" s="3">
-        <v>85000</v>
+        <v>83300</v>
       </c>
       <c r="I17" s="3">
-        <v>83300</v>
+        <v>80100</v>
       </c>
       <c r="J17" s="3">
+        <v>78500</v>
+      </c>
+      <c r="K17" s="3">
         <v>77000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>70300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>81700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>75100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>35900</v>
       </c>
       <c r="P17" s="3">
         <v>35900</v>
       </c>
       <c r="Q17" s="3">
+        <v>35900</v>
+      </c>
+      <c r="R17" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>82600</v>
+        <v>34700</v>
       </c>
       <c r="E18" s="3">
-        <v>30000</v>
+        <v>77800</v>
       </c>
       <c r="F18" s="3">
-        <v>31700</v>
+        <v>28200</v>
       </c>
       <c r="G18" s="3">
-        <v>10900</v>
+        <v>29900</v>
       </c>
       <c r="H18" s="3">
-        <v>-2700</v>
+        <v>10300</v>
       </c>
       <c r="I18" s="3">
-        <v>-2100</v>
+        <v>-2500</v>
       </c>
       <c r="J18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K18" s="3">
         <v>5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,102 +1248,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="E20" s="3">
-        <v>2600</v>
+        <v>4500</v>
       </c>
       <c r="F20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
-        <v>-900</v>
-      </c>
       <c r="J20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
       </c>
       <c r="M20" s="3">
         <v>-200</v>
       </c>
       <c r="N20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>95800</v>
+        <v>39200</v>
       </c>
       <c r="E21" s="3">
-        <v>33500</v>
+        <v>90200</v>
       </c>
       <c r="F21" s="3">
-        <v>40300</v>
+        <v>31600</v>
       </c>
       <c r="G21" s="3">
-        <v>12200</v>
+        <v>37900</v>
       </c>
       <c r="H21" s="3">
-        <v>1300</v>
+        <v>11500</v>
       </c>
       <c r="I21" s="3">
-        <v>-2700</v>
+        <v>1200</v>
       </c>
       <c r="J21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K21" s="3">
         <v>10500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,102 +1396,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>87400</v>
+        <v>39300</v>
       </c>
       <c r="E23" s="3">
-        <v>32500</v>
+        <v>82300</v>
       </c>
       <c r="F23" s="3">
-        <v>31900</v>
+        <v>30600</v>
       </c>
       <c r="G23" s="3">
-        <v>10200</v>
+        <v>30000</v>
       </c>
       <c r="H23" s="3">
-        <v>-3200</v>
+        <v>9600</v>
       </c>
       <c r="I23" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="J23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K23" s="3">
         <v>5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>5500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25000</v>
+        <v>8900</v>
       </c>
       <c r="E24" s="3">
-        <v>12600</v>
+        <v>23500</v>
       </c>
       <c r="F24" s="3">
-        <v>10000</v>
+        <v>11900</v>
       </c>
       <c r="G24" s="3">
-        <v>2000</v>
+        <v>9400</v>
       </c>
       <c r="H24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>62500</v>
+        <v>30400</v>
       </c>
       <c r="E26" s="3">
-        <v>19900</v>
+        <v>58800</v>
       </c>
       <c r="F26" s="3">
-        <v>21900</v>
+        <v>18700</v>
       </c>
       <c r="G26" s="3">
-        <v>8200</v>
+        <v>20600</v>
       </c>
       <c r="H26" s="3">
-        <v>-3000</v>
+        <v>7700</v>
       </c>
       <c r="I26" s="3">
-        <v>-3600</v>
+        <v>-2900</v>
       </c>
       <c r="J26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K26" s="3">
         <v>4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>62500</v>
+        <v>30400</v>
       </c>
       <c r="E27" s="3">
-        <v>19900</v>
+        <v>58800</v>
       </c>
       <c r="F27" s="3">
-        <v>21900</v>
+        <v>18700</v>
       </c>
       <c r="G27" s="3">
-        <v>8200</v>
+        <v>20600</v>
       </c>
       <c r="H27" s="3">
-        <v>-3000</v>
+        <v>7700</v>
       </c>
       <c r="I27" s="3">
-        <v>-3600</v>
+        <v>-2900</v>
       </c>
       <c r="J27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K27" s="3">
         <v>4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1685,8 +1746,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="E32" s="3">
-        <v>-2600</v>
+        <v>-4500</v>
       </c>
       <c r="F32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
-        <v>900</v>
-      </c>
       <c r="J32" s="3">
+        <v>800</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
       </c>
       <c r="M32" s="3">
         <v>200</v>
       </c>
       <c r="N32" s="3">
+        <v>200</v>
+      </c>
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>62500</v>
+        <v>30400</v>
       </c>
       <c r="E33" s="3">
-        <v>19900</v>
+        <v>58800</v>
       </c>
       <c r="F33" s="3">
-        <v>21900</v>
+        <v>18700</v>
       </c>
       <c r="G33" s="3">
-        <v>8200</v>
+        <v>20600</v>
       </c>
       <c r="H33" s="3">
-        <v>-3000</v>
+        <v>7700</v>
       </c>
       <c r="I33" s="3">
-        <v>-3600</v>
+        <v>-2900</v>
       </c>
       <c r="J33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K33" s="3">
         <v>4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>62500</v>
+        <v>30400</v>
       </c>
       <c r="E35" s="3">
-        <v>19900</v>
+        <v>58800</v>
       </c>
       <c r="F35" s="3">
-        <v>21900</v>
+        <v>18700</v>
       </c>
       <c r="G35" s="3">
-        <v>8200</v>
+        <v>20600</v>
       </c>
       <c r="H35" s="3">
-        <v>-3000</v>
+        <v>7700</v>
       </c>
       <c r="I35" s="3">
-        <v>-3600</v>
+        <v>-2900</v>
       </c>
       <c r="J35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K35" s="3">
         <v>4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42094</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,55 +2143,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>142700</v>
+        <v>135100</v>
       </c>
       <c r="E41" s="3">
-        <v>112800</v>
+        <v>134400</v>
       </c>
       <c r="F41" s="3">
-        <v>35700</v>
+        <v>106300</v>
       </c>
       <c r="G41" s="3">
-        <v>18400</v>
+        <v>33700</v>
       </c>
       <c r="H41" s="3">
-        <v>13800</v>
+        <v>17300</v>
       </c>
       <c r="I41" s="3">
-        <v>19900</v>
+        <v>13000</v>
       </c>
       <c r="J41" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K41" s="3">
         <v>19400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2151,102 +2241,111 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11800</v>
+        <v>9500</v>
       </c>
       <c r="E43" s="3">
-        <v>10000</v>
+        <v>11100</v>
       </c>
       <c r="F43" s="3">
-        <v>8100</v>
+        <v>9400</v>
       </c>
       <c r="G43" s="3">
-        <v>4700</v>
+        <v>7600</v>
       </c>
       <c r="H43" s="3">
-        <v>6700</v>
+        <v>4500</v>
       </c>
       <c r="I43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O43" s="3">
+        <v>10100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>6800</v>
+      </c>
+      <c r="R43" s="3">
         <v>6000</v>
       </c>
-      <c r="J43" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>5500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>4900</v>
-      </c>
-      <c r="N43" s="3">
-        <v>10100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>7500</v>
-      </c>
-      <c r="P43" s="3">
-        <v>6800</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="E44" s="3">
-        <v>21300</v>
+        <v>20000</v>
       </c>
       <c r="F44" s="3">
-        <v>20100</v>
+        <v>20000</v>
       </c>
       <c r="G44" s="3">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="H44" s="3">
-        <v>18400</v>
+        <v>18900</v>
       </c>
       <c r="I44" s="3">
-        <v>15300</v>
+        <v>17300</v>
       </c>
       <c r="J44" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K44" s="3">
         <v>16000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10800</v>
-      </c>
-      <c r="N44" s="3">
-        <v>11900</v>
       </c>
       <c r="O44" s="3">
         <v>11900</v>
       </c>
       <c r="P44" s="3">
+        <v>11900</v>
+      </c>
+      <c r="Q44" s="3">
         <v>10000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2275,166 +2374,178 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>700</v>
       </c>
       <c r="O45" s="3">
         <v>700</v>
       </c>
       <c r="P45" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>175700</v>
+        <v>165600</v>
       </c>
       <c r="E46" s="3">
-        <v>144000</v>
+        <v>165500</v>
       </c>
       <c r="F46" s="3">
-        <v>64000</v>
+        <v>135700</v>
       </c>
       <c r="G46" s="3">
-        <v>43200</v>
+        <v>60200</v>
       </c>
       <c r="H46" s="3">
-        <v>38900</v>
+        <v>40600</v>
       </c>
       <c r="I46" s="3">
+        <v>36600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K46" s="3">
         <v>41200</v>
       </c>
-      <c r="J46" s="3">
-        <v>41200</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>43100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>37700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>59900</v>
+        <v>50800</v>
       </c>
       <c r="E47" s="3">
-        <v>56300</v>
+        <v>56400</v>
       </c>
       <c r="F47" s="3">
-        <v>42500</v>
+        <v>53000</v>
       </c>
       <c r="G47" s="3">
-        <v>40700</v>
+        <v>40000</v>
       </c>
       <c r="H47" s="3">
-        <v>43000</v>
+        <v>38300</v>
       </c>
       <c r="I47" s="3">
-        <v>17900</v>
+        <v>40500</v>
       </c>
       <c r="J47" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K47" s="3">
         <v>16200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>14400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>16700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>177400</v>
+        <v>174100</v>
       </c>
       <c r="E48" s="3">
-        <v>172400</v>
+        <v>167100</v>
       </c>
       <c r="F48" s="3">
-        <v>180100</v>
+        <v>162400</v>
       </c>
       <c r="G48" s="3">
-        <v>182600</v>
+        <v>169600</v>
       </c>
       <c r="H48" s="3">
-        <v>192600</v>
+        <v>171900</v>
       </c>
       <c r="I48" s="3">
-        <v>95600</v>
+        <v>181400</v>
       </c>
       <c r="J48" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K48" s="3">
         <v>98800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>98200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>92500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>107400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>114100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>120300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>119900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2480,8 +2591,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,31 +2691,34 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>2900</v>
       </c>
       <c r="E52" s="3">
         <v>500</v>
       </c>
       <c r="F52" s="3">
+        <v>500</v>
+      </c>
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
-        <v>700</v>
-      </c>
       <c r="H52" s="3">
+        <v>600</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
-        <v>600</v>
-      </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -2607,13 +2727,13 @@
         <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -2621,8 +2741,11 @@
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>413600</v>
+        <v>393300</v>
       </c>
       <c r="E54" s="3">
-        <v>373300</v>
+        <v>389500</v>
       </c>
       <c r="F54" s="3">
-        <v>287200</v>
+        <v>351600</v>
       </c>
       <c r="G54" s="3">
-        <v>267100</v>
+        <v>270400</v>
       </c>
       <c r="H54" s="3">
-        <v>274900</v>
+        <v>251500</v>
       </c>
       <c r="I54" s="3">
-        <v>155300</v>
+        <v>258900</v>
       </c>
       <c r="J54" s="3">
+        <v>146200</v>
+      </c>
+      <c r="K54" s="3">
         <v>156500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>150000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>140300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>162300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>168600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>177300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>174400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,75 +2883,79 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28700</v>
+        <v>31600</v>
       </c>
       <c r="E57" s="3">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="F57" s="3">
-        <v>25000</v>
+        <v>29700</v>
       </c>
       <c r="G57" s="3">
-        <v>27600</v>
+        <v>23600</v>
       </c>
       <c r="H57" s="3">
-        <v>26600</v>
+        <v>26000</v>
       </c>
       <c r="I57" s="3">
-        <v>20000</v>
+        <v>25100</v>
       </c>
       <c r="J57" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K57" s="3">
         <v>18100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2829,8 +2963,8 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>200</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
@@ -2839,136 +2973,145 @@
         <v>200</v>
       </c>
       <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
         <v>1800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>5600</v>
       </c>
       <c r="Q58" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9700</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>16900</v>
+        <v>9100</v>
       </c>
       <c r="F59" s="3">
-        <v>4800</v>
+        <v>15900</v>
       </c>
       <c r="G59" s="3">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="H59" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="I59" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="J59" s="3">
         <v>1100</v>
       </c>
       <c r="K59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1500</v>
       </c>
       <c r="M59" s="3">
         <v>1500</v>
       </c>
       <c r="N59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="O59" s="3">
         <v>1400</v>
       </c>
       <c r="P59" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="Q59" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>39000</v>
+        <v>32900</v>
       </c>
       <c r="E60" s="3">
-        <v>49100</v>
+        <v>36700</v>
       </c>
       <c r="F60" s="3">
-        <v>30400</v>
+        <v>46200</v>
       </c>
       <c r="G60" s="3">
-        <v>30100</v>
+        <v>28700</v>
       </c>
       <c r="H60" s="3">
-        <v>28800</v>
+        <v>28400</v>
       </c>
       <c r="I60" s="3">
-        <v>21100</v>
+        <v>27100</v>
       </c>
       <c r="J60" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K60" s="3">
         <v>19200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E61" s="3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="F61" s="3">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="H61" s="3">
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1100</v>
       </c>
       <c r="L61" s="3">
         <v>1100</v>
@@ -2977,10 +3120,10 @@
         <v>1100</v>
       </c>
       <c r="N61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O61" s="3">
         <v>1200</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1400</v>
       </c>
       <c r="P61" s="3">
         <v>1400</v>
@@ -2988,55 +3131,61 @@
       <c r="Q61" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61400</v>
+        <v>59400</v>
       </c>
       <c r="E62" s="3">
-        <v>56100</v>
+        <v>57800</v>
       </c>
       <c r="F62" s="3">
-        <v>64100</v>
+        <v>52800</v>
       </c>
       <c r="G62" s="3">
-        <v>60100</v>
+        <v>60400</v>
       </c>
       <c r="H62" s="3">
-        <v>65800</v>
+        <v>56600</v>
       </c>
       <c r="I62" s="3">
-        <v>49800</v>
+        <v>62000</v>
       </c>
       <c r="J62" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K62" s="3">
         <v>47800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>50300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>45600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>46100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>43600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>102600</v>
+        <v>94600</v>
       </c>
       <c r="E66" s="3">
-        <v>107600</v>
+        <v>96600</v>
       </c>
       <c r="F66" s="3">
-        <v>97400</v>
+        <v>101300</v>
       </c>
       <c r="G66" s="3">
-        <v>90200</v>
+        <v>91700</v>
       </c>
       <c r="H66" s="3">
-        <v>106100</v>
+        <v>85000</v>
       </c>
       <c r="I66" s="3">
-        <v>71900</v>
+        <v>99900</v>
       </c>
       <c r="J66" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K66" s="3">
         <v>68100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>65300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>68900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>82600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>310900</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>265800</v>
+        <v>292800</v>
       </c>
       <c r="F72" s="3">
-        <v>189800</v>
+        <v>250300</v>
       </c>
       <c r="G72" s="3">
-        <v>176900</v>
+        <v>178700</v>
       </c>
       <c r="H72" s="3">
-        <v>168800</v>
+        <v>166600</v>
       </c>
       <c r="I72" s="3">
-        <v>83400</v>
+        <v>159000</v>
       </c>
       <c r="J72" s="3">
+        <v>78500</v>
+      </c>
+      <c r="K72" s="3">
         <v>88400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>85400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>76700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>89900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>103300</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>310900</v>
+        <v>298600</v>
       </c>
       <c r="E76" s="3">
-        <v>265800</v>
+        <v>292800</v>
       </c>
       <c r="F76" s="3">
-        <v>189800</v>
+        <v>250300</v>
       </c>
       <c r="G76" s="3">
-        <v>176900</v>
+        <v>178700</v>
       </c>
       <c r="H76" s="3">
-        <v>168800</v>
+        <v>166600</v>
       </c>
       <c r="I76" s="3">
-        <v>83400</v>
+        <v>159000</v>
       </c>
       <c r="J76" s="3">
+        <v>78500</v>
+      </c>
+      <c r="K76" s="3">
         <v>88400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>85400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>76700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>89900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>103300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>108300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>106200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42094</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>62500</v>
+        <v>30400</v>
       </c>
       <c r="E81" s="3">
-        <v>19900</v>
+        <v>58800</v>
       </c>
       <c r="F81" s="3">
-        <v>21900</v>
+        <v>18700</v>
       </c>
       <c r="G81" s="3">
-        <v>8200</v>
+        <v>20600</v>
       </c>
       <c r="H81" s="3">
-        <v>-3000</v>
+        <v>7700</v>
       </c>
       <c r="I81" s="3">
-        <v>-3600</v>
+        <v>-2900</v>
       </c>
       <c r="J81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K81" s="3">
         <v>4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,8 +4028,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3877,8 +4076,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>64600</v>
+        <v>36600</v>
       </c>
       <c r="E89" s="3">
-        <v>44500</v>
+        <v>60900</v>
       </c>
       <c r="F89" s="3">
-        <v>29800</v>
+        <v>41900</v>
       </c>
       <c r="G89" s="3">
-        <v>19300</v>
+        <v>28100</v>
       </c>
       <c r="H89" s="3">
+        <v>18200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K89" s="3">
+        <v>10200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>800</v>
+      </c>
+      <c r="M89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>23300</v>
+      </c>
+      <c r="O89" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P89" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>5100</v>
       </c>
-      <c r="J89" s="3">
-        <v>10200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>800</v>
-      </c>
-      <c r="L89" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>23300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>4700</v>
-      </c>
-      <c r="O89" s="3">
-        <v>5200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>5100</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,46 +4398,47 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13300</v>
+        <v>-12000</v>
       </c>
       <c r="E91" s="3">
-        <v>-9500</v>
+        <v>-12500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2500</v>
+        <v>-8900</v>
       </c>
       <c r="G91" s="3">
-        <v>-6600</v>
+        <v>-2300</v>
       </c>
       <c r="H91" s="3">
-        <v>-16300</v>
+        <v>-6200</v>
       </c>
       <c r="I91" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2600</v>
       </c>
-      <c r="J91" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4100</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -4225,8 +4446,11 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14600</v>
+        <v>-13900</v>
       </c>
       <c r="E94" s="3">
-        <v>-10300</v>
+        <v>-13800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3000</v>
+        <v>-9700</v>
       </c>
       <c r="G94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3">
-        <v>-16800</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,55 +4618,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-19700</v>
+        <v>-21200</v>
       </c>
       <c r="E96" s="3">
-        <v>-28100</v>
+        <v>-18500</v>
       </c>
       <c r="F96" s="3">
-        <v>-9000</v>
+        <v>-26500</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-8500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1400</v>
       </c>
-      <c r="J96" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-3000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-14100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,55 +4816,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20100</v>
+        <v>-21600</v>
       </c>
       <c r="E100" s="3">
-        <v>42900</v>
+        <v>-18900</v>
       </c>
       <c r="F100" s="3">
-        <v>-9400</v>
+        <v>40400</v>
       </c>
       <c r="G100" s="3">
-        <v>-11600</v>
+        <v>-8800</v>
       </c>
       <c r="H100" s="3">
-        <v>11100</v>
+        <v>-10900</v>
       </c>
       <c r="I100" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4667,51 +4916,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>29900</v>
+        <v>700</v>
       </c>
       <c r="E102" s="3">
-        <v>77100</v>
+        <v>28100</v>
       </c>
       <c r="F102" s="3">
-        <v>17400</v>
+        <v>72600</v>
       </c>
       <c r="G102" s="3">
-        <v>4600</v>
+        <v>16300</v>
       </c>
       <c r="H102" s="3">
-        <v>-6100</v>
+        <v>4300</v>
       </c>
       <c r="I102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>DRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42094</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>142000</v>
+        <v>165900</v>
       </c>
       <c r="E8" s="3">
-        <v>184400</v>
+        <v>152100</v>
       </c>
       <c r="F8" s="3">
-        <v>128500</v>
+        <v>197700</v>
       </c>
       <c r="G8" s="3">
-        <v>130800</v>
+        <v>137700</v>
       </c>
       <c r="H8" s="3">
-        <v>93500</v>
+        <v>140200</v>
       </c>
       <c r="I8" s="3">
-        <v>77600</v>
+        <v>100200</v>
       </c>
       <c r="J8" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K8" s="3">
         <v>76500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>82500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>75500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>70500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>87400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>77500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>37500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>104500</v>
+        <v>121600</v>
       </c>
       <c r="E9" s="3">
-        <v>105400</v>
+        <v>112000</v>
       </c>
       <c r="F9" s="3">
-        <v>86300</v>
+        <v>113000</v>
       </c>
       <c r="G9" s="3">
-        <v>95700</v>
+        <v>92500</v>
       </c>
       <c r="H9" s="3">
-        <v>80900</v>
+        <v>102500</v>
       </c>
       <c r="I9" s="3">
-        <v>77400</v>
+        <v>86700</v>
       </c>
       <c r="J9" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K9" s="3">
         <v>74800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>75300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>67300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>78500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>73100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>34600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>34800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37500</v>
+        <v>44300</v>
       </c>
       <c r="E10" s="3">
-        <v>79000</v>
+        <v>40200</v>
       </c>
       <c r="F10" s="3">
-        <v>42100</v>
+        <v>84700</v>
       </c>
       <c r="G10" s="3">
-        <v>35100</v>
+        <v>45100</v>
       </c>
       <c r="H10" s="3">
-        <v>12700</v>
+        <v>37700</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>13600</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,8 +1029,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,35 +1055,38 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>107200</v>
+        <v>127000</v>
       </c>
       <c r="E17" s="3">
-        <v>106600</v>
+        <v>114900</v>
       </c>
       <c r="F17" s="3">
-        <v>100200</v>
+        <v>114300</v>
       </c>
       <c r="G17" s="3">
-        <v>100900</v>
+        <v>107400</v>
       </c>
       <c r="H17" s="3">
-        <v>83300</v>
+        <v>108200</v>
       </c>
       <c r="I17" s="3">
-        <v>80100</v>
+        <v>89200</v>
       </c>
       <c r="J17" s="3">
+        <v>85800</v>
+      </c>
+      <c r="K17" s="3">
         <v>78500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>81700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>75100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>35900</v>
       </c>
       <c r="Q17" s="3">
         <v>35900</v>
       </c>
       <c r="R17" s="3">
+        <v>35900</v>
+      </c>
+      <c r="S17" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>34700</v>
+        <v>38900</v>
       </c>
       <c r="E18" s="3">
-        <v>77800</v>
+        <v>37200</v>
       </c>
       <c r="F18" s="3">
-        <v>28200</v>
+        <v>83400</v>
       </c>
       <c r="G18" s="3">
-        <v>29900</v>
+        <v>30200</v>
       </c>
       <c r="H18" s="3">
-        <v>10300</v>
+        <v>32000</v>
       </c>
       <c r="I18" s="3">
-        <v>-2500</v>
+        <v>11000</v>
       </c>
       <c r="J18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,108 +1282,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4600</v>
+        <v>5600</v>
       </c>
       <c r="E20" s="3">
-        <v>4500</v>
+        <v>4900</v>
       </c>
       <c r="F20" s="3">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="G20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-200</v>
       </c>
       <c r="N20" s="3">
         <v>-200</v>
       </c>
       <c r="O20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>39200</v>
+        <v>53600</v>
       </c>
       <c r="E21" s="3">
-        <v>90200</v>
+        <v>42000</v>
       </c>
       <c r="F21" s="3">
-        <v>31600</v>
+        <v>96700</v>
       </c>
       <c r="G21" s="3">
-        <v>37900</v>
+        <v>33800</v>
       </c>
       <c r="H21" s="3">
-        <v>11500</v>
+        <v>40700</v>
       </c>
       <c r="I21" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="L21" s="3">
+        <v>10500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="N21" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O21" s="3">
+        <v>6300</v>
+      </c>
+      <c r="P21" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>5800</v>
+      </c>
+      <c r="R21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>10500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="M21" s="3">
-        <v>6000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>6300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>7600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>5800</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,108 +1439,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>39300</v>
+        <v>44400</v>
       </c>
       <c r="E23" s="3">
-        <v>82300</v>
+        <v>42100</v>
       </c>
       <c r="F23" s="3">
-        <v>30600</v>
+        <v>88200</v>
       </c>
       <c r="G23" s="3">
-        <v>30000</v>
+        <v>32800</v>
       </c>
       <c r="H23" s="3">
-        <v>9600</v>
+        <v>32200</v>
       </c>
       <c r="I23" s="3">
-        <v>-3100</v>
+        <v>10300</v>
       </c>
       <c r="J23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>5500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8900</v>
+        <v>11500</v>
       </c>
       <c r="E24" s="3">
-        <v>23500</v>
+        <v>9600</v>
       </c>
       <c r="F24" s="3">
-        <v>11900</v>
+        <v>25200</v>
       </c>
       <c r="G24" s="3">
-        <v>9400</v>
+        <v>12800</v>
       </c>
       <c r="H24" s="3">
-        <v>1800</v>
+        <v>10100</v>
       </c>
       <c r="I24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>30400</v>
+        <v>32900</v>
       </c>
       <c r="E26" s="3">
-        <v>58800</v>
+        <v>32600</v>
       </c>
       <c r="F26" s="3">
-        <v>18700</v>
+        <v>63000</v>
       </c>
       <c r="G26" s="3">
-        <v>20600</v>
+        <v>20100</v>
       </c>
       <c r="H26" s="3">
-        <v>7700</v>
+        <v>22100</v>
       </c>
       <c r="I26" s="3">
-        <v>-2900</v>
+        <v>8300</v>
       </c>
       <c r="J26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>30400</v>
+        <v>32900</v>
       </c>
       <c r="E27" s="3">
-        <v>58800</v>
+        <v>32600</v>
       </c>
       <c r="F27" s="3">
-        <v>18700</v>
+        <v>63000</v>
       </c>
       <c r="G27" s="3">
-        <v>20600</v>
+        <v>20100</v>
       </c>
       <c r="H27" s="3">
-        <v>7700</v>
+        <v>22100</v>
       </c>
       <c r="I27" s="3">
-        <v>-2900</v>
+        <v>8300</v>
       </c>
       <c r="J27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1749,8 +1810,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4600</v>
+        <v>-5600</v>
       </c>
       <c r="E32" s="3">
-        <v>-4500</v>
+        <v>-4900</v>
       </c>
       <c r="F32" s="3">
-        <v>-2400</v>
+        <v>-4800</v>
       </c>
       <c r="G32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>200</v>
       </c>
       <c r="N32" s="3">
         <v>200</v>
       </c>
       <c r="O32" s="3">
+        <v>200</v>
+      </c>
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>30400</v>
+        <v>32900</v>
       </c>
       <c r="E33" s="3">
-        <v>58800</v>
+        <v>32600</v>
       </c>
       <c r="F33" s="3">
-        <v>18700</v>
+        <v>63000</v>
       </c>
       <c r="G33" s="3">
-        <v>20600</v>
+        <v>20100</v>
       </c>
       <c r="H33" s="3">
-        <v>7700</v>
+        <v>22100</v>
       </c>
       <c r="I33" s="3">
-        <v>-2900</v>
+        <v>8300</v>
       </c>
       <c r="J33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>30400</v>
+        <v>32900</v>
       </c>
       <c r="E35" s="3">
-        <v>58800</v>
+        <v>32600</v>
       </c>
       <c r="F35" s="3">
-        <v>18700</v>
+        <v>63000</v>
       </c>
       <c r="G35" s="3">
-        <v>20600</v>
+        <v>20100</v>
       </c>
       <c r="H35" s="3">
-        <v>7700</v>
+        <v>22100</v>
       </c>
       <c r="I35" s="3">
-        <v>-2900</v>
+        <v>8300</v>
       </c>
       <c r="J35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42094</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,58 +2230,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>135100</v>
+        <v>148700</v>
       </c>
       <c r="E41" s="3">
-        <v>134400</v>
+        <v>144700</v>
       </c>
       <c r="F41" s="3">
-        <v>106300</v>
+        <v>144000</v>
       </c>
       <c r="G41" s="3">
-        <v>33700</v>
+        <v>113900</v>
       </c>
       <c r="H41" s="3">
-        <v>17300</v>
+        <v>36100</v>
       </c>
       <c r="I41" s="3">
-        <v>13000</v>
+        <v>18600</v>
       </c>
       <c r="J41" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K41" s="3">
         <v>18700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2244,108 +2334,117 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9500</v>
+        <v>10800</v>
       </c>
       <c r="E43" s="3">
-        <v>11100</v>
+        <v>10100</v>
       </c>
       <c r="F43" s="3">
-        <v>9400</v>
+        <v>11900</v>
       </c>
       <c r="G43" s="3">
-        <v>7600</v>
+        <v>10000</v>
       </c>
       <c r="H43" s="3">
-        <v>4500</v>
+        <v>8100</v>
       </c>
       <c r="I43" s="3">
-        <v>6300</v>
+        <v>4800</v>
       </c>
       <c r="J43" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K43" s="3">
         <v>5600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21100</v>
+        <v>27900</v>
       </c>
       <c r="E44" s="3">
-        <v>20000</v>
+        <v>22600</v>
       </c>
       <c r="F44" s="3">
-        <v>20000</v>
+        <v>21400</v>
       </c>
       <c r="G44" s="3">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="H44" s="3">
-        <v>18900</v>
+        <v>20300</v>
       </c>
       <c r="I44" s="3">
-        <v>17300</v>
+        <v>20200</v>
       </c>
       <c r="J44" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K44" s="3">
         <v>14400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10800</v>
-      </c>
-      <c r="O44" s="3">
-        <v>11900</v>
       </c>
       <c r="P44" s="3">
         <v>11900</v>
       </c>
       <c r="Q44" s="3">
+        <v>11900</v>
+      </c>
+      <c r="R44" s="3">
         <v>10000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2377,175 +2476,187 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>700</v>
       </c>
       <c r="P45" s="3">
         <v>700</v>
       </c>
       <c r="Q45" s="3">
+        <v>700</v>
+      </c>
+      <c r="R45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>165600</v>
+        <v>187300</v>
       </c>
       <c r="E46" s="3">
-        <v>165500</v>
+        <v>177400</v>
       </c>
       <c r="F46" s="3">
-        <v>135700</v>
+        <v>177300</v>
       </c>
       <c r="G46" s="3">
-        <v>60200</v>
+        <v>145400</v>
       </c>
       <c r="H46" s="3">
-        <v>40600</v>
+        <v>64600</v>
       </c>
       <c r="I46" s="3">
-        <v>36600</v>
+        <v>43600</v>
       </c>
       <c r="J46" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K46" s="3">
         <v>38800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>43100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>37700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>50800</v>
+        <v>54200</v>
       </c>
       <c r="E47" s="3">
-        <v>56400</v>
+        <v>54400</v>
       </c>
       <c r="F47" s="3">
-        <v>53000</v>
+        <v>60400</v>
       </c>
       <c r="G47" s="3">
-        <v>40000</v>
+        <v>56800</v>
       </c>
       <c r="H47" s="3">
-        <v>38300</v>
+        <v>42900</v>
       </c>
       <c r="I47" s="3">
-        <v>40500</v>
+        <v>41100</v>
       </c>
       <c r="J47" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K47" s="3">
         <v>16900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>15500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>14200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>14400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>16700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>174100</v>
+        <v>189500</v>
       </c>
       <c r="E48" s="3">
-        <v>167100</v>
+        <v>186500</v>
       </c>
       <c r="F48" s="3">
-        <v>162400</v>
+        <v>179100</v>
       </c>
       <c r="G48" s="3">
-        <v>169600</v>
+        <v>174000</v>
       </c>
       <c r="H48" s="3">
-        <v>171900</v>
+        <v>181800</v>
       </c>
       <c r="I48" s="3">
-        <v>181400</v>
+        <v>184300</v>
       </c>
       <c r="J48" s="3">
+        <v>194400</v>
+      </c>
+      <c r="K48" s="3">
         <v>90000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>98800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>98200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>92500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>107400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>114100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>120300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>119900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2594,8 +2705,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,34 +2811,37 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2900</v>
+        <v>4300</v>
       </c>
       <c r="E52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>600</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
       </c>
       <c r="I52" s="3">
+        <v>700</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -2730,13 +2850,13 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -2744,8 +2864,11 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>393300</v>
+        <v>435400</v>
       </c>
       <c r="E54" s="3">
-        <v>389500</v>
+        <v>421400</v>
       </c>
       <c r="F54" s="3">
-        <v>351600</v>
+        <v>417400</v>
       </c>
       <c r="G54" s="3">
-        <v>270400</v>
+        <v>376800</v>
       </c>
       <c r="H54" s="3">
-        <v>251500</v>
+        <v>289800</v>
       </c>
       <c r="I54" s="3">
-        <v>258900</v>
+        <v>269500</v>
       </c>
       <c r="J54" s="3">
+        <v>277400</v>
+      </c>
+      <c r="K54" s="3">
         <v>146200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>156500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>150000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>140300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>162300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>168600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>177300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>174400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,81 +3014,85 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31600</v>
+        <v>33300</v>
       </c>
       <c r="E57" s="3">
-        <v>27000</v>
+        <v>33800</v>
       </c>
       <c r="F57" s="3">
-        <v>29700</v>
+        <v>28900</v>
       </c>
       <c r="G57" s="3">
-        <v>23600</v>
+        <v>31800</v>
       </c>
       <c r="H57" s="3">
-        <v>26000</v>
+        <v>25300</v>
       </c>
       <c r="I57" s="3">
-        <v>25100</v>
+        <v>27800</v>
       </c>
       <c r="J57" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K57" s="3">
         <v>18800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
-        <v>600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
-        <v>800</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3">
+        <v>900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2966,8 +3100,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>200</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
@@ -2976,145 +3110,154 @@
         <v>200</v>
       </c>
       <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>5600</v>
       </c>
       <c r="R58" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>9100</v>
-      </c>
       <c r="F59" s="3">
-        <v>15900</v>
+        <v>9800</v>
       </c>
       <c r="G59" s="3">
-        <v>4500</v>
+        <v>17100</v>
       </c>
       <c r="H59" s="3">
-        <v>1700</v>
+        <v>4900</v>
       </c>
       <c r="I59" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="J59" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K59" s="3">
         <v>1100</v>
       </c>
       <c r="L59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1500</v>
       </c>
       <c r="N59" s="3">
         <v>1500</v>
       </c>
       <c r="O59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="P59" s="3">
         <v>1400</v>
       </c>
       <c r="Q59" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="R59" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32900</v>
+        <v>36800</v>
       </c>
       <c r="E60" s="3">
-        <v>36700</v>
+        <v>35300</v>
       </c>
       <c r="F60" s="3">
-        <v>46200</v>
+        <v>39300</v>
       </c>
       <c r="G60" s="3">
-        <v>28700</v>
+        <v>49500</v>
       </c>
       <c r="H60" s="3">
-        <v>28400</v>
+        <v>30700</v>
       </c>
       <c r="I60" s="3">
-        <v>27100</v>
+        <v>30400</v>
       </c>
       <c r="J60" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K60" s="3">
         <v>19900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="E61" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="F61" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G61" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="I61" s="3">
-        <v>10700</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1100</v>
       </c>
       <c r="M61" s="3">
         <v>1100</v>
@@ -3123,10 +3266,10 @@
         <v>1100</v>
       </c>
       <c r="O61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P61" s="3">
         <v>1200</v>
-      </c>
-      <c r="P61" s="3">
-        <v>1400</v>
       </c>
       <c r="Q61" s="3">
         <v>1400</v>
@@ -3134,58 +3277,64 @@
       <c r="R61" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>59400</v>
+        <v>66500</v>
       </c>
       <c r="E62" s="3">
-        <v>57800</v>
+        <v>63600</v>
       </c>
       <c r="F62" s="3">
-        <v>52800</v>
+        <v>62000</v>
       </c>
       <c r="G62" s="3">
-        <v>60400</v>
+        <v>56600</v>
       </c>
       <c r="H62" s="3">
-        <v>56600</v>
+        <v>64700</v>
       </c>
       <c r="I62" s="3">
-        <v>62000</v>
+        <v>60600</v>
       </c>
       <c r="J62" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K62" s="3">
         <v>46900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>47800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>45100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>50300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>45600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>46100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>43600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>94600</v>
+        <v>105300</v>
       </c>
       <c r="E66" s="3">
-        <v>96600</v>
+        <v>101400</v>
       </c>
       <c r="F66" s="3">
-        <v>101300</v>
+        <v>103600</v>
       </c>
       <c r="G66" s="3">
-        <v>91700</v>
+        <v>108500</v>
       </c>
       <c r="H66" s="3">
-        <v>85000</v>
+        <v>98300</v>
       </c>
       <c r="I66" s="3">
-        <v>99900</v>
+        <v>91000</v>
       </c>
       <c r="J66" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K66" s="3">
         <v>67700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>65300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>68200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>82600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3">
-        <v>292800</v>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>250300</v>
+        <v>313800</v>
       </c>
       <c r="G72" s="3">
-        <v>178700</v>
+        <v>268200</v>
       </c>
       <c r="H72" s="3">
-        <v>166600</v>
+        <v>191500</v>
       </c>
       <c r="I72" s="3">
-        <v>159000</v>
+        <v>178500</v>
       </c>
       <c r="J72" s="3">
+        <v>170400</v>
+      </c>
+      <c r="K72" s="3">
         <v>78500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>88400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>85400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>76700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>89900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>103300</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>298600</v>
+        <v>330100</v>
       </c>
       <c r="E76" s="3">
-        <v>292800</v>
+        <v>320000</v>
       </c>
       <c r="F76" s="3">
-        <v>250300</v>
+        <v>313800</v>
       </c>
       <c r="G76" s="3">
-        <v>178700</v>
+        <v>268200</v>
       </c>
       <c r="H76" s="3">
-        <v>166600</v>
+        <v>191500</v>
       </c>
       <c r="I76" s="3">
-        <v>159000</v>
+        <v>178500</v>
       </c>
       <c r="J76" s="3">
+        <v>170400</v>
+      </c>
+      <c r="K76" s="3">
         <v>78500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>88400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>85400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>76700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>89900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>103300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>108300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>106200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42094</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>30400</v>
+        <v>32900</v>
       </c>
       <c r="E81" s="3">
-        <v>58800</v>
+        <v>32600</v>
       </c>
       <c r="F81" s="3">
-        <v>18700</v>
+        <v>63000</v>
       </c>
       <c r="G81" s="3">
-        <v>20600</v>
+        <v>20100</v>
       </c>
       <c r="H81" s="3">
-        <v>7700</v>
+        <v>22100</v>
       </c>
       <c r="I81" s="3">
-        <v>-2900</v>
+        <v>8300</v>
       </c>
       <c r="J81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,8 +4227,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4079,8 +4278,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36600</v>
+        <v>40200</v>
       </c>
       <c r="E89" s="3">
-        <v>60900</v>
+        <v>39200</v>
       </c>
       <c r="F89" s="3">
-        <v>41900</v>
+        <v>65200</v>
       </c>
       <c r="G89" s="3">
-        <v>28100</v>
+        <v>44900</v>
       </c>
       <c r="H89" s="3">
-        <v>18200</v>
+        <v>30100</v>
       </c>
       <c r="I89" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>23300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,49 +4619,50 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="E91" s="3">
-        <v>-12500</v>
+        <v>-12900</v>
       </c>
       <c r="F91" s="3">
-        <v>-8900</v>
+        <v>-13400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2300</v>
+        <v>-9500</v>
       </c>
       <c r="H91" s="3">
-        <v>-6200</v>
+        <v>-2500</v>
       </c>
       <c r="I91" s="3">
-        <v>-15300</v>
+        <v>-6700</v>
       </c>
       <c r="J91" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4100</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -4449,8 +4670,11 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13900</v>
+        <v>-13200</v>
       </c>
       <c r="E94" s="3">
-        <v>-13800</v>
+        <v>-14900</v>
       </c>
       <c r="F94" s="3">
-        <v>-9700</v>
+        <v>-14800</v>
       </c>
       <c r="G94" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,58 +4852,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-21200</v>
+        <v>-22900</v>
       </c>
       <c r="E96" s="3">
-        <v>-18500</v>
+        <v>-22700</v>
       </c>
       <c r="F96" s="3">
-        <v>-26500</v>
+        <v>-19900</v>
       </c>
       <c r="G96" s="3">
-        <v>-8500</v>
+        <v>-28400</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-9100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-14100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,81 +5062,87 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21600</v>
+        <v>-23500</v>
       </c>
       <c r="E100" s="3">
-        <v>-18900</v>
+        <v>-23100</v>
       </c>
       <c r="F100" s="3">
-        <v>40400</v>
+        <v>-20300</v>
       </c>
       <c r="G100" s="3">
-        <v>-8800</v>
+        <v>43300</v>
       </c>
       <c r="H100" s="3">
-        <v>-10900</v>
+        <v>-9500</v>
       </c>
       <c r="I100" s="3">
-        <v>10400</v>
+        <v>-11700</v>
       </c>
       <c r="J100" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4919,54 +5168,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
-        <v>28100</v>
-      </c>
       <c r="F102" s="3">
-        <v>72600</v>
+        <v>30200</v>
       </c>
       <c r="G102" s="3">
-        <v>16300</v>
+        <v>77800</v>
       </c>
       <c r="H102" s="3">
-        <v>4300</v>
+        <v>17500</v>
       </c>
       <c r="I102" s="3">
-        <v>-5700</v>
+        <v>4700</v>
       </c>
       <c r="J102" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>165900</v>
+        <v>155200</v>
       </c>
       <c r="E8" s="3">
-        <v>152100</v>
+        <v>142300</v>
       </c>
       <c r="F8" s="3">
-        <v>197700</v>
+        <v>184900</v>
       </c>
       <c r="G8" s="3">
-        <v>137700</v>
+        <v>128800</v>
       </c>
       <c r="H8" s="3">
-        <v>140200</v>
+        <v>131100</v>
       </c>
       <c r="I8" s="3">
-        <v>100200</v>
+        <v>93800</v>
       </c>
       <c r="J8" s="3">
-        <v>83200</v>
+        <v>77800</v>
       </c>
       <c r="K8" s="3">
         <v>76500</v>
@@ -805,25 +805,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>121600</v>
+        <v>113700</v>
       </c>
       <c r="E9" s="3">
-        <v>112000</v>
+        <v>104700</v>
       </c>
       <c r="F9" s="3">
-        <v>113000</v>
+        <v>105700</v>
       </c>
       <c r="G9" s="3">
-        <v>92500</v>
+        <v>86600</v>
       </c>
       <c r="H9" s="3">
-        <v>102500</v>
+        <v>95900</v>
       </c>
       <c r="I9" s="3">
-        <v>86700</v>
+        <v>81100</v>
       </c>
       <c r="J9" s="3">
-        <v>82900</v>
+        <v>77600</v>
       </c>
       <c r="K9" s="3">
         <v>74800</v>
@@ -858,25 +858,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>44300</v>
+        <v>41500</v>
       </c>
       <c r="E10" s="3">
-        <v>40200</v>
+        <v>37600</v>
       </c>
       <c r="F10" s="3">
-        <v>84700</v>
+        <v>79200</v>
       </c>
       <c r="G10" s="3">
-        <v>45100</v>
+        <v>42200</v>
       </c>
       <c r="H10" s="3">
-        <v>37700</v>
+        <v>35200</v>
       </c>
       <c r="I10" s="3">
-        <v>13600</v>
+        <v>12700</v>
       </c>
       <c r="J10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>1700</v>
@@ -1162,25 +1162,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>127000</v>
+        <v>118800</v>
       </c>
       <c r="E17" s="3">
-        <v>114900</v>
+        <v>107500</v>
       </c>
       <c r="F17" s="3">
-        <v>114300</v>
+        <v>106900</v>
       </c>
       <c r="G17" s="3">
-        <v>107400</v>
+        <v>100500</v>
       </c>
       <c r="H17" s="3">
-        <v>108200</v>
+        <v>101200</v>
       </c>
       <c r="I17" s="3">
-        <v>89200</v>
+        <v>83500</v>
       </c>
       <c r="J17" s="3">
-        <v>85800</v>
+        <v>80300</v>
       </c>
       <c r="K17" s="3">
         <v>78500</v>
@@ -1215,25 +1215,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>38900</v>
+        <v>36400</v>
       </c>
       <c r="E18" s="3">
-        <v>37200</v>
+        <v>34800</v>
       </c>
       <c r="F18" s="3">
-        <v>83400</v>
+        <v>78000</v>
       </c>
       <c r="G18" s="3">
-        <v>30200</v>
+        <v>28300</v>
       </c>
       <c r="H18" s="3">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="I18" s="3">
-        <v>11000</v>
+        <v>10300</v>
       </c>
       <c r="J18" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="K18" s="3">
         <v>-2000</v>
@@ -1289,16 +1289,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="E20" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="F20" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="G20" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1342,25 +1342,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>53600</v>
+        <v>50200</v>
       </c>
       <c r="E21" s="3">
-        <v>42000</v>
+        <v>39300</v>
       </c>
       <c r="F21" s="3">
-        <v>96700</v>
+        <v>90500</v>
       </c>
       <c r="G21" s="3">
-        <v>33800</v>
+        <v>31600</v>
       </c>
       <c r="H21" s="3">
-        <v>40700</v>
+        <v>38000</v>
       </c>
       <c r="I21" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="J21" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K21" s="3">
         <v>-2600</v>
@@ -1448,25 +1448,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>44400</v>
+        <v>41600</v>
       </c>
       <c r="E23" s="3">
-        <v>42100</v>
+        <v>39400</v>
       </c>
       <c r="F23" s="3">
-        <v>88200</v>
+        <v>82500</v>
       </c>
       <c r="G23" s="3">
-        <v>32800</v>
+        <v>30700</v>
       </c>
       <c r="H23" s="3">
-        <v>32200</v>
+        <v>30100</v>
       </c>
       <c r="I23" s="3">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="J23" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="K23" s="3">
         <v>-2800</v>
@@ -1501,22 +1501,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11500</v>
+        <v>10800</v>
       </c>
       <c r="E24" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="F24" s="3">
-        <v>25200</v>
+        <v>23600</v>
       </c>
       <c r="G24" s="3">
-        <v>12800</v>
+        <v>11900</v>
       </c>
       <c r="H24" s="3">
-        <v>10100</v>
+        <v>9400</v>
       </c>
       <c r="I24" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="J24" s="3">
         <v>-200</v>
@@ -1607,25 +1607,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>32900</v>
+        <v>30800</v>
       </c>
       <c r="E26" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="F26" s="3">
-        <v>63000</v>
+        <v>59000</v>
       </c>
       <c r="G26" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="H26" s="3">
-        <v>22100</v>
+        <v>20700</v>
       </c>
       <c r="I26" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="J26" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="K26" s="3">
         <v>-3400</v>
@@ -1660,25 +1660,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>32900</v>
+        <v>30800</v>
       </c>
       <c r="E27" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="F27" s="3">
-        <v>63000</v>
+        <v>59000</v>
       </c>
       <c r="G27" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="H27" s="3">
-        <v>22100</v>
+        <v>20700</v>
       </c>
       <c r="I27" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="J27" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="K27" s="3">
         <v>-3400</v>
@@ -1925,16 +1925,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5600</v>
+        <v>-5200</v>
       </c>
       <c r="E32" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="F32" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="G32" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1978,25 +1978,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>32900</v>
+        <v>30800</v>
       </c>
       <c r="E33" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="F33" s="3">
-        <v>63000</v>
+        <v>59000</v>
       </c>
       <c r="G33" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="H33" s="3">
-        <v>22100</v>
+        <v>20700</v>
       </c>
       <c r="I33" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="J33" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="K33" s="3">
         <v>-3400</v>
@@ -2084,25 +2084,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>32900</v>
+        <v>30800</v>
       </c>
       <c r="E35" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="F35" s="3">
-        <v>63000</v>
+        <v>59000</v>
       </c>
       <c r="G35" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="H35" s="3">
-        <v>22100</v>
+        <v>20700</v>
       </c>
       <c r="I35" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="J35" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="K35" s="3">
         <v>-3400</v>
@@ -2237,25 +2237,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>148700</v>
+        <v>139100</v>
       </c>
       <c r="E41" s="3">
-        <v>144700</v>
+        <v>135400</v>
       </c>
       <c r="F41" s="3">
-        <v>144000</v>
+        <v>134700</v>
       </c>
       <c r="G41" s="3">
-        <v>113900</v>
+        <v>106500</v>
       </c>
       <c r="H41" s="3">
-        <v>36100</v>
+        <v>33800</v>
       </c>
       <c r="I41" s="3">
-        <v>18600</v>
+        <v>17400</v>
       </c>
       <c r="J41" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="K41" s="3">
         <v>18700</v>
@@ -2343,25 +2343,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="E43" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="F43" s="3">
-        <v>11900</v>
+        <v>11100</v>
       </c>
       <c r="G43" s="3">
-        <v>10000</v>
+        <v>9400</v>
       </c>
       <c r="H43" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="I43" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="J43" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="K43" s="3">
         <v>5600</v>
@@ -2396,25 +2396,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27900</v>
+        <v>26100</v>
       </c>
       <c r="E44" s="3">
-        <v>22600</v>
+        <v>21100</v>
       </c>
       <c r="F44" s="3">
-        <v>21400</v>
+        <v>20000</v>
       </c>
       <c r="G44" s="3">
-        <v>21500</v>
+        <v>20100</v>
       </c>
       <c r="H44" s="3">
-        <v>20300</v>
+        <v>19000</v>
       </c>
       <c r="I44" s="3">
-        <v>20200</v>
+        <v>18900</v>
       </c>
       <c r="J44" s="3">
-        <v>18600</v>
+        <v>17400</v>
       </c>
       <c r="K44" s="3">
         <v>14400</v>
@@ -2502,25 +2502,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>187300</v>
+        <v>175200</v>
       </c>
       <c r="E46" s="3">
-        <v>177400</v>
+        <v>166000</v>
       </c>
       <c r="F46" s="3">
-        <v>177300</v>
+        <v>165900</v>
       </c>
       <c r="G46" s="3">
-        <v>145400</v>
+        <v>136000</v>
       </c>
       <c r="H46" s="3">
-        <v>64600</v>
+        <v>60400</v>
       </c>
       <c r="I46" s="3">
-        <v>43600</v>
+        <v>40800</v>
       </c>
       <c r="J46" s="3">
-        <v>39200</v>
+        <v>36700</v>
       </c>
       <c r="K46" s="3">
         <v>38800</v>
@@ -2555,25 +2555,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>54200</v>
+        <v>50800</v>
       </c>
       <c r="E47" s="3">
-        <v>54400</v>
+        <v>50900</v>
       </c>
       <c r="F47" s="3">
-        <v>60400</v>
+        <v>56500</v>
       </c>
       <c r="G47" s="3">
-        <v>56800</v>
+        <v>53200</v>
       </c>
       <c r="H47" s="3">
-        <v>42900</v>
+        <v>40100</v>
       </c>
       <c r="I47" s="3">
-        <v>41100</v>
+        <v>38400</v>
       </c>
       <c r="J47" s="3">
-        <v>43400</v>
+        <v>40600</v>
       </c>
       <c r="K47" s="3">
         <v>16900</v>
@@ -2608,25 +2608,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>189500</v>
+        <v>177300</v>
       </c>
       <c r="E48" s="3">
-        <v>186500</v>
+        <v>174500</v>
       </c>
       <c r="F48" s="3">
-        <v>179100</v>
+        <v>167500</v>
       </c>
       <c r="G48" s="3">
-        <v>174000</v>
+        <v>162800</v>
       </c>
       <c r="H48" s="3">
-        <v>181800</v>
+        <v>170100</v>
       </c>
       <c r="I48" s="3">
-        <v>184300</v>
+        <v>172400</v>
       </c>
       <c r="J48" s="3">
-        <v>194400</v>
+        <v>181900</v>
       </c>
       <c r="K48" s="3">
         <v>90000</v>
@@ -2820,13 +2820,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E52" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
@@ -2835,7 +2835,7 @@
         <v>600</v>
       </c>
       <c r="I52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
@@ -2926,25 +2926,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>435400</v>
+        <v>407300</v>
       </c>
       <c r="E54" s="3">
-        <v>421400</v>
+        <v>394300</v>
       </c>
       <c r="F54" s="3">
-        <v>417400</v>
+        <v>390500</v>
       </c>
       <c r="G54" s="3">
-        <v>376800</v>
+        <v>352500</v>
       </c>
       <c r="H54" s="3">
-        <v>289800</v>
+        <v>271100</v>
       </c>
       <c r="I54" s="3">
-        <v>269500</v>
+        <v>252200</v>
       </c>
       <c r="J54" s="3">
-        <v>277400</v>
+        <v>259500</v>
       </c>
       <c r="K54" s="3">
         <v>146200</v>
@@ -3021,25 +3021,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33300</v>
+        <v>31100</v>
       </c>
       <c r="E57" s="3">
-        <v>33800</v>
+        <v>31700</v>
       </c>
       <c r="F57" s="3">
-        <v>28900</v>
+        <v>27100</v>
       </c>
       <c r="G57" s="3">
-        <v>31800</v>
+        <v>29700</v>
       </c>
       <c r="H57" s="3">
-        <v>25300</v>
+        <v>23600</v>
       </c>
       <c r="I57" s="3">
-        <v>27800</v>
+        <v>26000</v>
       </c>
       <c r="J57" s="3">
-        <v>26800</v>
+        <v>25100</v>
       </c>
       <c r="K57" s="3">
         <v>18800</v>
@@ -3074,16 +3074,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -3092,7 +3092,7 @@
         <v>700</v>
       </c>
       <c r="J58" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -3127,25 +3127,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="G59" s="3">
-        <v>17100</v>
+        <v>16000</v>
       </c>
       <c r="H59" s="3">
-        <v>4900</v>
+        <v>4500</v>
       </c>
       <c r="I59" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="J59" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K59" s="3">
         <v>1100</v>
@@ -3180,25 +3180,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F60" s="3">
         <v>36800</v>
       </c>
-      <c r="E60" s="3">
-        <v>35300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>39300</v>
-      </c>
       <c r="G60" s="3">
-        <v>49500</v>
+        <v>46300</v>
       </c>
       <c r="H60" s="3">
-        <v>30700</v>
+        <v>28700</v>
       </c>
       <c r="I60" s="3">
-        <v>30400</v>
+        <v>28500</v>
       </c>
       <c r="J60" s="3">
-        <v>29100</v>
+        <v>27200</v>
       </c>
       <c r="K60" s="3">
         <v>19900</v>
@@ -3233,25 +3233,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E61" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F61" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G61" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="H61" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>11500</v>
+        <v>10800</v>
       </c>
       <c r="K61" s="3">
         <v>900</v>
@@ -3286,25 +3286,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>66500</v>
+        <v>62200</v>
       </c>
       <c r="E62" s="3">
-        <v>63600</v>
+        <v>59500</v>
       </c>
       <c r="F62" s="3">
-        <v>62000</v>
+        <v>58000</v>
       </c>
       <c r="G62" s="3">
-        <v>56600</v>
+        <v>52900</v>
       </c>
       <c r="H62" s="3">
-        <v>64700</v>
+        <v>60600</v>
       </c>
       <c r="I62" s="3">
-        <v>60600</v>
+        <v>56700</v>
       </c>
       <c r="J62" s="3">
-        <v>66500</v>
+        <v>62200</v>
       </c>
       <c r="K62" s="3">
         <v>46900</v>
@@ -3498,25 +3498,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>105300</v>
+        <v>98500</v>
       </c>
       <c r="E66" s="3">
-        <v>101400</v>
+        <v>94900</v>
       </c>
       <c r="F66" s="3">
-        <v>103600</v>
+        <v>96900</v>
       </c>
       <c r="G66" s="3">
-        <v>108500</v>
+        <v>101500</v>
       </c>
       <c r="H66" s="3">
-        <v>98300</v>
+        <v>92000</v>
       </c>
       <c r="I66" s="3">
-        <v>91000</v>
+        <v>85200</v>
       </c>
       <c r="J66" s="3">
-        <v>107000</v>
+        <v>100100</v>
       </c>
       <c r="K66" s="3">
         <v>67700</v>
@@ -3790,19 +3790,19 @@
         <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>313800</v>
+        <v>293600</v>
       </c>
       <c r="G72" s="3">
-        <v>268200</v>
+        <v>250900</v>
       </c>
       <c r="H72" s="3">
-        <v>191500</v>
+        <v>179200</v>
       </c>
       <c r="I72" s="3">
-        <v>178500</v>
+        <v>167000</v>
       </c>
       <c r="J72" s="3">
-        <v>170400</v>
+        <v>159400</v>
       </c>
       <c r="K72" s="3">
         <v>78500</v>
@@ -3996,25 +3996,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>330100</v>
+        <v>308800</v>
       </c>
       <c r="E76" s="3">
-        <v>320000</v>
+        <v>299400</v>
       </c>
       <c r="F76" s="3">
-        <v>313800</v>
+        <v>293600</v>
       </c>
       <c r="G76" s="3">
-        <v>268200</v>
+        <v>250900</v>
       </c>
       <c r="H76" s="3">
-        <v>191500</v>
+        <v>179200</v>
       </c>
       <c r="I76" s="3">
-        <v>178500</v>
+        <v>167000</v>
       </c>
       <c r="J76" s="3">
-        <v>170400</v>
+        <v>159400</v>
       </c>
       <c r="K76" s="3">
         <v>78500</v>
@@ -4160,25 +4160,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>32900</v>
+        <v>30800</v>
       </c>
       <c r="E81" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="F81" s="3">
-        <v>63000</v>
+        <v>59000</v>
       </c>
       <c r="G81" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="H81" s="3">
-        <v>22100</v>
+        <v>20700</v>
       </c>
       <c r="I81" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="J81" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="K81" s="3">
         <v>-3400</v>
@@ -4552,22 +4552,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>40200</v>
+        <v>37600</v>
       </c>
       <c r="E89" s="3">
-        <v>39200</v>
+        <v>36700</v>
       </c>
       <c r="F89" s="3">
-        <v>65200</v>
+        <v>61000</v>
       </c>
       <c r="G89" s="3">
-        <v>44900</v>
+        <v>42000</v>
       </c>
       <c r="H89" s="3">
-        <v>30100</v>
+        <v>28100</v>
       </c>
       <c r="I89" s="3">
-        <v>19500</v>
+        <v>18200</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
@@ -4626,25 +4626,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12100</v>
+        <v>-11300</v>
       </c>
       <c r="E91" s="3">
-        <v>-12900</v>
+        <v>-12000</v>
       </c>
       <c r="F91" s="3">
-        <v>-13400</v>
+        <v>-12600</v>
       </c>
       <c r="G91" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="I91" s="3">
-        <v>-6700</v>
+        <v>-6200</v>
       </c>
       <c r="J91" s="3">
-        <v>-16400</v>
+        <v>-15300</v>
       </c>
       <c r="K91" s="3">
         <v>-2400</v>
@@ -4785,25 +4785,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13200</v>
+        <v>-12300</v>
       </c>
       <c r="E94" s="3">
-        <v>-14900</v>
+        <v>-13900</v>
       </c>
       <c r="F94" s="3">
-        <v>-14800</v>
+        <v>-13800</v>
       </c>
       <c r="G94" s="3">
-        <v>-10400</v>
+        <v>-9700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="I94" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="J94" s="3">
-        <v>-17000</v>
+        <v>-15900</v>
       </c>
       <c r="K94" s="3">
         <v>-2900</v>
@@ -4859,19 +4859,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-22900</v>
+        <v>-21500</v>
       </c>
       <c r="E96" s="3">
-        <v>-22700</v>
+        <v>-21200</v>
       </c>
       <c r="F96" s="3">
-        <v>-19900</v>
+        <v>-18600</v>
       </c>
       <c r="G96" s="3">
-        <v>-28400</v>
+        <v>-26600</v>
       </c>
       <c r="H96" s="3">
-        <v>-9100</v>
+        <v>-8500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5071,25 +5071,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-23500</v>
+        <v>-22000</v>
       </c>
       <c r="E100" s="3">
-        <v>-23100</v>
+        <v>-21600</v>
       </c>
       <c r="F100" s="3">
-        <v>-20300</v>
+        <v>-19000</v>
       </c>
       <c r="G100" s="3">
-        <v>43300</v>
+        <v>40500</v>
       </c>
       <c r="H100" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="I100" s="3">
-        <v>-11700</v>
+        <v>-10900</v>
       </c>
       <c r="J100" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="K100" s="3">
         <v>-1400</v>
@@ -5177,25 +5177,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E102" s="3">
         <v>700</v>
       </c>
       <c r="F102" s="3">
-        <v>30200</v>
+        <v>28200</v>
       </c>
       <c r="G102" s="3">
-        <v>77800</v>
+        <v>72800</v>
       </c>
       <c r="H102" s="3">
-        <v>17500</v>
+        <v>16400</v>
       </c>
       <c r="I102" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="J102" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="K102" s="3">
         <v>500</v>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>155200</v>
+        <v>149100</v>
       </c>
       <c r="E8" s="3">
-        <v>142300</v>
+        <v>136700</v>
       </c>
       <c r="F8" s="3">
-        <v>184900</v>
+        <v>177700</v>
       </c>
       <c r="G8" s="3">
-        <v>128800</v>
+        <v>123700</v>
       </c>
       <c r="H8" s="3">
-        <v>131100</v>
+        <v>126000</v>
       </c>
       <c r="I8" s="3">
-        <v>93800</v>
+        <v>90100</v>
       </c>
       <c r="J8" s="3">
-        <v>77800</v>
+        <v>74700</v>
       </c>
       <c r="K8" s="3">
         <v>76500</v>
@@ -805,25 +805,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>113700</v>
+        <v>109300</v>
       </c>
       <c r="E9" s="3">
-        <v>104700</v>
+        <v>100600</v>
       </c>
       <c r="F9" s="3">
-        <v>105700</v>
+        <v>101500</v>
       </c>
       <c r="G9" s="3">
-        <v>86600</v>
+        <v>83200</v>
       </c>
       <c r="H9" s="3">
-        <v>95900</v>
+        <v>92100</v>
       </c>
       <c r="I9" s="3">
-        <v>81100</v>
+        <v>77900</v>
       </c>
       <c r="J9" s="3">
-        <v>77600</v>
+        <v>74500</v>
       </c>
       <c r="K9" s="3">
         <v>74800</v>
@@ -858,22 +858,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>41500</v>
+        <v>39800</v>
       </c>
       <c r="E10" s="3">
-        <v>37600</v>
+        <v>36100</v>
       </c>
       <c r="F10" s="3">
-        <v>79200</v>
+        <v>76100</v>
       </c>
       <c r="G10" s="3">
-        <v>42200</v>
+        <v>40600</v>
       </c>
       <c r="H10" s="3">
-        <v>35200</v>
+        <v>33800</v>
       </c>
       <c r="I10" s="3">
-        <v>12700</v>
+        <v>12200</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -1162,25 +1162,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>118800</v>
+        <v>114200</v>
       </c>
       <c r="E17" s="3">
-        <v>107500</v>
+        <v>103300</v>
       </c>
       <c r="F17" s="3">
-        <v>106900</v>
+        <v>102700</v>
       </c>
       <c r="G17" s="3">
-        <v>100500</v>
+        <v>96500</v>
       </c>
       <c r="H17" s="3">
-        <v>101200</v>
+        <v>97200</v>
       </c>
       <c r="I17" s="3">
-        <v>83500</v>
+        <v>80200</v>
       </c>
       <c r="J17" s="3">
-        <v>80300</v>
+        <v>77100</v>
       </c>
       <c r="K17" s="3">
         <v>78500</v>
@@ -1215,25 +1215,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>36400</v>
+        <v>34900</v>
       </c>
       <c r="E18" s="3">
-        <v>34800</v>
+        <v>33500</v>
       </c>
       <c r="F18" s="3">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="G18" s="3">
-        <v>28300</v>
+        <v>27200</v>
       </c>
       <c r="H18" s="3">
-        <v>30000</v>
+        <v>28800</v>
       </c>
       <c r="I18" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="J18" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="K18" s="3">
         <v>-2000</v>
@@ -1289,16 +1289,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="E20" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="F20" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="G20" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1307,7 +1307,7 @@
         <v>-700</v>
       </c>
       <c r="J20" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K20" s="3">
         <v>-800</v>
@@ -1342,22 +1342,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>50200</v>
+        <v>48200</v>
       </c>
       <c r="E21" s="3">
-        <v>39300</v>
+        <v>37700</v>
       </c>
       <c r="F21" s="3">
-        <v>90500</v>
+        <v>86900</v>
       </c>
       <c r="G21" s="3">
-        <v>31600</v>
+        <v>30400</v>
       </c>
       <c r="H21" s="3">
-        <v>38000</v>
+        <v>36500</v>
       </c>
       <c r="I21" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="J21" s="3">
         <v>1200</v>
@@ -1448,25 +1448,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>41600</v>
+        <v>39900</v>
       </c>
       <c r="E23" s="3">
-        <v>39400</v>
+        <v>37900</v>
       </c>
       <c r="F23" s="3">
-        <v>82500</v>
+        <v>79300</v>
       </c>
       <c r="G23" s="3">
-        <v>30700</v>
+        <v>29500</v>
       </c>
       <c r="H23" s="3">
-        <v>30100</v>
+        <v>28900</v>
       </c>
       <c r="I23" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="J23" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="K23" s="3">
         <v>-2800</v>
@@ -1501,19 +1501,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="E24" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H24" s="3">
         <v>9000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>23600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>11900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>9400</v>
       </c>
       <c r="I24" s="3">
         <v>1800</v>
@@ -1607,25 +1607,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>30800</v>
+        <v>29600</v>
       </c>
       <c r="E26" s="3">
-        <v>30500</v>
+        <v>29300</v>
       </c>
       <c r="F26" s="3">
-        <v>59000</v>
+        <v>56700</v>
       </c>
       <c r="G26" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="H26" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="I26" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="J26" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="K26" s="3">
         <v>-3400</v>
@@ -1660,25 +1660,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>30800</v>
+        <v>29600</v>
       </c>
       <c r="E27" s="3">
-        <v>30500</v>
+        <v>29300</v>
       </c>
       <c r="F27" s="3">
-        <v>59000</v>
+        <v>56700</v>
       </c>
       <c r="G27" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="H27" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="I27" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="J27" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="K27" s="3">
         <v>-3400</v>
@@ -1925,16 +1925,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="E32" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="F32" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="G32" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1943,7 +1943,7 @@
         <v>700</v>
       </c>
       <c r="J32" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K32" s="3">
         <v>800</v>
@@ -1978,25 +1978,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>30800</v>
+        <v>29600</v>
       </c>
       <c r="E33" s="3">
-        <v>30500</v>
+        <v>29300</v>
       </c>
       <c r="F33" s="3">
-        <v>59000</v>
+        <v>56700</v>
       </c>
       <c r="G33" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="H33" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="I33" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="J33" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="K33" s="3">
         <v>-3400</v>
@@ -2084,25 +2084,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>30800</v>
+        <v>29600</v>
       </c>
       <c r="E35" s="3">
-        <v>30500</v>
+        <v>29300</v>
       </c>
       <c r="F35" s="3">
-        <v>59000</v>
+        <v>56700</v>
       </c>
       <c r="G35" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="H35" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="I35" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="J35" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="K35" s="3">
         <v>-3400</v>
@@ -2237,25 +2237,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>139100</v>
+        <v>133600</v>
       </c>
       <c r="E41" s="3">
-        <v>135400</v>
+        <v>130100</v>
       </c>
       <c r="F41" s="3">
-        <v>134700</v>
+        <v>129400</v>
       </c>
       <c r="G41" s="3">
-        <v>106500</v>
+        <v>102300</v>
       </c>
       <c r="H41" s="3">
-        <v>33800</v>
+        <v>32400</v>
       </c>
       <c r="I41" s="3">
-        <v>17400</v>
+        <v>16700</v>
       </c>
       <c r="J41" s="3">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="K41" s="3">
         <v>18700</v>
@@ -2343,25 +2343,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="E43" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="F43" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="G43" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="H43" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="I43" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="J43" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="K43" s="3">
         <v>5600</v>
@@ -2396,25 +2396,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26100</v>
+        <v>25100</v>
       </c>
       <c r="E44" s="3">
-        <v>21100</v>
+        <v>20300</v>
       </c>
       <c r="F44" s="3">
-        <v>20000</v>
+        <v>19300</v>
       </c>
       <c r="G44" s="3">
-        <v>20100</v>
+        <v>19300</v>
       </c>
       <c r="H44" s="3">
-        <v>19000</v>
+        <v>18300</v>
       </c>
       <c r="I44" s="3">
-        <v>18900</v>
+        <v>18200</v>
       </c>
       <c r="J44" s="3">
-        <v>17400</v>
+        <v>16700</v>
       </c>
       <c r="K44" s="3">
         <v>14400</v>
@@ -2502,25 +2502,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>175200</v>
+        <v>168400</v>
       </c>
       <c r="E46" s="3">
-        <v>166000</v>
+        <v>159500</v>
       </c>
       <c r="F46" s="3">
-        <v>165900</v>
+        <v>159400</v>
       </c>
       <c r="G46" s="3">
-        <v>136000</v>
+        <v>130700</v>
       </c>
       <c r="H46" s="3">
-        <v>60400</v>
+        <v>58000</v>
       </c>
       <c r="I46" s="3">
-        <v>40800</v>
+        <v>39100</v>
       </c>
       <c r="J46" s="3">
-        <v>36700</v>
+        <v>35300</v>
       </c>
       <c r="K46" s="3">
         <v>38800</v>
@@ -2555,25 +2555,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>50800</v>
+        <v>48800</v>
       </c>
       <c r="E47" s="3">
-        <v>50900</v>
+        <v>48900</v>
       </c>
       <c r="F47" s="3">
-        <v>56500</v>
+        <v>54300</v>
       </c>
       <c r="G47" s="3">
-        <v>53200</v>
+        <v>51100</v>
       </c>
       <c r="H47" s="3">
-        <v>40100</v>
+        <v>38500</v>
       </c>
       <c r="I47" s="3">
-        <v>38400</v>
+        <v>36900</v>
       </c>
       <c r="J47" s="3">
-        <v>40600</v>
+        <v>39000</v>
       </c>
       <c r="K47" s="3">
         <v>16900</v>
@@ -2608,25 +2608,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>177300</v>
+        <v>170300</v>
       </c>
       <c r="E48" s="3">
-        <v>174500</v>
+        <v>167700</v>
       </c>
       <c r="F48" s="3">
-        <v>167500</v>
+        <v>160900</v>
       </c>
       <c r="G48" s="3">
-        <v>162800</v>
+        <v>156400</v>
       </c>
       <c r="H48" s="3">
-        <v>170100</v>
+        <v>163400</v>
       </c>
       <c r="I48" s="3">
-        <v>172400</v>
+        <v>165600</v>
       </c>
       <c r="J48" s="3">
-        <v>181900</v>
+        <v>174700</v>
       </c>
       <c r="K48" s="3">
         <v>90000</v>
@@ -2820,10 +2820,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E52" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
@@ -2838,7 +2838,7 @@
         <v>600</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
@@ -2926,25 +2926,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>407300</v>
+        <v>391300</v>
       </c>
       <c r="E54" s="3">
-        <v>394300</v>
+        <v>378800</v>
       </c>
       <c r="F54" s="3">
-        <v>390500</v>
+        <v>375100</v>
       </c>
       <c r="G54" s="3">
-        <v>352500</v>
+        <v>338600</v>
       </c>
       <c r="H54" s="3">
-        <v>271100</v>
+        <v>260500</v>
       </c>
       <c r="I54" s="3">
-        <v>252200</v>
+        <v>242300</v>
       </c>
       <c r="J54" s="3">
-        <v>259500</v>
+        <v>249300</v>
       </c>
       <c r="K54" s="3">
         <v>146200</v>
@@ -3021,25 +3021,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31100</v>
+        <v>29900</v>
       </c>
       <c r="E57" s="3">
-        <v>31700</v>
+        <v>30400</v>
       </c>
       <c r="F57" s="3">
-        <v>27100</v>
+        <v>26000</v>
       </c>
       <c r="G57" s="3">
-        <v>29700</v>
+        <v>28600</v>
       </c>
       <c r="H57" s="3">
-        <v>23600</v>
+        <v>22700</v>
       </c>
       <c r="I57" s="3">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="J57" s="3">
-        <v>25100</v>
+        <v>24100</v>
       </c>
       <c r="K57" s="3">
         <v>18800</v>
@@ -3086,7 +3086,7 @@
         <v>600</v>
       </c>
       <c r="H58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
@@ -3133,19 +3133,19 @@
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="G59" s="3">
-        <v>16000</v>
+        <v>15300</v>
       </c>
       <c r="H59" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I59" s="3">
         <v>1700</v>
       </c>
       <c r="J59" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K59" s="3">
         <v>1100</v>
@@ -3180,25 +3180,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34400</v>
+        <v>33000</v>
       </c>
       <c r="E60" s="3">
-        <v>33000</v>
+        <v>31700</v>
       </c>
       <c r="F60" s="3">
-        <v>36800</v>
+        <v>35400</v>
       </c>
       <c r="G60" s="3">
-        <v>46300</v>
+        <v>44500</v>
       </c>
       <c r="H60" s="3">
-        <v>28700</v>
+        <v>27600</v>
       </c>
       <c r="I60" s="3">
-        <v>28500</v>
+        <v>27300</v>
       </c>
       <c r="J60" s="3">
-        <v>27200</v>
+        <v>26100</v>
       </c>
       <c r="K60" s="3">
         <v>19900</v>
@@ -3233,25 +3233,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E61" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F61" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G61" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H61" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="K61" s="3">
         <v>900</v>
@@ -3286,25 +3286,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>62200</v>
+        <v>59800</v>
       </c>
       <c r="E62" s="3">
-        <v>59500</v>
+        <v>57200</v>
       </c>
       <c r="F62" s="3">
-        <v>58000</v>
+        <v>55700</v>
       </c>
       <c r="G62" s="3">
-        <v>52900</v>
+        <v>50800</v>
       </c>
       <c r="H62" s="3">
-        <v>60600</v>
+        <v>58200</v>
       </c>
       <c r="I62" s="3">
-        <v>56700</v>
+        <v>54500</v>
       </c>
       <c r="J62" s="3">
-        <v>62200</v>
+        <v>59700</v>
       </c>
       <c r="K62" s="3">
         <v>46900</v>
@@ -3498,25 +3498,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>98500</v>
+        <v>94600</v>
       </c>
       <c r="E66" s="3">
-        <v>94900</v>
+        <v>91200</v>
       </c>
       <c r="F66" s="3">
-        <v>96900</v>
+        <v>93100</v>
       </c>
       <c r="G66" s="3">
-        <v>101500</v>
+        <v>97600</v>
       </c>
       <c r="H66" s="3">
-        <v>92000</v>
+        <v>88400</v>
       </c>
       <c r="I66" s="3">
-        <v>85200</v>
+        <v>81800</v>
       </c>
       <c r="J66" s="3">
-        <v>100100</v>
+        <v>96200</v>
       </c>
       <c r="K66" s="3">
         <v>67700</v>
@@ -3790,19 +3790,19 @@
         <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>293600</v>
+        <v>282100</v>
       </c>
       <c r="G72" s="3">
-        <v>250900</v>
+        <v>241100</v>
       </c>
       <c r="H72" s="3">
-        <v>179200</v>
+        <v>172100</v>
       </c>
       <c r="I72" s="3">
-        <v>167000</v>
+        <v>160400</v>
       </c>
       <c r="J72" s="3">
-        <v>159400</v>
+        <v>153100</v>
       </c>
       <c r="K72" s="3">
         <v>78500</v>
@@ -3996,25 +3996,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>308800</v>
+        <v>296700</v>
       </c>
       <c r="E76" s="3">
-        <v>299400</v>
+        <v>287600</v>
       </c>
       <c r="F76" s="3">
-        <v>293600</v>
+        <v>282100</v>
       </c>
       <c r="G76" s="3">
-        <v>250900</v>
+        <v>241100</v>
       </c>
       <c r="H76" s="3">
-        <v>179200</v>
+        <v>172100</v>
       </c>
       <c r="I76" s="3">
-        <v>167000</v>
+        <v>160400</v>
       </c>
       <c r="J76" s="3">
-        <v>159400</v>
+        <v>153100</v>
       </c>
       <c r="K76" s="3">
         <v>78500</v>
@@ -4160,25 +4160,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>30800</v>
+        <v>29600</v>
       </c>
       <c r="E81" s="3">
-        <v>30500</v>
+        <v>29300</v>
       </c>
       <c r="F81" s="3">
-        <v>59000</v>
+        <v>56700</v>
       </c>
       <c r="G81" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="H81" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="I81" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="J81" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="K81" s="3">
         <v>-3400</v>
@@ -4552,22 +4552,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>37600</v>
+        <v>36100</v>
       </c>
       <c r="E89" s="3">
-        <v>36700</v>
+        <v>35300</v>
       </c>
       <c r="F89" s="3">
-        <v>61000</v>
+        <v>58600</v>
       </c>
       <c r="G89" s="3">
-        <v>42000</v>
+        <v>40300</v>
       </c>
       <c r="H89" s="3">
-        <v>28100</v>
+        <v>27000</v>
       </c>
       <c r="I89" s="3">
-        <v>18200</v>
+        <v>17500</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
@@ -4626,25 +4626,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="E91" s="3">
-        <v>-12000</v>
+        <v>-11600</v>
       </c>
       <c r="F91" s="3">
-        <v>-12600</v>
+        <v>-12100</v>
       </c>
       <c r="G91" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="I91" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="J91" s="3">
-        <v>-15300</v>
+        <v>-14700</v>
       </c>
       <c r="K91" s="3">
         <v>-2400</v>
@@ -4785,25 +4785,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12300</v>
+        <v>-11800</v>
       </c>
       <c r="E94" s="3">
-        <v>-13900</v>
+        <v>-13400</v>
       </c>
       <c r="F94" s="3">
-        <v>-13800</v>
+        <v>-13300</v>
       </c>
       <c r="G94" s="3">
-        <v>-9700</v>
+        <v>-9300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="J94" s="3">
-        <v>-15900</v>
+        <v>-15300</v>
       </c>
       <c r="K94" s="3">
         <v>-2900</v>
@@ -4859,19 +4859,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-21500</v>
+        <v>-20600</v>
       </c>
       <c r="E96" s="3">
-        <v>-21200</v>
+        <v>-20400</v>
       </c>
       <c r="F96" s="3">
-        <v>-18600</v>
+        <v>-17800</v>
       </c>
       <c r="G96" s="3">
-        <v>-26600</v>
+        <v>-25500</v>
       </c>
       <c r="H96" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5071,25 +5071,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22000</v>
+        <v>-21100</v>
       </c>
       <c r="E100" s="3">
-        <v>-21600</v>
+        <v>-20800</v>
       </c>
       <c r="F100" s="3">
-        <v>-19000</v>
+        <v>-18200</v>
       </c>
       <c r="G100" s="3">
-        <v>40500</v>
+        <v>38900</v>
       </c>
       <c r="H100" s="3">
-        <v>-8900</v>
+        <v>-8500</v>
       </c>
       <c r="I100" s="3">
-        <v>-10900</v>
+        <v>-10500</v>
       </c>
       <c r="J100" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="K100" s="3">
         <v>-1400</v>
@@ -5177,25 +5177,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E102" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F102" s="3">
-        <v>28200</v>
+        <v>27100</v>
       </c>
       <c r="G102" s="3">
-        <v>72800</v>
+        <v>69900</v>
       </c>
       <c r="H102" s="3">
-        <v>16400</v>
+        <v>15700</v>
       </c>
       <c r="I102" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="J102" s="3">
-        <v>-5800</v>
+        <v>-5500</v>
       </c>
       <c r="K102" s="3">
         <v>500</v>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>DRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42094</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>149100</v>
+        <v>150800</v>
       </c>
       <c r="E8" s="3">
-        <v>136700</v>
+        <v>143800</v>
       </c>
       <c r="F8" s="3">
-        <v>177700</v>
+        <v>131900</v>
       </c>
       <c r="G8" s="3">
-        <v>123700</v>
+        <v>171400</v>
       </c>
       <c r="H8" s="3">
-        <v>126000</v>
+        <v>119400</v>
       </c>
       <c r="I8" s="3">
-        <v>90100</v>
+        <v>121600</v>
       </c>
       <c r="J8" s="3">
+        <v>86900</v>
+      </c>
+      <c r="K8" s="3">
         <v>74700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>76500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>82500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>75500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>70500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>87400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>77500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>37500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>109300</v>
+        <v>110000</v>
       </c>
       <c r="E9" s="3">
-        <v>100600</v>
+        <v>105400</v>
       </c>
       <c r="F9" s="3">
-        <v>101500</v>
+        <v>97100</v>
       </c>
       <c r="G9" s="3">
-        <v>83200</v>
+        <v>98000</v>
       </c>
       <c r="H9" s="3">
-        <v>92100</v>
+        <v>80200</v>
       </c>
       <c r="I9" s="3">
-        <v>77900</v>
+        <v>88900</v>
       </c>
       <c r="J9" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K9" s="3">
         <v>74500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>74800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>75000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>75300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>67300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>78500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>73100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>34600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>34800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>39800</v>
+        <v>40900</v>
       </c>
       <c r="E10" s="3">
-        <v>36100</v>
+        <v>38400</v>
       </c>
       <c r="F10" s="3">
-        <v>76100</v>
+        <v>34800</v>
       </c>
       <c r="G10" s="3">
-        <v>40600</v>
+        <v>73400</v>
       </c>
       <c r="H10" s="3">
-        <v>33800</v>
+        <v>39100</v>
       </c>
       <c r="I10" s="3">
-        <v>12200</v>
+        <v>32700</v>
       </c>
       <c r="J10" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,8 +1049,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,35 +1078,38 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1161,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>114200</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>103300</v>
+        <v>110100</v>
       </c>
       <c r="F17" s="3">
-        <v>102700</v>
+        <v>99600</v>
       </c>
       <c r="G17" s="3">
-        <v>96500</v>
+        <v>99100</v>
       </c>
       <c r="H17" s="3">
-        <v>97200</v>
+        <v>93100</v>
       </c>
       <c r="I17" s="3">
-        <v>80200</v>
+        <v>93800</v>
       </c>
       <c r="J17" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K17" s="3">
         <v>77100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>78500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>77200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>81700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>75100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>35900</v>
       </c>
       <c r="R17" s="3">
         <v>35900</v>
       </c>
       <c r="S17" s="3">
+        <v>35900</v>
+      </c>
+      <c r="T17" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>34900</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>33500</v>
+        <v>33700</v>
       </c>
       <c r="F18" s="3">
-        <v>75000</v>
+        <v>32300</v>
       </c>
       <c r="G18" s="3">
-        <v>27200</v>
+        <v>72300</v>
       </c>
       <c r="H18" s="3">
-        <v>28800</v>
+        <v>26200</v>
       </c>
       <c r="I18" s="3">
-        <v>9900</v>
+        <v>27800</v>
       </c>
       <c r="J18" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,114 +1316,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>5000</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="F20" s="3">
         <v>4300</v>
       </c>
       <c r="G20" s="3">
-        <v>2300</v>
+        <v>4200</v>
       </c>
       <c r="H20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>-700</v>
-      </c>
       <c r="J20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-200</v>
       </c>
       <c r="O20" s="3">
         <v>-200</v>
       </c>
       <c r="P20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>48200</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>37700</v>
+        <v>46500</v>
       </c>
       <c r="F21" s="3">
-        <v>86900</v>
+        <v>36400</v>
       </c>
       <c r="G21" s="3">
-        <v>30400</v>
+        <v>83800</v>
       </c>
       <c r="H21" s="3">
-        <v>36500</v>
+        <v>29300</v>
       </c>
       <c r="I21" s="3">
-        <v>11000</v>
+        <v>35300</v>
       </c>
       <c r="J21" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1442,114 +1482,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>39900</v>
+        <v>45400</v>
       </c>
       <c r="E23" s="3">
-        <v>37900</v>
+        <v>38500</v>
       </c>
       <c r="F23" s="3">
-        <v>79300</v>
+        <v>36500</v>
       </c>
       <c r="G23" s="3">
-        <v>29500</v>
+        <v>76500</v>
       </c>
       <c r="H23" s="3">
-        <v>28900</v>
+        <v>28500</v>
       </c>
       <c r="I23" s="3">
-        <v>9200</v>
+        <v>27900</v>
       </c>
       <c r="J23" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>5500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10300</v>
+        <v>9300</v>
       </c>
       <c r="E24" s="3">
-        <v>8600</v>
+        <v>10000</v>
       </c>
       <c r="F24" s="3">
-        <v>22600</v>
+        <v>8300</v>
       </c>
       <c r="G24" s="3">
-        <v>11500</v>
+        <v>21800</v>
       </c>
       <c r="H24" s="3">
-        <v>9000</v>
+        <v>11100</v>
       </c>
       <c r="I24" s="3">
-        <v>1800</v>
+        <v>8700</v>
       </c>
       <c r="J24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>29600</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>29300</v>
+        <v>28500</v>
       </c>
       <c r="F26" s="3">
-        <v>56700</v>
+        <v>28200</v>
       </c>
       <c r="G26" s="3">
-        <v>18000</v>
+        <v>54700</v>
       </c>
       <c r="H26" s="3">
-        <v>19900</v>
+        <v>17400</v>
       </c>
       <c r="I26" s="3">
-        <v>7400</v>
+        <v>19200</v>
       </c>
       <c r="J26" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>29600</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>29300</v>
+        <v>28500</v>
       </c>
       <c r="F27" s="3">
-        <v>56700</v>
+        <v>28200</v>
       </c>
       <c r="G27" s="3">
-        <v>18000</v>
+        <v>54700</v>
       </c>
       <c r="H27" s="3">
-        <v>19900</v>
+        <v>17400</v>
       </c>
       <c r="I27" s="3">
-        <v>7400</v>
+        <v>19200</v>
       </c>
       <c r="J27" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1813,8 +1874,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-5000</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-4400</v>
+        <v>-4800</v>
       </c>
       <c r="F32" s="3">
         <v>-4300</v>
       </c>
       <c r="G32" s="3">
-        <v>-2300</v>
+        <v>-4200</v>
       </c>
       <c r="H32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>700</v>
-      </c>
       <c r="J32" s="3">
+        <v>600</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>200</v>
       </c>
       <c r="O32" s="3">
         <v>200</v>
       </c>
       <c r="P32" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>29600</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>29300</v>
+        <v>28500</v>
       </c>
       <c r="F33" s="3">
-        <v>56700</v>
+        <v>28200</v>
       </c>
       <c r="G33" s="3">
-        <v>18000</v>
+        <v>54700</v>
       </c>
       <c r="H33" s="3">
-        <v>19900</v>
+        <v>17400</v>
       </c>
       <c r="I33" s="3">
-        <v>7400</v>
+        <v>19200</v>
       </c>
       <c r="J33" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>29600</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>29300</v>
+        <v>28500</v>
       </c>
       <c r="F35" s="3">
-        <v>56700</v>
+        <v>28200</v>
       </c>
       <c r="G35" s="3">
-        <v>18000</v>
+        <v>54700</v>
       </c>
       <c r="H35" s="3">
-        <v>19900</v>
+        <v>17400</v>
       </c>
       <c r="I35" s="3">
-        <v>7400</v>
+        <v>19200</v>
       </c>
       <c r="J35" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42094</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,61 +2317,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>133600</v>
+        <v>145400</v>
       </c>
       <c r="E41" s="3">
-        <v>130100</v>
+        <v>128900</v>
       </c>
       <c r="F41" s="3">
-        <v>129400</v>
+        <v>125500</v>
       </c>
       <c r="G41" s="3">
-        <v>102300</v>
+        <v>124900</v>
       </c>
       <c r="H41" s="3">
-        <v>32400</v>
+        <v>98700</v>
       </c>
       <c r="I41" s="3">
-        <v>16700</v>
+        <v>31300</v>
       </c>
       <c r="J41" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K41" s="3">
         <v>12500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2337,114 +2427,123 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="E43" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="F43" s="3">
-        <v>10700</v>
+        <v>8800</v>
       </c>
       <c r="G43" s="3">
-        <v>9000</v>
+        <v>10300</v>
       </c>
       <c r="H43" s="3">
-        <v>7300</v>
+        <v>8700</v>
       </c>
       <c r="I43" s="3">
-        <v>4300</v>
+        <v>7100</v>
       </c>
       <c r="J43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K43" s="3">
         <v>6100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25100</v>
+        <v>22400</v>
       </c>
       <c r="E44" s="3">
-        <v>20300</v>
+        <v>24200</v>
       </c>
       <c r="F44" s="3">
-        <v>19300</v>
+        <v>19600</v>
       </c>
       <c r="G44" s="3">
-        <v>19300</v>
+        <v>18600</v>
       </c>
       <c r="H44" s="3">
-        <v>18300</v>
+        <v>18600</v>
       </c>
       <c r="I44" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="J44" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K44" s="3">
         <v>16700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10800</v>
-      </c>
-      <c r="P44" s="3">
-        <v>11900</v>
       </c>
       <c r="Q44" s="3">
         <v>11900</v>
       </c>
       <c r="R44" s="3">
+        <v>11900</v>
+      </c>
+      <c r="S44" s="3">
         <v>10000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2479,184 +2578,196 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
-      </c>
-      <c r="P45" s="3">
-        <v>700</v>
       </c>
       <c r="Q45" s="3">
         <v>700</v>
       </c>
       <c r="R45" s="3">
+        <v>700</v>
+      </c>
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>168400</v>
+        <v>177100</v>
       </c>
       <c r="E46" s="3">
-        <v>159500</v>
+        <v>162400</v>
       </c>
       <c r="F46" s="3">
-        <v>159400</v>
+        <v>153900</v>
       </c>
       <c r="G46" s="3">
-        <v>130700</v>
+        <v>153800</v>
       </c>
       <c r="H46" s="3">
-        <v>58000</v>
+        <v>126100</v>
       </c>
       <c r="I46" s="3">
-        <v>39100</v>
+        <v>56000</v>
       </c>
       <c r="J46" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K46" s="3">
         <v>35300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>43100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>37700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>48800</v>
+        <v>49600</v>
       </c>
       <c r="E47" s="3">
-        <v>48900</v>
+        <v>47000</v>
       </c>
       <c r="F47" s="3">
-        <v>54300</v>
+        <v>47200</v>
       </c>
       <c r="G47" s="3">
-        <v>51100</v>
+        <v>52400</v>
       </c>
       <c r="H47" s="3">
-        <v>38500</v>
+        <v>49300</v>
       </c>
       <c r="I47" s="3">
-        <v>36900</v>
+        <v>37200</v>
       </c>
       <c r="J47" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K47" s="3">
         <v>39000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>15500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>14200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>14400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>16700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>170300</v>
+        <v>177600</v>
       </c>
       <c r="E48" s="3">
-        <v>167700</v>
+        <v>164300</v>
       </c>
       <c r="F48" s="3">
-        <v>160900</v>
+        <v>161800</v>
       </c>
       <c r="G48" s="3">
-        <v>156400</v>
+        <v>155300</v>
       </c>
       <c r="H48" s="3">
-        <v>163400</v>
+        <v>150900</v>
       </c>
       <c r="I48" s="3">
-        <v>165600</v>
+        <v>157600</v>
       </c>
       <c r="J48" s="3">
+        <v>159800</v>
+      </c>
+      <c r="K48" s="3">
         <v>174700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>90000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>98800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>98200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>92500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>107400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>114100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>120300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>119900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2708,8 +2819,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,37 +2931,40 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3900</v>
+        <v>3200</v>
       </c>
       <c r="E52" s="3">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="F52" s="3">
-        <v>500</v>
+        <v>2700</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
       </c>
       <c r="H52" s="3">
+        <v>500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>500</v>
+      </c>
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
-        <v>600</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -2853,13 +2973,13 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
@@ -2867,8 +2987,11 @@
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>391300</v>
+        <v>407500</v>
       </c>
       <c r="E54" s="3">
-        <v>378800</v>
+        <v>377600</v>
       </c>
       <c r="F54" s="3">
-        <v>375100</v>
+        <v>365500</v>
       </c>
       <c r="G54" s="3">
-        <v>338600</v>
+        <v>361900</v>
       </c>
       <c r="H54" s="3">
-        <v>260500</v>
+        <v>326700</v>
       </c>
       <c r="I54" s="3">
-        <v>242300</v>
+        <v>251300</v>
       </c>
       <c r="J54" s="3">
+        <v>233700</v>
+      </c>
+      <c r="K54" s="3">
         <v>249300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>146200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>156500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>150000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>140300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>162300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>168600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>177300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>174400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,87 +3145,91 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29900</v>
+        <v>34400</v>
       </c>
       <c r="E57" s="3">
-        <v>30400</v>
+        <v>28800</v>
       </c>
       <c r="F57" s="3">
-        <v>26000</v>
+        <v>29300</v>
       </c>
       <c r="G57" s="3">
-        <v>28600</v>
+        <v>25100</v>
       </c>
       <c r="H57" s="3">
-        <v>22700</v>
+        <v>27600</v>
       </c>
       <c r="I57" s="3">
-        <v>25000</v>
+        <v>21900</v>
       </c>
       <c r="J57" s="3">
         <v>24100</v>
       </c>
       <c r="K57" s="3">
+        <v>24100</v>
+      </c>
+      <c r="L57" s="3">
         <v>18800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
-        <v>700</v>
-      </c>
       <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -3103,8 +3237,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>200</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
@@ -3113,154 +3247,163 @@
         <v>200</v>
       </c>
       <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
         <v>1800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>5600</v>
       </c>
       <c r="S58" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
-        <v>8800</v>
-      </c>
       <c r="G59" s="3">
-        <v>15300</v>
+        <v>8500</v>
       </c>
       <c r="H59" s="3">
-        <v>4400</v>
+        <v>14800</v>
       </c>
       <c r="I59" s="3">
-        <v>1700</v>
+        <v>4200</v>
       </c>
       <c r="J59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1100</v>
       </c>
       <c r="L59" s="3">
         <v>1100</v>
       </c>
       <c r="M59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1500</v>
       </c>
       <c r="O59" s="3">
         <v>1500</v>
       </c>
       <c r="P59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q59" s="3">
         <v>1400</v>
       </c>
       <c r="R59" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="S59" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="E60" s="3">
-        <v>31700</v>
+        <v>31900</v>
       </c>
       <c r="F60" s="3">
-        <v>35400</v>
+        <v>30600</v>
       </c>
       <c r="G60" s="3">
-        <v>44500</v>
+        <v>34100</v>
       </c>
       <c r="H60" s="3">
-        <v>27600</v>
+        <v>42900</v>
       </c>
       <c r="I60" s="3">
-        <v>27300</v>
+        <v>26600</v>
       </c>
       <c r="J60" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K60" s="3">
         <v>26100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1800</v>
       </c>
-      <c r="E61" s="3">
-        <v>2300</v>
-      </c>
       <c r="F61" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G61" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="H61" s="3">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>10300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1100</v>
       </c>
       <c r="N61" s="3">
         <v>1100</v>
@@ -3269,10 +3412,10 @@
         <v>1100</v>
       </c>
       <c r="P61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>1400</v>
       </c>
       <c r="R61" s="3">
         <v>1400</v>
@@ -3280,61 +3423,67 @@
       <c r="S61" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>59800</v>
+        <v>56400</v>
       </c>
       <c r="E62" s="3">
-        <v>57200</v>
+        <v>57700</v>
       </c>
       <c r="F62" s="3">
-        <v>55700</v>
+        <v>55200</v>
       </c>
       <c r="G62" s="3">
-        <v>50800</v>
+        <v>53800</v>
       </c>
       <c r="H62" s="3">
-        <v>58200</v>
+        <v>49100</v>
       </c>
       <c r="I62" s="3">
-        <v>54500</v>
+        <v>56100</v>
       </c>
       <c r="J62" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K62" s="3">
         <v>59700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>47800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>45100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>50300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>45600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>46100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>43600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>94600</v>
+        <v>94300</v>
       </c>
       <c r="E66" s="3">
-        <v>91200</v>
+        <v>91300</v>
       </c>
       <c r="F66" s="3">
-        <v>93100</v>
+        <v>87900</v>
       </c>
       <c r="G66" s="3">
-        <v>97600</v>
+        <v>89800</v>
       </c>
       <c r="H66" s="3">
-        <v>88400</v>
+        <v>94100</v>
       </c>
       <c r="I66" s="3">
-        <v>81800</v>
+        <v>85200</v>
       </c>
       <c r="J66" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K66" s="3">
         <v>96200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>67700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>63500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>72400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>65300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>68900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>68200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>82600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>313200</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3">
-        <v>282100</v>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>241100</v>
+        <v>272100</v>
       </c>
       <c r="H72" s="3">
-        <v>172100</v>
+        <v>232600</v>
       </c>
       <c r="I72" s="3">
-        <v>160400</v>
+        <v>166100</v>
       </c>
       <c r="J72" s="3">
+        <v>154800</v>
+      </c>
+      <c r="K72" s="3">
         <v>153100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>78500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>88400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>85400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>76700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>89900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>103300</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
       <c r="R72" s="3">
         <v>0</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>296700</v>
+        <v>313200</v>
       </c>
       <c r="E76" s="3">
-        <v>287600</v>
+        <v>286200</v>
       </c>
       <c r="F76" s="3">
-        <v>282100</v>
+        <v>277500</v>
       </c>
       <c r="G76" s="3">
-        <v>241100</v>
+        <v>272100</v>
       </c>
       <c r="H76" s="3">
-        <v>172100</v>
+        <v>232600</v>
       </c>
       <c r="I76" s="3">
-        <v>160400</v>
+        <v>166100</v>
       </c>
       <c r="J76" s="3">
+        <v>154800</v>
+      </c>
+      <c r="K76" s="3">
         <v>153100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>88400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>85400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>76700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>89900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>103300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>108300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>106200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42094</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>29600</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>29300</v>
+        <v>28500</v>
       </c>
       <c r="F81" s="3">
-        <v>56700</v>
+        <v>28200</v>
       </c>
       <c r="G81" s="3">
-        <v>18000</v>
+        <v>54700</v>
       </c>
       <c r="H81" s="3">
-        <v>19900</v>
+        <v>17400</v>
       </c>
       <c r="I81" s="3">
-        <v>7400</v>
+        <v>19200</v>
       </c>
       <c r="J81" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,8 +4426,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4281,8 +4480,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36100</v>
+        <v>51400</v>
       </c>
       <c r="E89" s="3">
-        <v>35300</v>
+        <v>34900</v>
       </c>
       <c r="F89" s="3">
-        <v>58600</v>
+        <v>34000</v>
       </c>
       <c r="G89" s="3">
-        <v>40300</v>
+        <v>56600</v>
       </c>
       <c r="H89" s="3">
-        <v>27000</v>
+        <v>38900</v>
       </c>
       <c r="I89" s="3">
-        <v>17500</v>
+        <v>26100</v>
       </c>
       <c r="J89" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>23300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,52 +4840,53 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10900</v>
+        <v>-23100</v>
       </c>
       <c r="E91" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-11600</v>
       </c>
-      <c r="F91" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-8600</v>
-      </c>
       <c r="H91" s="3">
-        <v>-2200</v>
+        <v>-8300</v>
       </c>
       <c r="I91" s="3">
-        <v>-6000</v>
+        <v>-2100</v>
       </c>
       <c r="J91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-14700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -4673,8 +4894,11 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11800</v>
+        <v>-24600</v>
       </c>
       <c r="E94" s="3">
-        <v>-13400</v>
+        <v>-11400</v>
       </c>
       <c r="F94" s="3">
-        <v>-13300</v>
+        <v>-12900</v>
       </c>
       <c r="G94" s="3">
-        <v>-9300</v>
+        <v>-12800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2800</v>
+        <v>-9000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="J94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-15300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,61 +5086,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-20600</v>
+        <v>-9700</v>
       </c>
       <c r="E96" s="3">
-        <v>-20400</v>
+        <v>-19900</v>
       </c>
       <c r="F96" s="3">
-        <v>-17800</v>
+        <v>-19700</v>
       </c>
       <c r="G96" s="3">
-        <v>-25500</v>
+        <v>-17200</v>
       </c>
       <c r="H96" s="3">
-        <v>-8200</v>
+        <v>-24600</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-7900</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-3000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-14100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,69 +5308,75 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21100</v>
+        <v>-10300</v>
       </c>
       <c r="E100" s="3">
-        <v>-20800</v>
+        <v>-20400</v>
       </c>
       <c r="F100" s="3">
-        <v>-18200</v>
+        <v>-20000</v>
       </c>
       <c r="G100" s="3">
-        <v>38900</v>
+        <v>-17600</v>
       </c>
       <c r="H100" s="3">
-        <v>-8500</v>
+        <v>37500</v>
       </c>
       <c r="I100" s="3">
-        <v>-10500</v>
+        <v>-8200</v>
       </c>
       <c r="J100" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K100" s="3">
         <v>10000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>400</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
@@ -5144,8 +5393,8 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5171,57 +5420,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3500</v>
+        <v>16500</v>
       </c>
       <c r="E102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
-        <v>27100</v>
-      </c>
       <c r="G102" s="3">
-        <v>69900</v>
+        <v>26200</v>
       </c>
       <c r="H102" s="3">
-        <v>15700</v>
+        <v>67500</v>
       </c>
       <c r="I102" s="3">
-        <v>4200</v>
+        <v>15200</v>
       </c>
       <c r="J102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>DRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42094</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>150800</v>
+        <v>143000</v>
       </c>
       <c r="E8" s="3">
-        <v>143800</v>
+        <v>141100</v>
       </c>
       <c r="F8" s="3">
-        <v>131900</v>
+        <v>134600</v>
       </c>
       <c r="G8" s="3">
-        <v>171400</v>
+        <v>123400</v>
       </c>
       <c r="H8" s="3">
-        <v>119400</v>
+        <v>160400</v>
       </c>
       <c r="I8" s="3">
-        <v>121600</v>
+        <v>111700</v>
       </c>
       <c r="J8" s="3">
+        <v>113700</v>
+      </c>
+      <c r="K8" s="3">
         <v>86900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>74700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>82500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>75500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>70500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>87400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>77500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>37500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>110000</v>
+        <v>107000</v>
       </c>
       <c r="E9" s="3">
-        <v>105400</v>
+        <v>102900</v>
       </c>
       <c r="F9" s="3">
-        <v>97100</v>
+        <v>98600</v>
       </c>
       <c r="G9" s="3">
-        <v>98000</v>
+        <v>90900</v>
       </c>
       <c r="H9" s="3">
-        <v>80200</v>
+        <v>91700</v>
       </c>
       <c r="I9" s="3">
-        <v>88900</v>
+        <v>75100</v>
       </c>
       <c r="J9" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K9" s="3">
         <v>75100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>74500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>74800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>75000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>75300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>67300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>78500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>73100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>34600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>40900</v>
+        <v>36000</v>
       </c>
       <c r="E10" s="3">
-        <v>38400</v>
+        <v>38200</v>
       </c>
       <c r="F10" s="3">
-        <v>34800</v>
+        <v>36000</v>
       </c>
       <c r="G10" s="3">
-        <v>73400</v>
+        <v>32600</v>
       </c>
       <c r="H10" s="3">
-        <v>39100</v>
+        <v>68700</v>
       </c>
       <c r="I10" s="3">
-        <v>32700</v>
+        <v>36600</v>
       </c>
       <c r="J10" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K10" s="3">
         <v>11800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,8 +1069,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,35 +1101,38 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1187,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>111300</v>
       </c>
       <c r="E17" s="3">
-        <v>110100</v>
+        <v>102300</v>
       </c>
       <c r="F17" s="3">
-        <v>99600</v>
+        <v>103100</v>
       </c>
       <c r="G17" s="3">
-        <v>99100</v>
+        <v>93200</v>
       </c>
       <c r="H17" s="3">
-        <v>93100</v>
+        <v>92700</v>
       </c>
       <c r="I17" s="3">
-        <v>93800</v>
+        <v>87200</v>
       </c>
       <c r="J17" s="3">
+        <v>87800</v>
+      </c>
+      <c r="K17" s="3">
         <v>77400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>78500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>77000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>77200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>70300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>81700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>75100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>35900</v>
       </c>
       <c r="S17" s="3">
         <v>35900</v>
       </c>
       <c r="T17" s="3">
+        <v>35900</v>
+      </c>
+      <c r="U17" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>31700</v>
       </c>
       <c r="E18" s="3">
-        <v>33700</v>
+        <v>38900</v>
       </c>
       <c r="F18" s="3">
-        <v>32300</v>
+        <v>31500</v>
       </c>
       <c r="G18" s="3">
-        <v>72300</v>
+        <v>30200</v>
       </c>
       <c r="H18" s="3">
-        <v>26200</v>
+        <v>67700</v>
       </c>
       <c r="I18" s="3">
-        <v>27800</v>
+        <v>24500</v>
       </c>
       <c r="J18" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K18" s="3">
         <v>9500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,120 +1350,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>6700</v>
       </c>
       <c r="E20" s="3">
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="F20" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="G20" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H20" s="3">
-        <v>2200</v>
+        <v>3900</v>
       </c>
       <c r="I20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-200</v>
       </c>
       <c r="P20" s="3">
         <v>-200</v>
       </c>
       <c r="Q20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>44200</v>
       </c>
       <c r="E21" s="3">
-        <v>46500</v>
+        <v>42000</v>
       </c>
       <c r="F21" s="3">
-        <v>36400</v>
+        <v>43500</v>
       </c>
       <c r="G21" s="3">
-        <v>83800</v>
+        <v>34100</v>
       </c>
       <c r="H21" s="3">
-        <v>29300</v>
+        <v>78500</v>
       </c>
       <c r="I21" s="3">
-        <v>35300</v>
+        <v>27400</v>
       </c>
       <c r="J21" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K21" s="3">
         <v>10600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1485,120 +1525,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>45400</v>
+        <v>38400</v>
       </c>
       <c r="E23" s="3">
-        <v>38500</v>
+        <v>42500</v>
       </c>
       <c r="F23" s="3">
-        <v>36500</v>
+        <v>36100</v>
       </c>
       <c r="G23" s="3">
-        <v>76500</v>
+        <v>34200</v>
       </c>
       <c r="H23" s="3">
-        <v>28500</v>
+        <v>71600</v>
       </c>
       <c r="I23" s="3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="J23" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K23" s="3">
         <v>8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>5500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F24" s="3">
         <v>9300</v>
       </c>
-      <c r="E24" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>8300</v>
-      </c>
       <c r="G24" s="3">
-        <v>21800</v>
+        <v>7800</v>
       </c>
       <c r="H24" s="3">
-        <v>11100</v>
+        <v>20400</v>
       </c>
       <c r="I24" s="3">
-        <v>8700</v>
+        <v>10400</v>
       </c>
       <c r="J24" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>28800</v>
       </c>
       <c r="E26" s="3">
-        <v>28500</v>
+        <v>33800</v>
       </c>
       <c r="F26" s="3">
-        <v>28200</v>
+        <v>26700</v>
       </c>
       <c r="G26" s="3">
-        <v>54700</v>
+        <v>26400</v>
       </c>
       <c r="H26" s="3">
-        <v>17400</v>
+        <v>51100</v>
       </c>
       <c r="I26" s="3">
-        <v>19200</v>
+        <v>16300</v>
       </c>
       <c r="J26" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K26" s="3">
         <v>7200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>28800</v>
       </c>
       <c r="E27" s="3">
-        <v>28500</v>
+        <v>33800</v>
       </c>
       <c r="F27" s="3">
-        <v>28200</v>
+        <v>26700</v>
       </c>
       <c r="G27" s="3">
-        <v>54700</v>
+        <v>26400</v>
       </c>
       <c r="H27" s="3">
-        <v>17400</v>
+        <v>51100</v>
       </c>
       <c r="I27" s="3">
-        <v>19200</v>
+        <v>16300</v>
       </c>
       <c r="J27" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K27" s="3">
         <v>7200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1877,8 +1938,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-6700</v>
       </c>
       <c r="E32" s="3">
-        <v>-4800</v>
+        <v>-3600</v>
       </c>
       <c r="F32" s="3">
-        <v>-4300</v>
+        <v>-4500</v>
       </c>
       <c r="G32" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="H32" s="3">
-        <v>-2200</v>
+        <v>-3900</v>
       </c>
       <c r="I32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>200</v>
       </c>
       <c r="P32" s="3">
         <v>200</v>
       </c>
       <c r="Q32" s="3">
+        <v>200</v>
+      </c>
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>28800</v>
       </c>
       <c r="E33" s="3">
-        <v>28500</v>
+        <v>33800</v>
       </c>
       <c r="F33" s="3">
-        <v>28200</v>
+        <v>26700</v>
       </c>
       <c r="G33" s="3">
-        <v>54700</v>
+        <v>26400</v>
       </c>
       <c r="H33" s="3">
-        <v>17400</v>
+        <v>51100</v>
       </c>
       <c r="I33" s="3">
-        <v>19200</v>
+        <v>16300</v>
       </c>
       <c r="J33" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K33" s="3">
         <v>7200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>28800</v>
       </c>
       <c r="E35" s="3">
-        <v>28500</v>
+        <v>33800</v>
       </c>
       <c r="F35" s="3">
-        <v>28200</v>
+        <v>26700</v>
       </c>
       <c r="G35" s="3">
-        <v>54700</v>
+        <v>26400</v>
       </c>
       <c r="H35" s="3">
-        <v>17400</v>
+        <v>51100</v>
       </c>
       <c r="I35" s="3">
-        <v>19200</v>
+        <v>16300</v>
       </c>
       <c r="J35" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K35" s="3">
         <v>7200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42094</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,64 +2404,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>145400</v>
+        <v>128900</v>
       </c>
       <c r="E41" s="3">
-        <v>128900</v>
+        <v>136100</v>
       </c>
       <c r="F41" s="3">
-        <v>125500</v>
+        <v>120600</v>
       </c>
       <c r="G41" s="3">
-        <v>124900</v>
+        <v>117400</v>
       </c>
       <c r="H41" s="3">
-        <v>98700</v>
+        <v>116900</v>
       </c>
       <c r="I41" s="3">
-        <v>31300</v>
+        <v>92400</v>
       </c>
       <c r="J41" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K41" s="3">
         <v>16100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2430,120 +2520,129 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9300</v>
+        <v>9800</v>
       </c>
       <c r="E43" s="3">
-        <v>9300</v>
+        <v>8700</v>
       </c>
       <c r="F43" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="G43" s="3">
-        <v>10300</v>
+        <v>8200</v>
       </c>
       <c r="H43" s="3">
-        <v>8700</v>
+        <v>9700</v>
       </c>
       <c r="I43" s="3">
-        <v>7100</v>
+        <v>8200</v>
       </c>
       <c r="J43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22400</v>
+        <v>20100</v>
       </c>
       <c r="E44" s="3">
-        <v>24200</v>
+        <v>21000</v>
       </c>
       <c r="F44" s="3">
-        <v>19600</v>
+        <v>22600</v>
       </c>
       <c r="G44" s="3">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="H44" s="3">
-        <v>18600</v>
+        <v>17400</v>
       </c>
       <c r="I44" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="J44" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K44" s="3">
         <v>17500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>14400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10800</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>11900</v>
       </c>
       <c r="R44" s="3">
         <v>11900</v>
       </c>
       <c r="S44" s="3">
+        <v>11900</v>
+      </c>
+      <c r="T44" s="3">
         <v>10000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2581,193 +2680,205 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>700</v>
       </c>
       <c r="R45" s="3">
         <v>700</v>
       </c>
       <c r="S45" s="3">
+        <v>700</v>
+      </c>
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>177100</v>
+        <v>158800</v>
       </c>
       <c r="E46" s="3">
-        <v>162400</v>
+        <v>165800</v>
       </c>
       <c r="F46" s="3">
-        <v>153900</v>
+        <v>152000</v>
       </c>
       <c r="G46" s="3">
-        <v>153800</v>
+        <v>144000</v>
       </c>
       <c r="H46" s="3">
-        <v>126100</v>
+        <v>143900</v>
       </c>
       <c r="I46" s="3">
-        <v>56000</v>
+        <v>118000</v>
       </c>
       <c r="J46" s="3">
+        <v>52400</v>
+      </c>
+      <c r="K46" s="3">
         <v>37800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>40100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>43100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>37700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>49600</v>
+        <v>48500</v>
       </c>
       <c r="E47" s="3">
-        <v>47000</v>
+        <v>46400</v>
       </c>
       <c r="F47" s="3">
-        <v>47200</v>
+        <v>44000</v>
       </c>
       <c r="G47" s="3">
-        <v>52400</v>
+        <v>44100</v>
       </c>
       <c r="H47" s="3">
-        <v>49300</v>
+        <v>49000</v>
       </c>
       <c r="I47" s="3">
-        <v>37200</v>
+        <v>46100</v>
       </c>
       <c r="J47" s="3">
+        <v>34800</v>
+      </c>
+      <c r="K47" s="3">
         <v>35600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>39000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>14200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>14400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>16700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>177600</v>
+        <v>181300</v>
       </c>
       <c r="E48" s="3">
-        <v>164300</v>
+        <v>166100</v>
       </c>
       <c r="F48" s="3">
-        <v>161800</v>
+        <v>153800</v>
       </c>
       <c r="G48" s="3">
-        <v>155300</v>
+        <v>151400</v>
       </c>
       <c r="H48" s="3">
-        <v>150900</v>
+        <v>145300</v>
       </c>
       <c r="I48" s="3">
-        <v>157600</v>
+        <v>141200</v>
       </c>
       <c r="J48" s="3">
+        <v>147500</v>
+      </c>
+      <c r="K48" s="3">
         <v>159800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>174700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>90000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>98800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>98200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>92500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>107400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>114100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>120300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>119900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2822,8 +2933,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,8 +3051,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2943,31 +3063,31 @@
         <v>3200</v>
       </c>
       <c r="E52" s="3">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="F52" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="G52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
+        <v>600</v>
+      </c>
+      <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
@@ -2976,13 +3096,13 @@
         <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
@@ -2990,8 +3110,11 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>407500</v>
+        <v>391800</v>
       </c>
       <c r="E54" s="3">
-        <v>377600</v>
+        <v>381300</v>
       </c>
       <c r="F54" s="3">
-        <v>365500</v>
+        <v>353300</v>
       </c>
       <c r="G54" s="3">
-        <v>361900</v>
+        <v>342000</v>
       </c>
       <c r="H54" s="3">
-        <v>326700</v>
+        <v>338700</v>
       </c>
       <c r="I54" s="3">
-        <v>251300</v>
+        <v>305700</v>
       </c>
       <c r="J54" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K54" s="3">
         <v>233700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>249300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>146200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>156500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>150000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>140300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>162300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>168600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>177300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>174400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,93 +3276,97 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>34400</v>
+        <v>28200</v>
       </c>
       <c r="E57" s="3">
-        <v>28800</v>
+        <v>32200</v>
       </c>
       <c r="F57" s="3">
-        <v>29300</v>
+        <v>27000</v>
       </c>
       <c r="G57" s="3">
-        <v>25100</v>
+        <v>27500</v>
       </c>
       <c r="H57" s="3">
-        <v>27600</v>
+        <v>23500</v>
       </c>
       <c r="I57" s="3">
-        <v>21900</v>
+        <v>25800</v>
       </c>
       <c r="J57" s="3">
-        <v>24100</v>
+        <v>20500</v>
       </c>
       <c r="K57" s="3">
         <v>24100</v>
       </c>
       <c r="L57" s="3">
+        <v>24100</v>
+      </c>
+      <c r="M57" s="3">
         <v>18800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
-        <v>1000</v>
-      </c>
       <c r="F58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G58" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
       </c>
       <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3240,8 +3374,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>200</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
@@ -3250,163 +3384,172 @@
         <v>200</v>
       </c>
       <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
         <v>1800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>5600</v>
       </c>
       <c r="T58" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
-        <v>2100</v>
-      </c>
       <c r="F59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
-        <v>8500</v>
-      </c>
       <c r="H59" s="3">
-        <v>14800</v>
+        <v>7900</v>
       </c>
       <c r="I59" s="3">
-        <v>4200</v>
+        <v>13800</v>
       </c>
       <c r="J59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1100</v>
       </c>
       <c r="M59" s="3">
         <v>1100</v>
       </c>
       <c r="N59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1500</v>
       </c>
       <c r="P59" s="3">
         <v>1500</v>
       </c>
       <c r="Q59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="R59" s="3">
         <v>1400</v>
       </c>
       <c r="S59" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="T59" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36000</v>
+        <v>29700</v>
       </c>
       <c r="E60" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>29800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>28600</v>
+      </c>
+      <c r="H60" s="3">
         <v>31900</v>
       </c>
-      <c r="F60" s="3">
-        <v>30600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>34100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>42900</v>
-      </c>
       <c r="I60" s="3">
-        <v>26600</v>
+        <v>40200</v>
       </c>
       <c r="J60" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K60" s="3">
         <v>26400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="3">
         <v>1800</v>
       </c>
       <c r="F61" s="3">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="G61" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H61" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="I61" s="3">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>10300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1100</v>
       </c>
       <c r="O61" s="3">
         <v>1100</v>
@@ -3415,10 +3558,10 @@
         <v>1100</v>
       </c>
       <c r="Q61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R61" s="3">
         <v>1200</v>
-      </c>
-      <c r="R61" s="3">
-        <v>1400</v>
       </c>
       <c r="S61" s="3">
         <v>1400</v>
@@ -3426,64 +3569,70 @@
       <c r="T61" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56400</v>
+        <v>57500</v>
       </c>
       <c r="E62" s="3">
-        <v>57700</v>
+        <v>52800</v>
       </c>
       <c r="F62" s="3">
-        <v>55200</v>
+        <v>54000</v>
       </c>
       <c r="G62" s="3">
-        <v>53800</v>
+        <v>51600</v>
       </c>
       <c r="H62" s="3">
-        <v>49100</v>
+        <v>50300</v>
       </c>
       <c r="I62" s="3">
-        <v>56100</v>
+        <v>45900</v>
       </c>
       <c r="J62" s="3">
+        <v>52500</v>
+      </c>
+      <c r="K62" s="3">
         <v>52600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>59700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>46600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>45100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>50300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>45600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>43600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>94300</v>
+        <v>88500</v>
       </c>
       <c r="E66" s="3">
-        <v>91300</v>
+        <v>88300</v>
       </c>
       <c r="F66" s="3">
-        <v>87900</v>
+        <v>85400</v>
       </c>
       <c r="G66" s="3">
-        <v>89800</v>
+        <v>82300</v>
       </c>
       <c r="H66" s="3">
-        <v>94100</v>
+        <v>84000</v>
       </c>
       <c r="I66" s="3">
-        <v>85200</v>
+        <v>88100</v>
       </c>
       <c r="J66" s="3">
+        <v>79800</v>
+      </c>
+      <c r="K66" s="3">
         <v>79000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>96200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>67700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>63500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>72400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>65300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>68900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>82600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,13 +4123,16 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>313200</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
@@ -3966,50 +4140,53 @@
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
-        <v>272100</v>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H72" s="3">
-        <v>232600</v>
+        <v>254600</v>
       </c>
       <c r="I72" s="3">
-        <v>166100</v>
+        <v>217600</v>
       </c>
       <c r="J72" s="3">
+        <v>155400</v>
+      </c>
+      <c r="K72" s="3">
         <v>154800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>153100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>78500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>88400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>85400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>76700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>89900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>103300</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>313200</v>
+        <v>303300</v>
       </c>
       <c r="E76" s="3">
-        <v>286200</v>
+        <v>293000</v>
       </c>
       <c r="F76" s="3">
-        <v>277500</v>
+        <v>267900</v>
       </c>
       <c r="G76" s="3">
-        <v>272100</v>
+        <v>259700</v>
       </c>
       <c r="H76" s="3">
-        <v>232600</v>
+        <v>254600</v>
       </c>
       <c r="I76" s="3">
-        <v>166100</v>
+        <v>217600</v>
       </c>
       <c r="J76" s="3">
+        <v>155400</v>
+      </c>
+      <c r="K76" s="3">
         <v>154800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>153100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>78500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>88400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>85400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>76700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>89900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>103300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>108300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>106200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42094</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>28800</v>
       </c>
       <c r="E81" s="3">
-        <v>28500</v>
+        <v>33800</v>
       </c>
       <c r="F81" s="3">
-        <v>28200</v>
+        <v>26700</v>
       </c>
       <c r="G81" s="3">
-        <v>54700</v>
+        <v>26400</v>
       </c>
       <c r="H81" s="3">
-        <v>17400</v>
+        <v>51100</v>
       </c>
       <c r="I81" s="3">
-        <v>19200</v>
+        <v>16300</v>
       </c>
       <c r="J81" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K81" s="3">
         <v>7200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,8 +4625,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4483,8 +4682,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>51400</v>
+        <v>34300</v>
       </c>
       <c r="E89" s="3">
-        <v>34900</v>
+        <v>48100</v>
       </c>
       <c r="F89" s="3">
-        <v>34000</v>
+        <v>32600</v>
       </c>
       <c r="G89" s="3">
-        <v>56600</v>
+        <v>31800</v>
       </c>
       <c r="H89" s="3">
-        <v>38900</v>
+        <v>52900</v>
       </c>
       <c r="I89" s="3">
-        <v>26100</v>
+        <v>36400</v>
       </c>
       <c r="J89" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K89" s="3">
         <v>16900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>23300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,55 +5061,56 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23100</v>
+        <v>-20900</v>
       </c>
       <c r="E91" s="3">
-        <v>-10500</v>
+        <v>-21600</v>
       </c>
       <c r="F91" s="3">
-        <v>-11100</v>
+        <v>-9800</v>
       </c>
       <c r="G91" s="3">
-        <v>-11600</v>
+        <v>-10400</v>
       </c>
       <c r="H91" s="3">
-        <v>-8300</v>
+        <v>-10900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2100</v>
+        <v>-7700</v>
       </c>
       <c r="J91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4100</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -4897,8 +5118,11 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24600</v>
+        <v>-22700</v>
       </c>
       <c r="E94" s="3">
-        <v>-11400</v>
+        <v>-23000</v>
       </c>
       <c r="F94" s="3">
-        <v>-12900</v>
+        <v>-10700</v>
       </c>
       <c r="G94" s="3">
-        <v>-12800</v>
+        <v>-12100</v>
       </c>
       <c r="H94" s="3">
-        <v>-9000</v>
+        <v>-12000</v>
       </c>
       <c r="I94" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-2700</v>
       </c>
-      <c r="K94" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,64 +5320,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-9700</v>
+        <v>-18500</v>
       </c>
       <c r="E96" s="3">
-        <v>-19900</v>
+        <v>-9000</v>
       </c>
       <c r="F96" s="3">
-        <v>-19700</v>
+        <v>-18600</v>
       </c>
       <c r="G96" s="3">
-        <v>-17200</v>
+        <v>-18400</v>
       </c>
       <c r="H96" s="3">
-        <v>-24600</v>
+        <v>-16100</v>
       </c>
       <c r="I96" s="3">
-        <v>-7900</v>
+        <v>-23000</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-7400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,64 +5554,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10300</v>
+        <v>-18900</v>
       </c>
       <c r="E100" s="3">
-        <v>-20400</v>
+        <v>-9700</v>
       </c>
       <c r="F100" s="3">
-        <v>-20000</v>
+        <v>-19100</v>
       </c>
       <c r="G100" s="3">
-        <v>-17600</v>
+        <v>-18800</v>
       </c>
       <c r="H100" s="3">
-        <v>37500</v>
+        <v>-16400</v>
       </c>
       <c r="I100" s="3">
-        <v>-8200</v>
+        <v>35100</v>
       </c>
       <c r="J100" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-10100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5376,10 +5625,10 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
@@ -5396,8 +5645,8 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5423,60 +5672,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16500</v>
+        <v>-7200</v>
       </c>
       <c r="E102" s="3">
-        <v>3400</v>
+        <v>15400</v>
       </c>
       <c r="F102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
-        <v>26200</v>
-      </c>
       <c r="H102" s="3">
-        <v>67500</v>
+        <v>24500</v>
       </c>
       <c r="I102" s="3">
-        <v>15200</v>
+        <v>63100</v>
       </c>
       <c r="J102" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K102" s="3">
         <v>4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>143000</v>
+        <v>137300</v>
       </c>
       <c r="E8" s="3">
-        <v>141100</v>
+        <v>135500</v>
       </c>
       <c r="F8" s="3">
-        <v>134600</v>
+        <v>129200</v>
       </c>
       <c r="G8" s="3">
-        <v>123400</v>
+        <v>118500</v>
       </c>
       <c r="H8" s="3">
-        <v>160400</v>
+        <v>154000</v>
       </c>
       <c r="I8" s="3">
-        <v>111700</v>
+        <v>107200</v>
       </c>
       <c r="J8" s="3">
-        <v>113700</v>
+        <v>109200</v>
       </c>
       <c r="K8" s="3">
         <v>86900</v>
@@ -819,25 +819,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>107000</v>
+        <v>102700</v>
       </c>
       <c r="E9" s="3">
-        <v>102900</v>
+        <v>98800</v>
       </c>
       <c r="F9" s="3">
-        <v>98600</v>
+        <v>94700</v>
       </c>
       <c r="G9" s="3">
-        <v>90900</v>
+        <v>87200</v>
       </c>
       <c r="H9" s="3">
-        <v>91700</v>
+        <v>88000</v>
       </c>
       <c r="I9" s="3">
-        <v>75100</v>
+        <v>72100</v>
       </c>
       <c r="J9" s="3">
-        <v>83200</v>
+        <v>79900</v>
       </c>
       <c r="K9" s="3">
         <v>75100</v>
@@ -878,25 +878,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>36000</v>
+        <v>34600</v>
       </c>
       <c r="E10" s="3">
-        <v>38200</v>
+        <v>36700</v>
       </c>
       <c r="F10" s="3">
-        <v>36000</v>
+        <v>34500</v>
       </c>
       <c r="G10" s="3">
-        <v>32600</v>
+        <v>31300</v>
       </c>
       <c r="H10" s="3">
-        <v>68700</v>
+        <v>66000</v>
       </c>
       <c r="I10" s="3">
-        <v>36600</v>
+        <v>35200</v>
       </c>
       <c r="J10" s="3">
-        <v>30600</v>
+        <v>29300</v>
       </c>
       <c r="K10" s="3">
         <v>11800</v>
@@ -1216,25 +1216,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>111300</v>
+        <v>106900</v>
       </c>
       <c r="E17" s="3">
-        <v>102300</v>
+        <v>98200</v>
       </c>
       <c r="F17" s="3">
-        <v>103100</v>
+        <v>98900</v>
       </c>
       <c r="G17" s="3">
-        <v>93200</v>
+        <v>89500</v>
       </c>
       <c r="H17" s="3">
-        <v>92700</v>
+        <v>89000</v>
       </c>
       <c r="I17" s="3">
-        <v>87200</v>
+        <v>83700</v>
       </c>
       <c r="J17" s="3">
-        <v>87800</v>
+        <v>84300</v>
       </c>
       <c r="K17" s="3">
         <v>77400</v>
@@ -1275,25 +1275,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>31700</v>
+        <v>30400</v>
       </c>
       <c r="E18" s="3">
-        <v>38900</v>
+        <v>37300</v>
       </c>
       <c r="F18" s="3">
-        <v>31500</v>
+        <v>30300</v>
       </c>
       <c r="G18" s="3">
-        <v>30200</v>
+        <v>29000</v>
       </c>
       <c r="H18" s="3">
-        <v>67700</v>
+        <v>65000</v>
       </c>
       <c r="I18" s="3">
-        <v>24500</v>
+        <v>23600</v>
       </c>
       <c r="J18" s="3">
-        <v>26000</v>
+        <v>24900</v>
       </c>
       <c r="K18" s="3">
         <v>9500</v>
@@ -1357,22 +1357,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="E20" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F20" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="G20" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="H20" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I20" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1416,25 +1416,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>44200</v>
+        <v>42500</v>
       </c>
       <c r="E21" s="3">
-        <v>42000</v>
+        <v>40300</v>
       </c>
       <c r="F21" s="3">
-        <v>43500</v>
+        <v>41800</v>
       </c>
       <c r="G21" s="3">
-        <v>34100</v>
+        <v>32700</v>
       </c>
       <c r="H21" s="3">
-        <v>78500</v>
+        <v>75300</v>
       </c>
       <c r="I21" s="3">
-        <v>27400</v>
+        <v>26300</v>
       </c>
       <c r="J21" s="3">
-        <v>33000</v>
+        <v>31700</v>
       </c>
       <c r="K21" s="3">
         <v>10600</v>
@@ -1534,25 +1534,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>38400</v>
+        <v>36800</v>
       </c>
       <c r="E23" s="3">
-        <v>42500</v>
+        <v>40800</v>
       </c>
       <c r="F23" s="3">
-        <v>36100</v>
+        <v>34600</v>
       </c>
       <c r="G23" s="3">
-        <v>34200</v>
+        <v>32800</v>
       </c>
       <c r="H23" s="3">
-        <v>71600</v>
+        <v>68700</v>
       </c>
       <c r="I23" s="3">
-        <v>26600</v>
+        <v>25600</v>
       </c>
       <c r="J23" s="3">
-        <v>26100</v>
+        <v>25100</v>
       </c>
       <c r="K23" s="3">
         <v>8900</v>
@@ -1593,25 +1593,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="E24" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="F24" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="G24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J24" s="3">
         <v>7800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>20400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>10400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>8200</v>
       </c>
       <c r="K24" s="3">
         <v>1700</v>
@@ -1711,25 +1711,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28800</v>
+        <v>27700</v>
       </c>
       <c r="E26" s="3">
-        <v>33800</v>
+        <v>32500</v>
       </c>
       <c r="F26" s="3">
-        <v>26700</v>
+        <v>25600</v>
       </c>
       <c r="G26" s="3">
-        <v>26400</v>
+        <v>25400</v>
       </c>
       <c r="H26" s="3">
-        <v>51100</v>
+        <v>49100</v>
       </c>
       <c r="I26" s="3">
-        <v>16300</v>
+        <v>15600</v>
       </c>
       <c r="J26" s="3">
-        <v>17900</v>
+        <v>17200</v>
       </c>
       <c r="K26" s="3">
         <v>7200</v>
@@ -1770,25 +1770,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28800</v>
+        <v>27700</v>
       </c>
       <c r="E27" s="3">
-        <v>33800</v>
+        <v>32500</v>
       </c>
       <c r="F27" s="3">
-        <v>26700</v>
+        <v>25600</v>
       </c>
       <c r="G27" s="3">
-        <v>26400</v>
+        <v>25400</v>
       </c>
       <c r="H27" s="3">
-        <v>51100</v>
+        <v>49100</v>
       </c>
       <c r="I27" s="3">
-        <v>16300</v>
+        <v>15600</v>
       </c>
       <c r="J27" s="3">
-        <v>17900</v>
+        <v>17200</v>
       </c>
       <c r="K27" s="3">
         <v>7200</v>
@@ -2065,22 +2065,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="E32" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="F32" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="G32" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="H32" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="I32" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -2124,25 +2124,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28800</v>
+        <v>27700</v>
       </c>
       <c r="E33" s="3">
-        <v>33800</v>
+        <v>32500</v>
       </c>
       <c r="F33" s="3">
-        <v>26700</v>
+        <v>25600</v>
       </c>
       <c r="G33" s="3">
-        <v>26400</v>
+        <v>25400</v>
       </c>
       <c r="H33" s="3">
-        <v>51100</v>
+        <v>49100</v>
       </c>
       <c r="I33" s="3">
-        <v>16300</v>
+        <v>15600</v>
       </c>
       <c r="J33" s="3">
-        <v>17900</v>
+        <v>17200</v>
       </c>
       <c r="K33" s="3">
         <v>7200</v>
@@ -2242,25 +2242,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28800</v>
+        <v>27700</v>
       </c>
       <c r="E35" s="3">
-        <v>33800</v>
+        <v>32500</v>
       </c>
       <c r="F35" s="3">
-        <v>26700</v>
+        <v>25600</v>
       </c>
       <c r="G35" s="3">
-        <v>26400</v>
+        <v>25400</v>
       </c>
       <c r="H35" s="3">
-        <v>51100</v>
+        <v>49100</v>
       </c>
       <c r="I35" s="3">
-        <v>16300</v>
+        <v>15600</v>
       </c>
       <c r="J35" s="3">
-        <v>17900</v>
+        <v>17200</v>
       </c>
       <c r="K35" s="3">
         <v>7200</v>
@@ -2411,25 +2411,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>128900</v>
+        <v>123700</v>
       </c>
       <c r="E41" s="3">
-        <v>136100</v>
+        <v>130600</v>
       </c>
       <c r="F41" s="3">
-        <v>120600</v>
+        <v>115800</v>
       </c>
       <c r="G41" s="3">
-        <v>117400</v>
+        <v>112700</v>
       </c>
       <c r="H41" s="3">
-        <v>116900</v>
+        <v>112200</v>
       </c>
       <c r="I41" s="3">
-        <v>92400</v>
+        <v>88700</v>
       </c>
       <c r="J41" s="3">
-        <v>29300</v>
+        <v>28100</v>
       </c>
       <c r="K41" s="3">
         <v>16100</v>
@@ -2529,25 +2529,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="E43" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="F43" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="G43" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="H43" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="I43" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="J43" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="K43" s="3">
         <v>4100</v>
@@ -2588,25 +2588,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E44" s="3">
         <v>20100</v>
       </c>
-      <c r="E44" s="3">
-        <v>21000</v>
-      </c>
       <c r="F44" s="3">
-        <v>22600</v>
+        <v>21700</v>
       </c>
       <c r="G44" s="3">
-        <v>18300</v>
+        <v>17600</v>
       </c>
       <c r="H44" s="3">
-        <v>17400</v>
+        <v>16700</v>
       </c>
       <c r="I44" s="3">
-        <v>17400</v>
+        <v>16700</v>
       </c>
       <c r="J44" s="3">
-        <v>16500</v>
+        <v>15800</v>
       </c>
       <c r="K44" s="3">
         <v>17500</v>
@@ -2706,25 +2706,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>158800</v>
+        <v>152400</v>
       </c>
       <c r="E46" s="3">
-        <v>165800</v>
+        <v>159100</v>
       </c>
       <c r="F46" s="3">
-        <v>152000</v>
+        <v>145900</v>
       </c>
       <c r="G46" s="3">
-        <v>144000</v>
+        <v>138200</v>
       </c>
       <c r="H46" s="3">
-        <v>143900</v>
+        <v>138200</v>
       </c>
       <c r="I46" s="3">
-        <v>118000</v>
+        <v>113300</v>
       </c>
       <c r="J46" s="3">
-        <v>52400</v>
+        <v>50300</v>
       </c>
       <c r="K46" s="3">
         <v>37800</v>
@@ -2765,25 +2765,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>48500</v>
+        <v>46600</v>
       </c>
       <c r="E47" s="3">
-        <v>46400</v>
+        <v>44600</v>
       </c>
       <c r="F47" s="3">
-        <v>44000</v>
+        <v>42300</v>
       </c>
       <c r="G47" s="3">
-        <v>44100</v>
+        <v>42400</v>
       </c>
       <c r="H47" s="3">
-        <v>49000</v>
+        <v>47100</v>
       </c>
       <c r="I47" s="3">
-        <v>46100</v>
+        <v>44300</v>
       </c>
       <c r="J47" s="3">
-        <v>34800</v>
+        <v>33400</v>
       </c>
       <c r="K47" s="3">
         <v>35600</v>
@@ -2824,25 +2824,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>181300</v>
+        <v>174100</v>
       </c>
       <c r="E48" s="3">
-        <v>166100</v>
+        <v>159500</v>
       </c>
       <c r="F48" s="3">
-        <v>153800</v>
+        <v>147600</v>
       </c>
       <c r="G48" s="3">
-        <v>151400</v>
+        <v>145300</v>
       </c>
       <c r="H48" s="3">
-        <v>145300</v>
+        <v>139500</v>
       </c>
       <c r="I48" s="3">
-        <v>141200</v>
+        <v>135600</v>
       </c>
       <c r="J48" s="3">
-        <v>147500</v>
+        <v>141600</v>
       </c>
       <c r="K48" s="3">
         <v>159800</v>
@@ -3060,16 +3060,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="E52" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F52" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G52" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -3178,25 +3178,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>391800</v>
+        <v>376100</v>
       </c>
       <c r="E54" s="3">
-        <v>381300</v>
+        <v>366100</v>
       </c>
       <c r="F54" s="3">
-        <v>353300</v>
+        <v>339200</v>
       </c>
       <c r="G54" s="3">
-        <v>342000</v>
+        <v>328300</v>
       </c>
       <c r="H54" s="3">
-        <v>338700</v>
+        <v>325200</v>
       </c>
       <c r="I54" s="3">
-        <v>305700</v>
+        <v>293500</v>
       </c>
       <c r="J54" s="3">
-        <v>235200</v>
+        <v>225800</v>
       </c>
       <c r="K54" s="3">
         <v>233700</v>
@@ -3283,25 +3283,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28200</v>
+        <v>27100</v>
       </c>
       <c r="E57" s="3">
-        <v>32200</v>
+        <v>30900</v>
       </c>
       <c r="F57" s="3">
-        <v>27000</v>
+        <v>25900</v>
       </c>
       <c r="G57" s="3">
-        <v>27500</v>
+        <v>26400</v>
       </c>
       <c r="H57" s="3">
-        <v>23500</v>
+        <v>22500</v>
       </c>
       <c r="I57" s="3">
-        <v>25800</v>
+        <v>24800</v>
       </c>
       <c r="J57" s="3">
-        <v>20500</v>
+        <v>19700</v>
       </c>
       <c r="K57" s="3">
         <v>24100</v>
@@ -3342,10 +3342,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1100</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
@@ -3410,16 +3410,16 @@
         <v>1900</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="I59" s="3">
-        <v>13800</v>
+        <v>13300</v>
       </c>
       <c r="J59" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="K59" s="3">
         <v>1600</v>
@@ -3460,25 +3460,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29700</v>
+        <v>28500</v>
       </c>
       <c r="E60" s="3">
-        <v>33700</v>
+        <v>32400</v>
       </c>
       <c r="F60" s="3">
-        <v>29800</v>
+        <v>28600</v>
       </c>
       <c r="G60" s="3">
-        <v>28600</v>
+        <v>27500</v>
       </c>
       <c r="H60" s="3">
-        <v>31900</v>
+        <v>30700</v>
       </c>
       <c r="I60" s="3">
-        <v>40200</v>
+        <v>38600</v>
       </c>
       <c r="J60" s="3">
-        <v>24900</v>
+        <v>23900</v>
       </c>
       <c r="K60" s="3">
         <v>26400</v>
@@ -3519,10 +3519,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E61" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F61" s="3">
         <v>1600</v>
@@ -3531,13 +3531,13 @@
         <v>2000</v>
       </c>
       <c r="H61" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I61" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J61" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3578,25 +3578,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57500</v>
+        <v>55200</v>
       </c>
       <c r="E62" s="3">
-        <v>52800</v>
+        <v>50700</v>
       </c>
       <c r="F62" s="3">
-        <v>54000</v>
+        <v>51800</v>
       </c>
       <c r="G62" s="3">
-        <v>51600</v>
+        <v>49600</v>
       </c>
       <c r="H62" s="3">
-        <v>50300</v>
+        <v>48300</v>
       </c>
       <c r="I62" s="3">
-        <v>45900</v>
+        <v>44100</v>
       </c>
       <c r="J62" s="3">
-        <v>52500</v>
+        <v>50400</v>
       </c>
       <c r="K62" s="3">
         <v>52600</v>
@@ -3814,25 +3814,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>88500</v>
+        <v>84900</v>
       </c>
       <c r="E66" s="3">
-        <v>88300</v>
+        <v>84700</v>
       </c>
       <c r="F66" s="3">
-        <v>85400</v>
+        <v>82000</v>
       </c>
       <c r="G66" s="3">
-        <v>82300</v>
+        <v>79000</v>
       </c>
       <c r="H66" s="3">
-        <v>84000</v>
+        <v>80700</v>
       </c>
       <c r="I66" s="3">
-        <v>88100</v>
+        <v>84600</v>
       </c>
       <c r="J66" s="3">
-        <v>79800</v>
+        <v>76600</v>
       </c>
       <c r="K66" s="3">
         <v>79000</v>
@@ -4144,13 +4144,13 @@
         <v>8</v>
       </c>
       <c r="H72" s="3">
-        <v>254600</v>
+        <v>244500</v>
       </c>
       <c r="I72" s="3">
-        <v>217600</v>
+        <v>209000</v>
       </c>
       <c r="J72" s="3">
-        <v>155400</v>
+        <v>149200</v>
       </c>
       <c r="K72" s="3">
         <v>154800</v>
@@ -4368,25 +4368,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>303300</v>
+        <v>291200</v>
       </c>
       <c r="E76" s="3">
-        <v>293000</v>
+        <v>281400</v>
       </c>
       <c r="F76" s="3">
-        <v>267900</v>
+        <v>257200</v>
       </c>
       <c r="G76" s="3">
-        <v>259700</v>
+        <v>249300</v>
       </c>
       <c r="H76" s="3">
-        <v>254600</v>
+        <v>244500</v>
       </c>
       <c r="I76" s="3">
-        <v>217600</v>
+        <v>209000</v>
       </c>
       <c r="J76" s="3">
-        <v>155400</v>
+        <v>149200</v>
       </c>
       <c r="K76" s="3">
         <v>154800</v>
@@ -4550,25 +4550,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28800</v>
+        <v>27700</v>
       </c>
       <c r="E81" s="3">
-        <v>33800</v>
+        <v>32500</v>
       </c>
       <c r="F81" s="3">
-        <v>26700</v>
+        <v>25600</v>
       </c>
       <c r="G81" s="3">
-        <v>26400</v>
+        <v>25400</v>
       </c>
       <c r="H81" s="3">
-        <v>51100</v>
+        <v>49100</v>
       </c>
       <c r="I81" s="3">
-        <v>16300</v>
+        <v>15600</v>
       </c>
       <c r="J81" s="3">
-        <v>17900</v>
+        <v>17200</v>
       </c>
       <c r="K81" s="3">
         <v>7200</v>
@@ -4986,25 +4986,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34300</v>
+        <v>32900</v>
       </c>
       <c r="E89" s="3">
-        <v>48100</v>
+        <v>46200</v>
       </c>
       <c r="F89" s="3">
-        <v>32600</v>
+        <v>31300</v>
       </c>
       <c r="G89" s="3">
-        <v>31800</v>
+        <v>30600</v>
       </c>
       <c r="H89" s="3">
-        <v>52900</v>
+        <v>50800</v>
       </c>
       <c r="I89" s="3">
-        <v>36400</v>
+        <v>35000</v>
       </c>
       <c r="J89" s="3">
-        <v>24400</v>
+        <v>23400</v>
       </c>
       <c r="K89" s="3">
         <v>16900</v>
@@ -5068,25 +5068,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20900</v>
+        <v>-387300</v>
       </c>
       <c r="E91" s="3">
-        <v>-21600</v>
+        <v>-401600</v>
       </c>
       <c r="F91" s="3">
-        <v>-9800</v>
+        <v>-182500</v>
       </c>
       <c r="G91" s="3">
-        <v>-10400</v>
+        <v>-193600</v>
       </c>
       <c r="H91" s="3">
-        <v>-10900</v>
+        <v>-202100</v>
       </c>
       <c r="I91" s="3">
-        <v>-7700</v>
+        <v>-143800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2000</v>
+        <v>-37300</v>
       </c>
       <c r="K91" s="3">
         <v>-5800</v>
@@ -5245,25 +5245,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22700</v>
+        <v>-21800</v>
       </c>
       <c r="E94" s="3">
-        <v>-23000</v>
+        <v>-22100</v>
       </c>
       <c r="F94" s="3">
-        <v>-10700</v>
+        <v>-10300</v>
       </c>
       <c r="G94" s="3">
-        <v>-12100</v>
+        <v>-11600</v>
       </c>
       <c r="H94" s="3">
-        <v>-12000</v>
+        <v>-11500</v>
       </c>
       <c r="I94" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="K94" s="3">
         <v>-2700</v>
@@ -5327,25 +5327,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-18500</v>
+        <v>-17700</v>
       </c>
       <c r="E96" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="F96" s="3">
-        <v>-18600</v>
+        <v>-17900</v>
       </c>
       <c r="G96" s="3">
-        <v>-18400</v>
+        <v>-17700</v>
       </c>
       <c r="H96" s="3">
-        <v>-16100</v>
+        <v>-15500</v>
       </c>
       <c r="I96" s="3">
-        <v>-23000</v>
+        <v>-22100</v>
       </c>
       <c r="J96" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5563,25 +5563,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18900</v>
+        <v>-18200</v>
       </c>
       <c r="E100" s="3">
-        <v>-9700</v>
+        <v>-9300</v>
       </c>
       <c r="F100" s="3">
-        <v>-19100</v>
+        <v>-18300</v>
       </c>
       <c r="G100" s="3">
-        <v>-18800</v>
+        <v>-18000</v>
       </c>
       <c r="H100" s="3">
-        <v>-16400</v>
+        <v>-15800</v>
       </c>
       <c r="I100" s="3">
-        <v>35100</v>
+        <v>33700</v>
       </c>
       <c r="J100" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="K100" s="3">
         <v>-10100</v>
@@ -5681,25 +5681,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7200</v>
+        <v>-6900</v>
       </c>
       <c r="E102" s="3">
-        <v>15400</v>
+        <v>14800</v>
       </c>
       <c r="F102" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G102" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H102" s="3">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="I102" s="3">
-        <v>63100</v>
+        <v>60600</v>
       </c>
       <c r="J102" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="K102" s="3">
         <v>4000</v>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>137300</v>
+        <v>140700</v>
       </c>
       <c r="E8" s="3">
-        <v>135500</v>
+        <v>138800</v>
       </c>
       <c r="F8" s="3">
-        <v>129200</v>
+        <v>132400</v>
       </c>
       <c r="G8" s="3">
-        <v>118500</v>
+        <v>121400</v>
       </c>
       <c r="H8" s="3">
-        <v>154000</v>
+        <v>157800</v>
       </c>
       <c r="I8" s="3">
-        <v>107200</v>
+        <v>109900</v>
       </c>
       <c r="J8" s="3">
-        <v>109200</v>
+        <v>111900</v>
       </c>
       <c r="K8" s="3">
         <v>86900</v>
@@ -819,25 +819,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>102700</v>
+        <v>105200</v>
       </c>
       <c r="E9" s="3">
-        <v>98800</v>
+        <v>101200</v>
       </c>
       <c r="F9" s="3">
-        <v>94700</v>
+        <v>97000</v>
       </c>
       <c r="G9" s="3">
-        <v>87200</v>
+        <v>89400</v>
       </c>
       <c r="H9" s="3">
-        <v>88000</v>
+        <v>90200</v>
       </c>
       <c r="I9" s="3">
-        <v>72100</v>
+        <v>73900</v>
       </c>
       <c r="J9" s="3">
-        <v>79900</v>
+        <v>81800</v>
       </c>
       <c r="K9" s="3">
         <v>75100</v>
@@ -878,25 +878,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>34600</v>
+        <v>35400</v>
       </c>
       <c r="E10" s="3">
-        <v>36700</v>
+        <v>37600</v>
       </c>
       <c r="F10" s="3">
-        <v>34500</v>
+        <v>35400</v>
       </c>
       <c r="G10" s="3">
-        <v>31300</v>
+        <v>32100</v>
       </c>
       <c r="H10" s="3">
-        <v>66000</v>
+        <v>67600</v>
       </c>
       <c r="I10" s="3">
-        <v>35200</v>
+        <v>36000</v>
       </c>
       <c r="J10" s="3">
-        <v>29300</v>
+        <v>30100</v>
       </c>
       <c r="K10" s="3">
         <v>11800</v>
@@ -1216,25 +1216,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>106900</v>
+        <v>109500</v>
       </c>
       <c r="E17" s="3">
-        <v>98200</v>
+        <v>100600</v>
       </c>
       <c r="F17" s="3">
-        <v>98900</v>
+        <v>101400</v>
       </c>
       <c r="G17" s="3">
-        <v>89500</v>
+        <v>91700</v>
       </c>
       <c r="H17" s="3">
-        <v>89000</v>
+        <v>91200</v>
       </c>
       <c r="I17" s="3">
-        <v>83700</v>
+        <v>85700</v>
       </c>
       <c r="J17" s="3">
-        <v>84300</v>
+        <v>86300</v>
       </c>
       <c r="K17" s="3">
         <v>77400</v>
@@ -1275,25 +1275,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30400</v>
+        <v>31200</v>
       </c>
       <c r="E18" s="3">
-        <v>37300</v>
+        <v>38200</v>
       </c>
       <c r="F18" s="3">
-        <v>30300</v>
+        <v>31000</v>
       </c>
       <c r="G18" s="3">
-        <v>29000</v>
+        <v>29700</v>
       </c>
       <c r="H18" s="3">
-        <v>65000</v>
+        <v>66600</v>
       </c>
       <c r="I18" s="3">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="J18" s="3">
-        <v>24900</v>
+        <v>25600</v>
       </c>
       <c r="K18" s="3">
         <v>9500</v>
@@ -1357,22 +1357,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="E20" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F20" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G20" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H20" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I20" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1416,25 +1416,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42500</v>
+        <v>43500</v>
       </c>
       <c r="E21" s="3">
-        <v>40300</v>
+        <v>41300</v>
       </c>
       <c r="F21" s="3">
-        <v>41800</v>
+        <v>42800</v>
       </c>
       <c r="G21" s="3">
-        <v>32700</v>
+        <v>33500</v>
       </c>
       <c r="H21" s="3">
-        <v>75300</v>
+        <v>77200</v>
       </c>
       <c r="I21" s="3">
-        <v>26300</v>
+        <v>27000</v>
       </c>
       <c r="J21" s="3">
-        <v>31700</v>
+        <v>32500</v>
       </c>
       <c r="K21" s="3">
         <v>10600</v>
@@ -1534,25 +1534,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>36800</v>
+        <v>37700</v>
       </c>
       <c r="E23" s="3">
-        <v>40800</v>
+        <v>41800</v>
       </c>
       <c r="F23" s="3">
-        <v>34600</v>
+        <v>35500</v>
       </c>
       <c r="G23" s="3">
-        <v>32800</v>
+        <v>33600</v>
       </c>
       <c r="H23" s="3">
-        <v>68700</v>
+        <v>70400</v>
       </c>
       <c r="I23" s="3">
-        <v>25600</v>
+        <v>26200</v>
       </c>
       <c r="J23" s="3">
-        <v>25100</v>
+        <v>25700</v>
       </c>
       <c r="K23" s="3">
         <v>8900</v>
@@ -1593,25 +1593,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F24" s="3">
         <v>9200</v>
       </c>
-      <c r="E24" s="3">
-        <v>8300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>9000</v>
-      </c>
       <c r="G24" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="H24" s="3">
-        <v>19600</v>
+        <v>20100</v>
       </c>
       <c r="I24" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="J24" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="K24" s="3">
         <v>1700</v>
@@ -1711,25 +1711,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="E26" s="3">
-        <v>32500</v>
+        <v>33300</v>
       </c>
       <c r="F26" s="3">
-        <v>25600</v>
+        <v>26300</v>
       </c>
       <c r="G26" s="3">
-        <v>25400</v>
+        <v>26000</v>
       </c>
       <c r="H26" s="3">
-        <v>49100</v>
+        <v>50300</v>
       </c>
       <c r="I26" s="3">
-        <v>15600</v>
+        <v>16000</v>
       </c>
       <c r="J26" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="K26" s="3">
         <v>7200</v>
@@ -1770,25 +1770,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="E27" s="3">
-        <v>32500</v>
+        <v>33300</v>
       </c>
       <c r="F27" s="3">
-        <v>25600</v>
+        <v>26300</v>
       </c>
       <c r="G27" s="3">
-        <v>25400</v>
+        <v>26000</v>
       </c>
       <c r="H27" s="3">
-        <v>49100</v>
+        <v>50300</v>
       </c>
       <c r="I27" s="3">
-        <v>15600</v>
+        <v>16000</v>
       </c>
       <c r="J27" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="K27" s="3">
         <v>7200</v>
@@ -2065,22 +2065,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6400</v>
+        <v>-6600</v>
       </c>
       <c r="E32" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="F32" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="G32" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="H32" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="I32" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -2124,25 +2124,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="E33" s="3">
-        <v>32500</v>
+        <v>33300</v>
       </c>
       <c r="F33" s="3">
-        <v>25600</v>
+        <v>26300</v>
       </c>
       <c r="G33" s="3">
-        <v>25400</v>
+        <v>26000</v>
       </c>
       <c r="H33" s="3">
-        <v>49100</v>
+        <v>50300</v>
       </c>
       <c r="I33" s="3">
-        <v>15600</v>
+        <v>16000</v>
       </c>
       <c r="J33" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="K33" s="3">
         <v>7200</v>
@@ -2242,25 +2242,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="E35" s="3">
-        <v>32500</v>
+        <v>33300</v>
       </c>
       <c r="F35" s="3">
-        <v>25600</v>
+        <v>26300</v>
       </c>
       <c r="G35" s="3">
-        <v>25400</v>
+        <v>26000</v>
       </c>
       <c r="H35" s="3">
-        <v>49100</v>
+        <v>50300</v>
       </c>
       <c r="I35" s="3">
-        <v>15600</v>
+        <v>16000</v>
       </c>
       <c r="J35" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="K35" s="3">
         <v>7200</v>
@@ -2411,25 +2411,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>123700</v>
+        <v>126800</v>
       </c>
       <c r="E41" s="3">
-        <v>130600</v>
+        <v>133800</v>
       </c>
       <c r="F41" s="3">
-        <v>115800</v>
+        <v>118600</v>
       </c>
       <c r="G41" s="3">
-        <v>112700</v>
+        <v>115500</v>
       </c>
       <c r="H41" s="3">
-        <v>112200</v>
+        <v>115000</v>
       </c>
       <c r="I41" s="3">
-        <v>88700</v>
+        <v>90900</v>
       </c>
       <c r="J41" s="3">
-        <v>28100</v>
+        <v>28800</v>
       </c>
       <c r="K41" s="3">
         <v>16100</v>
@@ -2529,25 +2529,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="E43" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="F43" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="G43" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="H43" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="I43" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="J43" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="K43" s="3">
         <v>4100</v>
@@ -2588,25 +2588,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19300</v>
+        <v>19800</v>
       </c>
       <c r="E44" s="3">
-        <v>20100</v>
+        <v>20600</v>
       </c>
       <c r="F44" s="3">
-        <v>21700</v>
+        <v>22300</v>
       </c>
       <c r="G44" s="3">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="H44" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="I44" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="J44" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="K44" s="3">
         <v>17500</v>
@@ -2706,25 +2706,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>152400</v>
+        <v>156200</v>
       </c>
       <c r="E46" s="3">
-        <v>159100</v>
+        <v>163100</v>
       </c>
       <c r="F46" s="3">
-        <v>145900</v>
+        <v>149500</v>
       </c>
       <c r="G46" s="3">
-        <v>138200</v>
+        <v>141600</v>
       </c>
       <c r="H46" s="3">
-        <v>138200</v>
+        <v>141600</v>
       </c>
       <c r="I46" s="3">
-        <v>113300</v>
+        <v>116000</v>
       </c>
       <c r="J46" s="3">
-        <v>50300</v>
+        <v>51500</v>
       </c>
       <c r="K46" s="3">
         <v>37800</v>
@@ -2765,25 +2765,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>46600</v>
+        <v>47700</v>
       </c>
       <c r="E47" s="3">
-        <v>44600</v>
+        <v>45700</v>
       </c>
       <c r="F47" s="3">
-        <v>42300</v>
+        <v>43300</v>
       </c>
       <c r="G47" s="3">
-        <v>42400</v>
+        <v>43400</v>
       </c>
       <c r="H47" s="3">
-        <v>47100</v>
+        <v>48200</v>
       </c>
       <c r="I47" s="3">
-        <v>44300</v>
+        <v>45400</v>
       </c>
       <c r="J47" s="3">
-        <v>33400</v>
+        <v>34200</v>
       </c>
       <c r="K47" s="3">
         <v>35600</v>
@@ -2824,25 +2824,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>174100</v>
+        <v>178400</v>
       </c>
       <c r="E48" s="3">
-        <v>159500</v>
+        <v>163400</v>
       </c>
       <c r="F48" s="3">
-        <v>147600</v>
+        <v>151300</v>
       </c>
       <c r="G48" s="3">
-        <v>145300</v>
+        <v>148900</v>
       </c>
       <c r="H48" s="3">
-        <v>139500</v>
+        <v>142900</v>
       </c>
       <c r="I48" s="3">
-        <v>135600</v>
+        <v>138900</v>
       </c>
       <c r="J48" s="3">
-        <v>141600</v>
+        <v>145100</v>
       </c>
       <c r="K48" s="3">
         <v>159800</v>
@@ -3060,16 +3060,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E52" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F52" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G52" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -3178,25 +3178,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>376100</v>
+        <v>385400</v>
       </c>
       <c r="E54" s="3">
-        <v>366100</v>
+        <v>375100</v>
       </c>
       <c r="F54" s="3">
-        <v>339200</v>
+        <v>347500</v>
       </c>
       <c r="G54" s="3">
-        <v>328300</v>
+        <v>336400</v>
       </c>
       <c r="H54" s="3">
-        <v>325200</v>
+        <v>333100</v>
       </c>
       <c r="I54" s="3">
-        <v>293500</v>
+        <v>300700</v>
       </c>
       <c r="J54" s="3">
-        <v>225800</v>
+        <v>231300</v>
       </c>
       <c r="K54" s="3">
         <v>233700</v>
@@ -3283,25 +3283,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27100</v>
+        <v>27800</v>
       </c>
       <c r="E57" s="3">
-        <v>30900</v>
+        <v>31700</v>
       </c>
       <c r="F57" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="G57" s="3">
-        <v>26400</v>
+        <v>27000</v>
       </c>
       <c r="H57" s="3">
-        <v>22500</v>
+        <v>23100</v>
       </c>
       <c r="I57" s="3">
-        <v>24800</v>
+        <v>25400</v>
       </c>
       <c r="J57" s="3">
-        <v>19700</v>
+        <v>20200</v>
       </c>
       <c r="K57" s="3">
         <v>24100</v>
@@ -3342,7 +3342,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -3410,16 +3410,16 @@
         <v>1900</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="I59" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="J59" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K59" s="3">
         <v>1600</v>
@@ -3460,25 +3460,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28500</v>
+        <v>29200</v>
       </c>
       <c r="E60" s="3">
-        <v>32400</v>
+        <v>33100</v>
       </c>
       <c r="F60" s="3">
-        <v>28600</v>
+        <v>29300</v>
       </c>
       <c r="G60" s="3">
-        <v>27500</v>
+        <v>28200</v>
       </c>
       <c r="H60" s="3">
-        <v>30700</v>
+        <v>31400</v>
       </c>
       <c r="I60" s="3">
-        <v>38600</v>
+        <v>39500</v>
       </c>
       <c r="J60" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="K60" s="3">
         <v>26400</v>
@@ -3519,7 +3519,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="3">
         <v>1700</v>
@@ -3531,13 +3531,13 @@
         <v>2000</v>
       </c>
       <c r="H61" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I61" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J61" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3578,25 +3578,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55200</v>
+        <v>56600</v>
       </c>
       <c r="E62" s="3">
-        <v>50700</v>
+        <v>51900</v>
       </c>
       <c r="F62" s="3">
-        <v>51800</v>
+        <v>53100</v>
       </c>
       <c r="G62" s="3">
-        <v>49600</v>
+        <v>50800</v>
       </c>
       <c r="H62" s="3">
-        <v>48300</v>
+        <v>49500</v>
       </c>
       <c r="I62" s="3">
-        <v>44100</v>
+        <v>45200</v>
       </c>
       <c r="J62" s="3">
-        <v>50400</v>
+        <v>51700</v>
       </c>
       <c r="K62" s="3">
         <v>52600</v>
@@ -3814,25 +3814,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>84900</v>
+        <v>87000</v>
       </c>
       <c r="E66" s="3">
-        <v>84700</v>
+        <v>86800</v>
       </c>
       <c r="F66" s="3">
-        <v>82000</v>
+        <v>84100</v>
       </c>
       <c r="G66" s="3">
-        <v>79000</v>
+        <v>80900</v>
       </c>
       <c r="H66" s="3">
-        <v>80700</v>
+        <v>82700</v>
       </c>
       <c r="I66" s="3">
-        <v>84600</v>
+        <v>86600</v>
       </c>
       <c r="J66" s="3">
-        <v>76600</v>
+        <v>78500</v>
       </c>
       <c r="K66" s="3">
         <v>79000</v>
@@ -4144,13 +4144,13 @@
         <v>8</v>
       </c>
       <c r="H72" s="3">
-        <v>244500</v>
+        <v>250500</v>
       </c>
       <c r="I72" s="3">
-        <v>209000</v>
+        <v>214100</v>
       </c>
       <c r="J72" s="3">
-        <v>149200</v>
+        <v>152900</v>
       </c>
       <c r="K72" s="3">
         <v>154800</v>
@@ -4368,25 +4368,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>291200</v>
+        <v>298400</v>
       </c>
       <c r="E76" s="3">
-        <v>281400</v>
+        <v>288300</v>
       </c>
       <c r="F76" s="3">
-        <v>257200</v>
+        <v>263500</v>
       </c>
       <c r="G76" s="3">
-        <v>249300</v>
+        <v>255400</v>
       </c>
       <c r="H76" s="3">
-        <v>244500</v>
+        <v>250500</v>
       </c>
       <c r="I76" s="3">
-        <v>209000</v>
+        <v>214100</v>
       </c>
       <c r="J76" s="3">
-        <v>149200</v>
+        <v>152900</v>
       </c>
       <c r="K76" s="3">
         <v>154800</v>
@@ -4550,25 +4550,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="E81" s="3">
-        <v>32500</v>
+        <v>33300</v>
       </c>
       <c r="F81" s="3">
-        <v>25600</v>
+        <v>26300</v>
       </c>
       <c r="G81" s="3">
-        <v>25400</v>
+        <v>26000</v>
       </c>
       <c r="H81" s="3">
-        <v>49100</v>
+        <v>50300</v>
       </c>
       <c r="I81" s="3">
-        <v>15600</v>
+        <v>16000</v>
       </c>
       <c r="J81" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="K81" s="3">
         <v>7200</v>
@@ -4986,25 +4986,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>32900</v>
+        <v>33700</v>
       </c>
       <c r="E89" s="3">
-        <v>46200</v>
+        <v>47300</v>
       </c>
       <c r="F89" s="3">
+        <v>32100</v>
+      </c>
+      <c r="G89" s="3">
         <v>31300</v>
       </c>
-      <c r="G89" s="3">
-        <v>30600</v>
-      </c>
       <c r="H89" s="3">
-        <v>50800</v>
+        <v>52100</v>
       </c>
       <c r="I89" s="3">
-        <v>35000</v>
+        <v>35800</v>
       </c>
       <c r="J89" s="3">
-        <v>23400</v>
+        <v>24000</v>
       </c>
       <c r="K89" s="3">
         <v>16900</v>
@@ -5245,25 +5245,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21800</v>
+        <v>-22300</v>
       </c>
       <c r="E94" s="3">
-        <v>-22100</v>
+        <v>-22700</v>
       </c>
       <c r="F94" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="G94" s="3">
-        <v>-11600</v>
+        <v>-11900</v>
       </c>
       <c r="H94" s="3">
-        <v>-11500</v>
+        <v>-11800</v>
       </c>
       <c r="I94" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K94" s="3">
         <v>-2700</v>
@@ -5327,25 +5327,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-17700</v>
+        <v>-18100</v>
       </c>
       <c r="E96" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="F96" s="3">
-        <v>-17900</v>
+        <v>-18300</v>
       </c>
       <c r="G96" s="3">
-        <v>-17700</v>
+        <v>-18100</v>
       </c>
       <c r="H96" s="3">
-        <v>-15500</v>
+        <v>-15800</v>
       </c>
       <c r="I96" s="3">
-        <v>-22100</v>
+        <v>-22700</v>
       </c>
       <c r="J96" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5563,25 +5563,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18200</v>
+        <v>-18600</v>
       </c>
       <c r="E100" s="3">
-        <v>-9300</v>
+        <v>-9500</v>
       </c>
       <c r="F100" s="3">
-        <v>-18300</v>
+        <v>-18700</v>
       </c>
       <c r="G100" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="H100" s="3">
-        <v>-15800</v>
+        <v>-16200</v>
       </c>
       <c r="I100" s="3">
-        <v>33700</v>
+        <v>34500</v>
       </c>
       <c r="J100" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="K100" s="3">
         <v>-10100</v>
@@ -5681,25 +5681,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="E102" s="3">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="F102" s="3">
         <v>3100</v>
       </c>
       <c r="G102" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H102" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="I102" s="3">
-        <v>60600</v>
+        <v>62100</v>
       </c>
       <c r="J102" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="K102" s="3">
         <v>4000</v>

--- a/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>DRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,274 +665,287 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42094</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>140700</v>
+        <v>154800</v>
       </c>
       <c r="E8" s="3">
-        <v>138800</v>
+        <v>144600</v>
       </c>
       <c r="F8" s="3">
-        <v>132400</v>
+        <v>142700</v>
       </c>
       <c r="G8" s="3">
-        <v>121400</v>
+        <v>136100</v>
       </c>
       <c r="H8" s="3">
-        <v>157800</v>
+        <v>124800</v>
       </c>
       <c r="I8" s="3">
-        <v>109900</v>
+        <v>162200</v>
       </c>
       <c r="J8" s="3">
+        <v>113000</v>
+      </c>
+      <c r="K8" s="3">
         <v>111900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>86900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>76500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>82500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>75500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>70500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>87400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>77500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>39700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>37500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>105200</v>
+        <v>104900</v>
       </c>
       <c r="E9" s="3">
-        <v>101200</v>
+        <v>108200</v>
       </c>
       <c r="F9" s="3">
-        <v>97000</v>
+        <v>104100</v>
       </c>
       <c r="G9" s="3">
-        <v>89400</v>
+        <v>99800</v>
       </c>
       <c r="H9" s="3">
-        <v>90200</v>
+        <v>91900</v>
       </c>
       <c r="I9" s="3">
-        <v>73900</v>
+        <v>92700</v>
       </c>
       <c r="J9" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K9" s="3">
         <v>81800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>74500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>74800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>75000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>75300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>67300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>78500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>73100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>34800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>35400</v>
+        <v>49900</v>
       </c>
       <c r="E10" s="3">
-        <v>37600</v>
+        <v>36400</v>
       </c>
       <c r="F10" s="3">
-        <v>35400</v>
+        <v>38700</v>
       </c>
       <c r="G10" s="3">
-        <v>32100</v>
+        <v>36400</v>
       </c>
       <c r="H10" s="3">
-        <v>67600</v>
+        <v>33000</v>
       </c>
       <c r="I10" s="3">
-        <v>36000</v>
+        <v>69500</v>
       </c>
       <c r="J10" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K10" s="3">
         <v>30100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,8 +967,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,8 +1027,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1072,8 +1089,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,35 +1124,38 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,8 +1213,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1210,126 +1236,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>109500</v>
+        <v>109300</v>
       </c>
       <c r="E17" s="3">
-        <v>100600</v>
+        <v>112600</v>
       </c>
       <c r="F17" s="3">
-        <v>101400</v>
+        <v>103400</v>
       </c>
       <c r="G17" s="3">
-        <v>91700</v>
+        <v>104200</v>
       </c>
       <c r="H17" s="3">
-        <v>91200</v>
+        <v>94300</v>
       </c>
       <c r="I17" s="3">
-        <v>85700</v>
+        <v>93800</v>
       </c>
       <c r="J17" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K17" s="3">
         <v>86300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>77000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>77200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>70300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>81700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>75100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>35900</v>
       </c>
       <c r="T17" s="3">
         <v>35900</v>
       </c>
       <c r="U17" s="3">
+        <v>35900</v>
+      </c>
+      <c r="V17" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>31200</v>
+        <v>45500</v>
       </c>
       <c r="E18" s="3">
-        <v>38200</v>
+        <v>32000</v>
       </c>
       <c r="F18" s="3">
-        <v>31000</v>
+        <v>39300</v>
       </c>
       <c r="G18" s="3">
-        <v>29700</v>
+        <v>31900</v>
       </c>
       <c r="H18" s="3">
-        <v>66600</v>
+        <v>30600</v>
       </c>
       <c r="I18" s="3">
-        <v>24100</v>
+        <v>68400</v>
       </c>
       <c r="J18" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K18" s="3">
         <v>25600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1351,126 +1384,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6600</v>
+        <v>7600</v>
       </c>
       <c r="E20" s="3">
-        <v>3600</v>
+        <v>6800</v>
       </c>
       <c r="F20" s="3">
-        <v>4400</v>
+        <v>3700</v>
       </c>
       <c r="G20" s="3">
-        <v>3900</v>
+        <v>4600</v>
       </c>
       <c r="H20" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-200</v>
       </c>
       <c r="Q20" s="3">
         <v>-200</v>
       </c>
       <c r="R20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>43500</v>
+        <v>53100</v>
       </c>
       <c r="E21" s="3">
-        <v>41300</v>
+        <v>44700</v>
       </c>
       <c r="F21" s="3">
-        <v>42800</v>
+        <v>42500</v>
       </c>
       <c r="G21" s="3">
-        <v>33500</v>
+        <v>44000</v>
       </c>
       <c r="H21" s="3">
-        <v>77200</v>
+        <v>34400</v>
       </c>
       <c r="I21" s="3">
-        <v>27000</v>
+        <v>79300</v>
       </c>
       <c r="J21" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K21" s="3">
         <v>32500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1528,126 +1568,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>37700</v>
+        <v>53100</v>
       </c>
       <c r="E23" s="3">
-        <v>41800</v>
+        <v>38800</v>
       </c>
       <c r="F23" s="3">
-        <v>35500</v>
+        <v>43000</v>
       </c>
       <c r="G23" s="3">
-        <v>33600</v>
+        <v>36500</v>
       </c>
       <c r="H23" s="3">
-        <v>70400</v>
+        <v>34600</v>
       </c>
       <c r="I23" s="3">
-        <v>26200</v>
+        <v>72400</v>
       </c>
       <c r="J23" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K23" s="3">
         <v>25700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>5500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G24" s="3">
         <v>9400</v>
       </c>
-      <c r="E24" s="3">
-        <v>8500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>9200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>7600</v>
-      </c>
       <c r="H24" s="3">
-        <v>20100</v>
+        <v>7900</v>
       </c>
       <c r="I24" s="3">
-        <v>10200</v>
+        <v>20700</v>
       </c>
       <c r="J24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1705,126 +1754,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28300</v>
+        <v>40700</v>
       </c>
       <c r="E26" s="3">
-        <v>33300</v>
+        <v>29100</v>
       </c>
       <c r="F26" s="3">
-        <v>26300</v>
+        <v>34200</v>
       </c>
       <c r="G26" s="3">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="H26" s="3">
-        <v>50300</v>
+        <v>26700</v>
       </c>
       <c r="I26" s="3">
-        <v>16000</v>
+        <v>51700</v>
       </c>
       <c r="J26" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K26" s="3">
         <v>17600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28300</v>
+        <v>40700</v>
       </c>
       <c r="E27" s="3">
-        <v>33300</v>
+        <v>29100</v>
       </c>
       <c r="F27" s="3">
-        <v>26300</v>
+        <v>34200</v>
       </c>
       <c r="G27" s="3">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="H27" s="3">
-        <v>50300</v>
+        <v>26700</v>
       </c>
       <c r="I27" s="3">
-        <v>16000</v>
+        <v>51700</v>
       </c>
       <c r="J27" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K27" s="3">
         <v>17600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1882,8 +1940,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1941,8 +2002,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2000,8 +2064,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2059,126 +2126,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6600</v>
+        <v>-7600</v>
       </c>
       <c r="E32" s="3">
-        <v>-3600</v>
+        <v>-6800</v>
       </c>
       <c r="F32" s="3">
-        <v>-4400</v>
+        <v>-3700</v>
       </c>
       <c r="G32" s="3">
-        <v>-3900</v>
+        <v>-4600</v>
       </c>
       <c r="H32" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="I32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>200</v>
       </c>
       <c r="Q32" s="3">
         <v>200</v>
       </c>
       <c r="R32" s="3">
+        <v>200</v>
+      </c>
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28300</v>
+        <v>40700</v>
       </c>
       <c r="E33" s="3">
-        <v>33300</v>
+        <v>29100</v>
       </c>
       <c r="F33" s="3">
-        <v>26300</v>
+        <v>34200</v>
       </c>
       <c r="G33" s="3">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="H33" s="3">
-        <v>50300</v>
+        <v>26700</v>
       </c>
       <c r="I33" s="3">
-        <v>16000</v>
+        <v>51700</v>
       </c>
       <c r="J33" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K33" s="3">
         <v>17600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2236,131 +2312,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28300</v>
+        <v>40700</v>
       </c>
       <c r="E35" s="3">
-        <v>33300</v>
+        <v>29100</v>
       </c>
       <c r="F35" s="3">
-        <v>26300</v>
+        <v>34200</v>
       </c>
       <c r="G35" s="3">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="H35" s="3">
-        <v>50300</v>
+        <v>26700</v>
       </c>
       <c r="I35" s="3">
-        <v>16000</v>
+        <v>51700</v>
       </c>
       <c r="J35" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K35" s="3">
         <v>17600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42094</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2382,8 +2467,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2405,67 +2491,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>126800</v>
+        <v>134600</v>
       </c>
       <c r="E41" s="3">
-        <v>133800</v>
+        <v>130300</v>
       </c>
       <c r="F41" s="3">
-        <v>118600</v>
+        <v>137600</v>
       </c>
       <c r="G41" s="3">
-        <v>115500</v>
+        <v>122000</v>
       </c>
       <c r="H41" s="3">
-        <v>115000</v>
+        <v>118800</v>
       </c>
       <c r="I41" s="3">
-        <v>90900</v>
+        <v>118200</v>
       </c>
       <c r="J41" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K41" s="3">
         <v>28800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2523,126 +2613,135 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9600</v>
+        <v>17900</v>
       </c>
       <c r="E43" s="3">
-        <v>8600</v>
+        <v>9900</v>
       </c>
       <c r="F43" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="G43" s="3">
-        <v>8100</v>
+        <v>8800</v>
       </c>
       <c r="H43" s="3">
-        <v>9500</v>
+        <v>8300</v>
       </c>
       <c r="I43" s="3">
-        <v>8000</v>
+        <v>9800</v>
       </c>
       <c r="J43" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K43" s="3">
         <v>6500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19800</v>
+        <v>22500</v>
       </c>
       <c r="E44" s="3">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="F44" s="3">
-        <v>22300</v>
+        <v>21200</v>
       </c>
       <c r="G44" s="3">
-        <v>18000</v>
+        <v>22900</v>
       </c>
       <c r="H44" s="3">
-        <v>17100</v>
+        <v>18500</v>
       </c>
       <c r="I44" s="3">
-        <v>17100</v>
+        <v>17600</v>
       </c>
       <c r="J44" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K44" s="3">
         <v>16200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>14400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10800</v>
-      </c>
-      <c r="R44" s="3">
-        <v>11900</v>
       </c>
       <c r="S44" s="3">
         <v>11900</v>
       </c>
       <c r="T44" s="3">
+        <v>11900</v>
+      </c>
+      <c r="U44" s="3">
         <v>10000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,202 +2782,214 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
-      </c>
-      <c r="R45" s="3">
-        <v>700</v>
       </c>
       <c r="S45" s="3">
         <v>700</v>
       </c>
       <c r="T45" s="3">
+        <v>700</v>
+      </c>
+      <c r="U45" s="3">
         <v>1700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>156200</v>
+        <v>175100</v>
       </c>
       <c r="E46" s="3">
-        <v>163100</v>
+        <v>160600</v>
       </c>
       <c r="F46" s="3">
-        <v>149500</v>
+        <v>167600</v>
       </c>
       <c r="G46" s="3">
-        <v>141600</v>
+        <v>153700</v>
       </c>
       <c r="H46" s="3">
-        <v>141600</v>
+        <v>145600</v>
       </c>
       <c r="I46" s="3">
-        <v>116000</v>
+        <v>145500</v>
       </c>
       <c r="J46" s="3">
+        <v>119300</v>
+      </c>
+      <c r="K46" s="3">
         <v>51500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>41200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>35900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>40300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>40100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>43100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>37700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47700</v>
+        <v>52200</v>
       </c>
       <c r="E47" s="3">
-        <v>45700</v>
+        <v>49100</v>
       </c>
       <c r="F47" s="3">
-        <v>43300</v>
+        <v>47000</v>
       </c>
       <c r="G47" s="3">
-        <v>43400</v>
+        <v>44500</v>
       </c>
       <c r="H47" s="3">
-        <v>48200</v>
+        <v>44600</v>
       </c>
       <c r="I47" s="3">
-        <v>45400</v>
+        <v>49600</v>
       </c>
       <c r="J47" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K47" s="3">
         <v>34200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>35600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>39000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>15500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>14200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>14400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>16700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>178400</v>
+        <v>213000</v>
       </c>
       <c r="E48" s="3">
-        <v>163400</v>
+        <v>183400</v>
       </c>
       <c r="F48" s="3">
-        <v>151300</v>
+        <v>168000</v>
       </c>
       <c r="G48" s="3">
-        <v>148900</v>
+        <v>155500</v>
       </c>
       <c r="H48" s="3">
-        <v>142900</v>
+        <v>153100</v>
       </c>
       <c r="I48" s="3">
-        <v>138900</v>
+        <v>146900</v>
       </c>
       <c r="J48" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K48" s="3">
         <v>145100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>159800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>174700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>90000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>98800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>98200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>92500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>107400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>114100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>120300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>119900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2936,8 +3047,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2995,8 +3109,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3054,43 +3171,46 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="E52" s="3">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="F52" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="G52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
+        <v>500</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
-        <v>400</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -3099,13 +3219,13 @@
         <v>300</v>
       </c>
       <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
@@ -3113,8 +3233,11 @@
       <c r="U52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3172,67 +3295,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>385400</v>
+        <v>444300</v>
       </c>
       <c r="E54" s="3">
-        <v>375100</v>
+        <v>396200</v>
       </c>
       <c r="F54" s="3">
-        <v>347500</v>
+        <v>385600</v>
       </c>
       <c r="G54" s="3">
-        <v>336400</v>
+        <v>357300</v>
       </c>
       <c r="H54" s="3">
-        <v>333100</v>
+        <v>345800</v>
       </c>
       <c r="I54" s="3">
-        <v>300700</v>
+        <v>342500</v>
       </c>
       <c r="J54" s="3">
+        <v>309200</v>
+      </c>
+      <c r="K54" s="3">
         <v>231300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>233700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>249300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>146200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>156500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>150000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>140300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>162300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>168600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>177300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>174400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3254,8 +3383,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3277,99 +3407,103 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>32600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>27300</v>
+      </c>
+      <c r="H57" s="3">
         <v>27800</v>
       </c>
-      <c r="E57" s="3">
-        <v>31700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>26500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>27000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>23100</v>
-      </c>
       <c r="I57" s="3">
-        <v>25400</v>
+        <v>23700</v>
       </c>
       <c r="J57" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K57" s="3">
         <v>20200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>24100</v>
       </c>
       <c r="L57" s="3">
         <v>24100</v>
       </c>
       <c r="M57" s="3">
+        <v>24100</v>
+      </c>
+      <c r="N57" s="3">
         <v>18800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
       </c>
       <c r="F58" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="G58" s="3">
         <v>900</v>
       </c>
       <c r="H58" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
       </c>
       <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3377,8 +3511,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>200</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
@@ -3387,172 +3521,181 @@
         <v>200</v>
       </c>
       <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
         <v>1800</v>
-      </c>
-      <c r="T58" s="3">
-        <v>5600</v>
       </c>
       <c r="U58" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
-        <v>1900</v>
-      </c>
       <c r="G59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
-        <v>7800</v>
-      </c>
       <c r="I59" s="3">
-        <v>13600</v>
+        <v>8000</v>
       </c>
       <c r="J59" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1100</v>
       </c>
       <c r="N59" s="3">
         <v>1100</v>
       </c>
       <c r="O59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1500</v>
       </c>
       <c r="Q59" s="3">
         <v>1500</v>
       </c>
       <c r="R59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="S59" s="3">
         <v>1400</v>
       </c>
       <c r="T59" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="U59" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29200</v>
+        <v>39200</v>
       </c>
       <c r="E60" s="3">
-        <v>33100</v>
+        <v>30000</v>
       </c>
       <c r="F60" s="3">
-        <v>29300</v>
+        <v>34100</v>
       </c>
       <c r="G60" s="3">
-        <v>28200</v>
+        <v>30200</v>
       </c>
       <c r="H60" s="3">
-        <v>31400</v>
+        <v>29000</v>
       </c>
       <c r="I60" s="3">
-        <v>39500</v>
+        <v>32300</v>
       </c>
       <c r="J60" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K60" s="3">
         <v>24500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G61" s="3">
         <v>1700</v>
       </c>
-      <c r="F61" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J61" s="3">
         <v>2000</v>
       </c>
-      <c r="H61" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>10300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1100</v>
       </c>
       <c r="P61" s="3">
         <v>1100</v>
@@ -3561,10 +3704,10 @@
         <v>1100</v>
       </c>
       <c r="R61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S61" s="3">
         <v>1200</v>
-      </c>
-      <c r="S61" s="3">
-        <v>1400</v>
       </c>
       <c r="T61" s="3">
         <v>1400</v>
@@ -3572,67 +3715,73 @@
       <c r="U61" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56600</v>
+        <v>61700</v>
       </c>
       <c r="E62" s="3">
-        <v>51900</v>
+        <v>58100</v>
       </c>
       <c r="F62" s="3">
-        <v>53100</v>
+        <v>53400</v>
       </c>
       <c r="G62" s="3">
-        <v>50800</v>
+        <v>54600</v>
       </c>
       <c r="H62" s="3">
-        <v>49500</v>
+        <v>52200</v>
       </c>
       <c r="I62" s="3">
-        <v>45200</v>
+        <v>50900</v>
       </c>
       <c r="J62" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K62" s="3">
         <v>51700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>59700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>47800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>46600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>45100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>45600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>43600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3690,8 +3839,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3749,8 +3901,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3808,67 +3963,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>87000</v>
+        <v>102400</v>
       </c>
       <c r="E66" s="3">
-        <v>86800</v>
+        <v>89500</v>
       </c>
       <c r="F66" s="3">
-        <v>84100</v>
+        <v>89300</v>
       </c>
       <c r="G66" s="3">
-        <v>80900</v>
+        <v>86400</v>
       </c>
       <c r="H66" s="3">
-        <v>82700</v>
+        <v>83200</v>
       </c>
       <c r="I66" s="3">
-        <v>86600</v>
+        <v>85000</v>
       </c>
       <c r="J66" s="3">
+        <v>89100</v>
+      </c>
+      <c r="K66" s="3">
         <v>78500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>79000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>96200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>67700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>63500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>72400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>65300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>68200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>82600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3890,8 +4051,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3949,8 +4111,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4008,8 +4173,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4067,8 +4235,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4126,8 +4297,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4143,50 +4317,53 @@
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3">
-        <v>250500</v>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I72" s="3">
-        <v>214100</v>
+        <v>257500</v>
       </c>
       <c r="J72" s="3">
+        <v>220100</v>
+      </c>
+      <c r="K72" s="3">
         <v>152900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>154800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>153100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>78500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>88400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>85400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>76700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>89900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>103300</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
       <c r="T72" s="3">
         <v>0</v>
       </c>
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4244,8 +4421,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4303,8 +4483,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4362,67 +4545,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>298400</v>
+        <v>341800</v>
       </c>
       <c r="E76" s="3">
-        <v>288300</v>
+        <v>306800</v>
       </c>
       <c r="F76" s="3">
-        <v>263500</v>
+        <v>296400</v>
       </c>
       <c r="G76" s="3">
-        <v>255400</v>
+        <v>270900</v>
       </c>
       <c r="H76" s="3">
-        <v>250500</v>
+        <v>262600</v>
       </c>
       <c r="I76" s="3">
-        <v>214100</v>
+        <v>257500</v>
       </c>
       <c r="J76" s="3">
+        <v>220100</v>
+      </c>
+      <c r="K76" s="3">
         <v>152900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>154800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>153100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>78500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>88400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>85400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>76700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>89900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>103300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>108300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>106200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>87800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4480,131 +4669,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42094</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28300</v>
+        <v>40700</v>
       </c>
       <c r="E81" s="3">
-        <v>33300</v>
+        <v>29100</v>
       </c>
       <c r="F81" s="3">
-        <v>26300</v>
+        <v>34200</v>
       </c>
       <c r="G81" s="3">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="H81" s="3">
-        <v>50300</v>
+        <v>26700</v>
       </c>
       <c r="I81" s="3">
-        <v>16000</v>
+        <v>51700</v>
       </c>
       <c r="J81" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K81" s="3">
         <v>17600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4626,8 +4824,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4685,8 +4884,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4744,8 +4946,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4803,8 +5008,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4862,8 +5070,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4921,8 +5132,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4980,67 +5194,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>33700</v>
+        <v>55500</v>
       </c>
       <c r="E89" s="3">
-        <v>47300</v>
+        <v>34700</v>
       </c>
       <c r="F89" s="3">
-        <v>32100</v>
+        <v>48600</v>
       </c>
       <c r="G89" s="3">
-        <v>31300</v>
+        <v>33000</v>
       </c>
       <c r="H89" s="3">
-        <v>52100</v>
+        <v>32200</v>
       </c>
       <c r="I89" s="3">
-        <v>35800</v>
+        <v>53500</v>
       </c>
       <c r="J89" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K89" s="3">
         <v>24000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>23300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5062,58 +5282,59 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-757900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-387300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-401600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-182500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-193600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-202100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-143800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4100</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
@@ -5121,8 +5342,11 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5180,8 +5404,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5239,67 +5466,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22300</v>
+        <v>-41700</v>
       </c>
       <c r="E94" s="3">
-        <v>-22700</v>
+        <v>-23000</v>
       </c>
       <c r="F94" s="3">
-        <v>-10500</v>
+        <v>-23300</v>
       </c>
       <c r="G94" s="3">
-        <v>-11900</v>
+        <v>-10800</v>
       </c>
       <c r="H94" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="I94" s="3">
-        <v>-8300</v>
+        <v>-12100</v>
       </c>
       <c r="J94" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5321,67 +5554,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-18100</v>
+        <v>-9400</v>
       </c>
       <c r="E96" s="3">
-        <v>-8900</v>
+        <v>-18700</v>
       </c>
       <c r="F96" s="3">
-        <v>-18300</v>
+        <v>-9100</v>
       </c>
       <c r="G96" s="3">
-        <v>-18100</v>
+        <v>-18800</v>
       </c>
       <c r="H96" s="3">
-        <v>-15800</v>
+        <v>-18600</v>
       </c>
       <c r="I96" s="3">
-        <v>-22700</v>
+        <v>-16300</v>
       </c>
       <c r="J96" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-7200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-14100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5439,8 +5676,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5498,8 +5738,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5557,81 +5800,87 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18600</v>
+        <v>-9800</v>
       </c>
       <c r="E100" s="3">
-        <v>-9500</v>
+        <v>-19100</v>
       </c>
       <c r="F100" s="3">
-        <v>-18700</v>
+        <v>-9800</v>
       </c>
       <c r="G100" s="3">
-        <v>-18500</v>
+        <v>-19300</v>
       </c>
       <c r="H100" s="3">
-        <v>-16200</v>
+        <v>-19000</v>
       </c>
       <c r="I100" s="3">
-        <v>34500</v>
+        <v>-16600</v>
       </c>
       <c r="J100" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-7600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3500</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
@@ -5648,8 +5897,8 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5675,63 +5924,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7100</v>
+        <v>4300</v>
       </c>
       <c r="E102" s="3">
-        <v>15200</v>
+        <v>-7300</v>
       </c>
       <c r="F102" s="3">
+        <v>15600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>24800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K102" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="N102" s="3">
+        <v>500</v>
+      </c>
+      <c r="O102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="R102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="S102" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="T102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U102" s="3">
         <v>3100</v>
       </c>
-      <c r="G102" s="3">
-        <v>600</v>
-      </c>
-      <c r="H102" s="3">
-        <v>24100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>62100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>14000</v>
-      </c>
-      <c r="K102" s="3">
-        <v>4000</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="M102" s="3">
-        <v>500</v>
-      </c>
-      <c r="N102" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>6600</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="S102" s="3">
-        <v>2700</v>
-      </c>
-      <c r="T102" s="3">
-        <v>3100</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2700</v>
       </c>
     </row>
